--- a/241007_BOM_구매현황(전체).xlsx
+++ b/241007_BOM_구매현황(전체).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twinpapa/Databases/Git_Hub/GIC_HONGKONG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4B6F69-DD91-6A4F-991F-C9E971B1C6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ABE4E5-D56D-674B-828F-E86C57933A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="940" windowWidth="33900" windowHeight="24360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7220" yWindow="940" windowWidth="33900" windowHeight="24360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM list" sheetId="1" r:id="rId1"/>
@@ -1702,12 +1702,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="###0;###0"/>
-    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0"/>
-    <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="###0;###0"/>
+    <numFmt numFmtId="179" formatCode="&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="180" formatCode="&quot;US$&quot;#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2600,13 +2600,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2621,10 +2621,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2642,25 +2642,25 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2678,19 +2678,19 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="24" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2825,7 +2825,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2864,16 +2864,16 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2883,7 +2883,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2892,7 +2892,7 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2908,55 +2908,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2977,7 +2977,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2992,7 +2992,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3004,7 +3004,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3019,7 +3019,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3031,13 +3031,13 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3046,16 +3046,16 @@
     <xf numFmtId="14" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3064,7 +3064,7 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3103,10 +3103,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3121,7 +3121,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3139,13 +3139,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3163,10 +3163,10 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3178,10 +3178,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3196,7 +3196,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3226,7 +3226,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3241,7 +3241,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3265,7 +3265,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3280,7 +3280,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3301,7 +3301,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3310,19 +3310,19 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3349,13 +3349,13 @@
     <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3370,16 +3370,34 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3391,49 +3409,40 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="23" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="24" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3465,15 +3474,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3848,10 +3848,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="276">
+      <c r="B3" s="282">
         <v>1</v>
       </c>
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="277" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="132"/>
@@ -3868,8 +3868,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="275"/>
-      <c r="C4" s="272"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="278"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3900,8 +3900,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="275"/>
-      <c r="C5" s="272"/>
+      <c r="B5" s="281"/>
+      <c r="C5" s="278"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3932,8 +3932,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="275"/>
-      <c r="C6" s="272"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="278"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3964,8 +3964,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="275"/>
-      <c r="C7" s="272"/>
+      <c r="B7" s="281"/>
+      <c r="C7" s="278"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3996,8 +3996,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="275"/>
-      <c r="C8" s="272"/>
+      <c r="B8" s="281"/>
+      <c r="C8" s="278"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -4028,8 +4028,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="275"/>
-      <c r="C9" s="272"/>
+      <c r="B9" s="281"/>
+      <c r="C9" s="278"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -4060,8 +4060,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="275"/>
-      <c r="C10" s="272"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="278"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -4092,8 +4092,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="275"/>
-      <c r="C11" s="272"/>
+      <c r="B11" s="281"/>
+      <c r="C11" s="278"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -4124,8 +4124,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="275"/>
-      <c r="C12" s="272"/>
+      <c r="B12" s="281"/>
+      <c r="C12" s="278"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -4156,8 +4156,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="275"/>
-      <c r="C13" s="272"/>
+      <c r="B13" s="281"/>
+      <c r="C13" s="278"/>
       <c r="D13" s="150" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -4194,8 +4194,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="275"/>
-      <c r="C14" s="272"/>
+      <c r="B14" s="281"/>
+      <c r="C14" s="278"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -4229,8 +4229,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="275"/>
-      <c r="C15" s="272"/>
+      <c r="B15" s="281"/>
+      <c r="C15" s="278"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -4261,8 +4261,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="275"/>
-      <c r="C16" s="272"/>
+      <c r="B16" s="281"/>
+      <c r="C16" s="278"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -4293,8 +4293,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="275"/>
-      <c r="C17" s="272"/>
+      <c r="B17" s="281"/>
+      <c r="C17" s="278"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -4325,8 +4325,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="275"/>
-      <c r="C18" s="272"/>
+      <c r="B18" s="281"/>
+      <c r="C18" s="278"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -4357,8 +4357,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="275"/>
-      <c r="C19" s="272"/>
+      <c r="B19" s="281"/>
+      <c r="C19" s="278"/>
       <c r="D19" s="150" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -4395,8 +4395,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="275"/>
-      <c r="C20" s="272"/>
+      <c r="B20" s="281"/>
+      <c r="C20" s="278"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -4429,8 +4429,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="275"/>
-      <c r="C21" s="272"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="278"/>
       <c r="D21" s="150" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -4467,8 +4467,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="275"/>
-      <c r="C22" s="272"/>
+      <c r="B22" s="281"/>
+      <c r="C22" s="278"/>
       <c r="D22" s="150" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -4505,8 +4505,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="275"/>
-      <c r="C23" s="272"/>
+      <c r="B23" s="281"/>
+      <c r="C23" s="278"/>
       <c r="D23" s="150" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -4543,8 +4543,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="275"/>
-      <c r="C24" s="272"/>
+      <c r="B24" s="281"/>
+      <c r="C24" s="278"/>
       <c r="D24" s="150" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -4581,8 +4581,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="275"/>
-      <c r="C25" s="272"/>
+      <c r="B25" s="281"/>
+      <c r="C25" s="278"/>
       <c r="D25" s="150" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -4619,8 +4619,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="275"/>
-      <c r="C26" s="272"/>
+      <c r="B26" s="281"/>
+      <c r="C26" s="278"/>
       <c r="D26" s="150" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -4657,8 +4657,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="275"/>
-      <c r="C27" s="272"/>
+      <c r="B27" s="281"/>
+      <c r="C27" s="278"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -4689,8 +4689,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="275"/>
-      <c r="C28" s="272"/>
+      <c r="B28" s="281"/>
+      <c r="C28" s="278"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -4723,8 +4723,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="275"/>
-      <c r="C29" s="272"/>
+      <c r="B29" s="281"/>
+      <c r="C29" s="278"/>
       <c r="D29" s="199"/>
       <c r="E29" s="199"/>
       <c r="F29" s="199"/>
@@ -4737,8 +4737,8 @@
       <c r="M29" s="202"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="277"/>
-      <c r="C30" s="273"/>
+      <c r="B30" s="283"/>
+      <c r="C30" s="279"/>
       <c r="D30" s="148" t="s">
         <v>286</v>
       </c>
@@ -4764,10 +4764,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="274">
+      <c r="B31" s="280">
         <v>2</v>
       </c>
-      <c r="C31" s="278" t="s">
+      <c r="C31" s="272" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="151"/>
@@ -4784,8 +4784,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="275"/>
-      <c r="C32" s="279"/>
+      <c r="B32" s="281"/>
+      <c r="C32" s="273"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -4816,8 +4816,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="275"/>
-      <c r="C33" s="279"/>
+      <c r="B33" s="281"/>
+      <c r="C33" s="273"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -4848,8 +4848,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="275"/>
-      <c r="C34" s="279"/>
+      <c r="B34" s="281"/>
+      <c r="C34" s="273"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4880,8 +4880,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="275"/>
-      <c r="C35" s="279"/>
+      <c r="B35" s="281"/>
+      <c r="C35" s="273"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4912,8 +4912,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="275"/>
-      <c r="C36" s="279"/>
+      <c r="B36" s="281"/>
+      <c r="C36" s="273"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4944,8 +4944,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="275"/>
-      <c r="C37" s="279"/>
+      <c r="B37" s="281"/>
+      <c r="C37" s="273"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4976,8 +4976,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="275"/>
-      <c r="C38" s="279"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="273"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -5009,8 +5009,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="275"/>
-      <c r="C39" s="279"/>
+      <c r="B39" s="281"/>
+      <c r="C39" s="273"/>
       <c r="D39" s="191" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -5042,8 +5042,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="275"/>
-      <c r="C40" s="279"/>
+      <c r="B40" s="281"/>
+      <c r="C40" s="273"/>
       <c r="D40" s="191" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -5075,8 +5075,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="275"/>
-      <c r="C41" s="279"/>
+      <c r="B41" s="281"/>
+      <c r="C41" s="273"/>
       <c r="D41" s="192" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -5110,8 +5110,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="275"/>
-      <c r="C42" s="279"/>
+      <c r="B42" s="281"/>
+      <c r="C42" s="273"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -5142,8 +5142,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="275"/>
-      <c r="C43" s="279"/>
+      <c r="B43" s="281"/>
+      <c r="C43" s="273"/>
       <c r="D43" s="156" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -5180,8 +5180,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="275"/>
-      <c r="C44" s="279"/>
+      <c r="B44" s="281"/>
+      <c r="C44" s="273"/>
       <c r="D44" s="156" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -5218,8 +5218,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="275"/>
-      <c r="C45" s="279"/>
+      <c r="B45" s="281"/>
+      <c r="C45" s="273"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -5250,8 +5250,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="275"/>
-      <c r="C46" s="279"/>
+      <c r="B46" s="281"/>
+      <c r="C46" s="273"/>
       <c r="D46" s="190" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -5284,8 +5284,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="275"/>
-      <c r="C47" s="279"/>
+      <c r="B47" s="281"/>
+      <c r="C47" s="273"/>
       <c r="D47" s="199"/>
       <c r="E47" s="199"/>
       <c r="F47" s="199"/>
@@ -5298,8 +5298,8 @@
       <c r="M47" s="202"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="277"/>
-      <c r="C48" s="280"/>
+      <c r="B48" s="283"/>
+      <c r="C48" s="274"/>
       <c r="D48" s="148" t="s">
         <v>286</v>
       </c>
@@ -5325,10 +5325,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="274">
+      <c r="B49" s="280">
         <v>3</v>
       </c>
-      <c r="C49" s="278" t="s">
+      <c r="C49" s="272" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="151"/>
@@ -5345,8 +5345,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="275"/>
-      <c r="C50" s="279"/>
+      <c r="B50" s="281"/>
+      <c r="C50" s="273"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -5377,8 +5377,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="275"/>
-      <c r="C51" s="279"/>
+      <c r="B51" s="281"/>
+      <c r="C51" s="273"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -5409,8 +5409,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="275"/>
-      <c r="C52" s="279"/>
+      <c r="B52" s="281"/>
+      <c r="C52" s="273"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -5441,8 +5441,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="275"/>
-      <c r="C53" s="279"/>
+      <c r="B53" s="281"/>
+      <c r="C53" s="273"/>
       <c r="D53" s="156" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -5481,8 +5481,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="275"/>
-      <c r="C54" s="279"/>
+      <c r="B54" s="281"/>
+      <c r="C54" s="273"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -5512,8 +5512,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="275"/>
-      <c r="C55" s="279"/>
+      <c r="B55" s="281"/>
+      <c r="C55" s="273"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -5543,8 +5543,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="275"/>
-      <c r="C56" s="279"/>
+      <c r="B56" s="281"/>
+      <c r="C56" s="273"/>
       <c r="D56" s="191" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -5583,8 +5583,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="275"/>
-      <c r="C57" s="279"/>
+      <c r="B57" s="281"/>
+      <c r="C57" s="273"/>
       <c r="D57" s="191" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -5623,8 +5623,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="275"/>
-      <c r="C58" s="279"/>
+      <c r="B58" s="281"/>
+      <c r="C58" s="273"/>
       <c r="D58" s="192" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -5658,8 +5658,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="275"/>
-      <c r="C59" s="279"/>
+      <c r="B59" s="281"/>
+      <c r="C59" s="273"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -5690,8 +5690,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="275"/>
-      <c r="C60" s="279"/>
+      <c r="B60" s="281"/>
+      <c r="C60" s="273"/>
       <c r="D60" s="156" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -5728,8 +5728,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="275"/>
-      <c r="C61" s="279"/>
+      <c r="B61" s="281"/>
+      <c r="C61" s="273"/>
       <c r="D61" s="156" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -5766,8 +5766,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="275"/>
-      <c r="C62" s="279"/>
+      <c r="B62" s="281"/>
+      <c r="C62" s="273"/>
       <c r="D62" s="156" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -5804,8 +5804,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="275"/>
-      <c r="C63" s="279"/>
+      <c r="B63" s="281"/>
+      <c r="C63" s="273"/>
       <c r="D63" s="156" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -5842,8 +5842,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="275"/>
-      <c r="C64" s="279"/>
+      <c r="B64" s="281"/>
+      <c r="C64" s="273"/>
       <c r="D64" s="156" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5880,8 +5880,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="275"/>
-      <c r="C65" s="279"/>
+      <c r="B65" s="281"/>
+      <c r="C65" s="273"/>
       <c r="D65" s="190" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5914,8 +5914,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="275"/>
-      <c r="C66" s="279"/>
+      <c r="B66" s="281"/>
+      <c r="C66" s="273"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5946,8 +5946,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="275"/>
-      <c r="C67" s="279"/>
+      <c r="B67" s="281"/>
+      <c r="C67" s="273"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5960,8 +5960,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="277"/>
-      <c r="C68" s="280"/>
+      <c r="B68" s="283"/>
+      <c r="C68" s="274"/>
       <c r="D68" s="148" t="s">
         <v>286</v>
       </c>
@@ -5987,10 +5987,10 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="19">
-      <c r="B69" s="274">
+      <c r="B69" s="280">
         <v>4</v>
       </c>
-      <c r="C69" s="278" t="s">
+      <c r="C69" s="272" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="151"/>
@@ -6007,8 +6007,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="19">
-      <c r="B70" s="275"/>
-      <c r="C70" s="279"/>
+      <c r="B70" s="281"/>
+      <c r="C70" s="273"/>
       <c r="D70" s="161" t="str">
         <f>PAB!D3</f>
         <v>Main Frame, STS304, T1.5</v>
@@ -6045,8 +6045,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="19">
-      <c r="B71" s="275"/>
-      <c r="C71" s="279"/>
+      <c r="B71" s="281"/>
+      <c r="C71" s="273"/>
       <c r="D71" s="161" t="str">
         <f>PAB!D4</f>
         <v>Left Cover, STS304, T1.5</v>
@@ -6077,8 +6077,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="19">
-      <c r="B72" s="275"/>
-      <c r="C72" s="279"/>
+      <c r="B72" s="281"/>
+      <c r="C72" s="273"/>
       <c r="D72" s="161" t="str">
         <f>PAB!D5</f>
         <v>Right Cover, STS304, T1.5</v>
@@ -6109,8 +6109,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="19">
-      <c r="B73" s="275"/>
-      <c r="C73" s="279"/>
+      <c r="B73" s="281"/>
+      <c r="C73" s="273"/>
       <c r="D73" s="161" t="str">
         <f>PAB!D6</f>
         <v>Rear Cover, STS304, T1.5</v>
@@ -6141,8 +6141,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="19">
-      <c r="B74" s="275"/>
-      <c r="C74" s="279"/>
+      <c r="B74" s="281"/>
+      <c r="C74" s="273"/>
       <c r="D74" s="198" t="str">
         <f>PAB!D7</f>
         <v>Power Board</v>
@@ -6177,8 +6177,8 @@
       </c>
     </row>
     <row r="75" spans="2:13" ht="19">
-      <c r="B75" s="275"/>
-      <c r="C75" s="279"/>
+      <c r="B75" s="281"/>
+      <c r="C75" s="273"/>
       <c r="D75" s="198" t="str">
         <f>PAB!D8</f>
         <v>Control Board</v>
@@ -6209,8 +6209,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="19">
-      <c r="B76" s="275"/>
-      <c r="C76" s="279"/>
+      <c r="B76" s="281"/>
+      <c r="C76" s="273"/>
       <c r="D76" s="161" t="str">
         <f>PAB!D9</f>
         <v>3P Connector, N&amp;G coding</v>
@@ -6247,8 +6247,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="19">
-      <c r="B77" s="275"/>
-      <c r="C77" s="279"/>
+      <c r="B77" s="281"/>
+      <c r="C77" s="273"/>
       <c r="D77" s="161" t="str">
         <f>PAB!D10</f>
         <v>4P Connector</v>
@@ -6285,8 +6285,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="19">
-      <c r="B78" s="275"/>
-      <c r="C78" s="279"/>
+      <c r="B78" s="281"/>
+      <c r="C78" s="273"/>
       <c r="D78" s="161" t="str">
         <f>PAB!D11</f>
         <v>Locking</v>
@@ -6323,8 +6323,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="19">
-      <c r="B79" s="275"/>
-      <c r="C79" s="279"/>
+      <c r="B79" s="281"/>
+      <c r="C79" s="273"/>
       <c r="D79" s="161" t="str">
         <f>PAB!D12</f>
         <v>4P Connector</v>
@@ -6361,8 +6361,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="19">
-      <c r="B80" s="275"/>
-      <c r="C80" s="279"/>
+      <c r="B80" s="281"/>
+      <c r="C80" s="273"/>
       <c r="D80" s="161" t="str">
         <f>PAB!D13</f>
         <v>Pin</v>
@@ -6399,8 +6399,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="19">
-      <c r="B81" s="275"/>
-      <c r="C81" s="279"/>
+      <c r="B81" s="281"/>
+      <c r="C81" s="273"/>
       <c r="D81" s="161" t="str">
         <f>PAB!D14</f>
         <v>8P Connector</v>
@@ -6437,8 +6437,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="19">
-      <c r="B82" s="275"/>
-      <c r="C82" s="279"/>
+      <c r="B82" s="281"/>
+      <c r="C82" s="273"/>
       <c r="D82" s="161" t="str">
         <f>PAB!D15</f>
         <v>Pin</v>
@@ -6475,8 +6475,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="19">
-      <c r="B83" s="275"/>
-      <c r="C83" s="279"/>
+      <c r="B83" s="281"/>
+      <c r="C83" s="273"/>
       <c r="D83" s="161" t="str">
         <f>PAB!D16</f>
         <v>Cable Gland</v>
@@ -6513,8 +6513,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="38">
-      <c r="B84" s="275"/>
-      <c r="C84" s="279"/>
+      <c r="B84" s="281"/>
+      <c r="C84" s="273"/>
       <c r="D84" s="198" t="str">
         <f>PAB!D17</f>
         <v>Relay</v>
@@ -6550,8 +6550,8 @@
       </c>
     </row>
     <row r="85" spans="2:13" ht="19">
-      <c r="B85" s="275"/>
-      <c r="C85" s="279"/>
+      <c r="B85" s="281"/>
+      <c r="C85" s="273"/>
       <c r="D85" s="198" t="str">
         <f>PAB!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -6582,8 +6582,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="275"/>
-      <c r="C86" s="279"/>
+      <c r="B86" s="281"/>
+      <c r="C86" s="273"/>
       <c r="D86" s="145"/>
       <c r="E86" s="145"/>
       <c r="F86" s="145"/>
@@ -6596,8 +6596,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="19">
-      <c r="B87" s="277"/>
-      <c r="C87" s="280"/>
+      <c r="B87" s="283"/>
+      <c r="C87" s="274"/>
       <c r="D87" s="148" t="s">
         <v>286</v>
       </c>
@@ -6623,10 +6623,10 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="19">
-      <c r="B88" s="274">
+      <c r="B88" s="280">
         <v>5</v>
       </c>
-      <c r="C88" s="278" t="s">
+      <c r="C88" s="272" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="151"/>
@@ -6645,8 +6645,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="19">
-      <c r="B89" s="275"/>
-      <c r="C89" s="279"/>
+      <c r="B89" s="281"/>
+      <c r="C89" s="273"/>
       <c r="D89" s="161" t="str">
         <f>EID!D3</f>
         <v>Main Frame, STS304, T1.2</v>
@@ -6683,8 +6683,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="19">
-      <c r="B90" s="275"/>
-      <c r="C90" s="279"/>
+      <c r="B90" s="281"/>
+      <c r="C90" s="273"/>
       <c r="D90" s="161" t="str">
         <f>EID!D4</f>
         <v>Mount Bracket</v>
@@ -6715,8 +6715,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="19">
-      <c r="B91" s="275"/>
-      <c r="C91" s="279"/>
+      <c r="B91" s="281"/>
+      <c r="C91" s="273"/>
       <c r="D91" s="161" t="str">
         <f>EID!D5</f>
         <v>LCD Bracket</v>
@@ -6747,8 +6747,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="19">
-      <c r="B92" s="275"/>
-      <c r="C92" s="279"/>
+      <c r="B92" s="281"/>
+      <c r="C92" s="273"/>
       <c r="D92" s="161" t="str">
         <f>EID!D6</f>
         <v>LCD Panel, 27”</v>
@@ -6787,8 +6787,8 @@
       </c>
     </row>
     <row r="93" spans="2:13" ht="19">
-      <c r="B93" s="275"/>
-      <c r="C93" s="279"/>
+      <c r="B93" s="281"/>
+      <c r="C93" s="273"/>
       <c r="D93" s="161" t="str">
         <f>EID!D7</f>
         <v>Connector Cover</v>
@@ -6819,8 +6819,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="19">
-      <c r="B94" s="275"/>
-      <c r="C94" s="279"/>
+      <c r="B94" s="281"/>
+      <c r="C94" s="273"/>
       <c r="D94" s="161" t="str">
         <f>EID!D8</f>
         <v>Rear Cover</v>
@@ -6851,8 +6851,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="19">
-      <c r="B95" s="275"/>
-      <c r="C95" s="279"/>
+      <c r="B95" s="281"/>
+      <c r="C95" s="273"/>
       <c r="D95" s="198" t="str">
         <f>EID!D9</f>
         <v>Control Board</v>
@@ -6883,8 +6883,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="19">
-      <c r="B96" s="275"/>
-      <c r="C96" s="279"/>
+      <c r="B96" s="281"/>
+      <c r="C96" s="273"/>
       <c r="D96" s="198" t="str">
         <f>EID!D10</f>
         <v>Power Board</v>
@@ -6919,8 +6919,8 @@
       </c>
     </row>
     <row r="97" spans="2:13" ht="19">
-      <c r="B97" s="275"/>
-      <c r="C97" s="279"/>
+      <c r="B97" s="281"/>
+      <c r="C97" s="273"/>
       <c r="D97" s="161" t="str">
         <f>EID!D11</f>
         <v>3P Connector Female</v>
@@ -6957,8 +6957,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="19">
-      <c r="B98" s="275"/>
-      <c r="C98" s="279"/>
+      <c r="B98" s="281"/>
+      <c r="C98" s="273"/>
       <c r="D98" s="161" t="str">
         <f>EID!D12</f>
         <v>Locking</v>
@@ -6995,8 +6995,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="19">
-      <c r="B99" s="275"/>
-      <c r="C99" s="279"/>
+      <c r="B99" s="281"/>
+      <c r="C99" s="273"/>
       <c r="D99" s="161" t="str">
         <f>EID!D13</f>
         <v>4P Connector Female</v>
@@ -7033,8 +7033,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="19">
-      <c r="B100" s="275"/>
-      <c r="C100" s="279"/>
+      <c r="B100" s="281"/>
+      <c r="C100" s="273"/>
       <c r="D100" s="161" t="str">
         <f>EID!D14</f>
         <v>Pin</v>
@@ -7071,8 +7071,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="19">
-      <c r="B101" s="275"/>
-      <c r="C101" s="279"/>
+      <c r="B101" s="281"/>
+      <c r="C101" s="273"/>
       <c r="D101" s="161" t="str">
         <f>EID!D15</f>
         <v>Cable Gland</v>
@@ -7109,8 +7109,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="19">
-      <c r="B102" s="275"/>
-      <c r="C102" s="279"/>
+      <c r="B102" s="281"/>
+      <c r="C102" s="273"/>
       <c r="D102" s="161" t="str">
         <f>EID!D16</f>
         <v>Illumination Sensor</v>
@@ -7147,8 +7147,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="19">
-      <c r="B103" s="275"/>
-      <c r="C103" s="279"/>
+      <c r="B103" s="281"/>
+      <c r="C103" s="273"/>
       <c r="D103" s="161" t="str">
         <f>EID!D17</f>
         <v>Inverter Board</v>
@@ -7185,8 +7185,8 @@
       </c>
     </row>
     <row r="104" spans="2:13" ht="19">
-      <c r="B104" s="275"/>
-      <c r="C104" s="279"/>
+      <c r="B104" s="281"/>
+      <c r="C104" s="273"/>
       <c r="D104" s="198" t="str">
         <f>EID!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -7217,8 +7217,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="19">
-      <c r="B105" s="275"/>
-      <c r="C105" s="279"/>
+      <c r="B105" s="281"/>
+      <c r="C105" s="273"/>
       <c r="D105" s="161" t="str">
         <f>EID!D19</f>
         <v>강화유리</v>
@@ -7253,8 +7253,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="275"/>
-      <c r="C106" s="279"/>
+      <c r="B106" s="281"/>
+      <c r="C106" s="273"/>
       <c r="D106" s="145"/>
       <c r="E106" s="145"/>
       <c r="F106" s="145"/>
@@ -7267,8 +7267,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="19">
-      <c r="B107" s="277"/>
-      <c r="C107" s="280"/>
+      <c r="B107" s="283"/>
+      <c r="C107" s="274"/>
       <c r="D107" s="148" t="s">
         <v>286</v>
       </c>
@@ -7294,10 +7294,10 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="19">
-      <c r="B108" s="274">
+      <c r="B108" s="280">
         <v>6</v>
       </c>
-      <c r="C108" s="278" t="s">
+      <c r="C108" s="272" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="151"/>
@@ -7314,8 +7314,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="19">
-      <c r="B109" s="275"/>
-      <c r="C109" s="279"/>
+      <c r="B109" s="281"/>
+      <c r="C109" s="273"/>
       <c r="D109" s="13" t="str">
         <f>PSR!D3</f>
         <v>Hub Board</v>
@@ -7346,8 +7346,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="19">
-      <c r="B110" s="275"/>
-      <c r="C110" s="279"/>
+      <c r="B110" s="281"/>
+      <c r="C110" s="273"/>
       <c r="D110" s="13" t="str">
         <f>PSR!D4</f>
         <v>PA_VOIP Board</v>
@@ -7378,8 +7378,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="19">
-      <c r="B111" s="275"/>
-      <c r="C111" s="279"/>
+      <c r="B111" s="281"/>
+      <c r="C111" s="273"/>
       <c r="D111" s="13" t="str">
         <f>PSR!D5</f>
         <v>PA_AMP1 Board</v>
@@ -7410,8 +7410,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="19">
-      <c r="B112" s="275"/>
-      <c r="C112" s="279"/>
+      <c r="B112" s="281"/>
+      <c r="C112" s="273"/>
       <c r="D112" s="13" t="str">
         <f>PSR!D6</f>
         <v>35V PWR Board</v>
@@ -7446,8 +7446,8 @@
       </c>
     </row>
     <row r="113" spans="2:13" ht="19">
-      <c r="B113" s="275"/>
-      <c r="C113" s="279"/>
+      <c r="B113" s="281"/>
+      <c r="C113" s="273"/>
       <c r="D113" s="13" t="str">
         <f>PSR!D7</f>
         <v>PA_AMP2 Board</v>
@@ -7478,8 +7478,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="19">
-      <c r="B114" s="275"/>
-      <c r="C114" s="279"/>
+      <c r="B114" s="281"/>
+      <c r="C114" s="273"/>
       <c r="D114" s="156" t="str">
         <f>PSR!D8</f>
         <v>Blank Panel</v>
@@ -7516,8 +7516,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="19">
-      <c r="B115" s="275"/>
-      <c r="C115" s="279"/>
+      <c r="B115" s="281"/>
+      <c r="C115" s="273"/>
       <c r="D115" s="13" t="str">
         <f>PSR!D9</f>
         <v>12V PWR Board</v>
@@ -7550,8 +7550,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="19">
-      <c r="B116" s="275"/>
-      <c r="C116" s="279"/>
+      <c r="B116" s="281"/>
+      <c r="C116" s="273"/>
       <c r="D116" s="156" t="str">
         <f>PSR!D10</f>
         <v>PSR Back Plane</v>
@@ -7590,8 +7590,8 @@
       </c>
     </row>
     <row r="117" spans="2:13" ht="19">
-      <c r="B117" s="275"/>
-      <c r="C117" s="279"/>
+      <c r="B117" s="281"/>
+      <c r="C117" s="273"/>
       <c r="D117" s="156" t="str">
         <f>PSR!D11</f>
         <v>Frame</v>
@@ -7628,8 +7628,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="19">
-      <c r="B118" s="275"/>
-      <c r="C118" s="279"/>
+      <c r="B118" s="281"/>
+      <c r="C118" s="273"/>
       <c r="D118" s="13" t="str">
         <f>PSR!D12</f>
         <v>Name Plate, AL, T1</v>
@@ -7660,8 +7660,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="275"/>
-      <c r="C119" s="279"/>
+      <c r="B119" s="281"/>
+      <c r="C119" s="273"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -7674,8 +7674,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="19">
-      <c r="B120" s="277"/>
-      <c r="C120" s="280"/>
+      <c r="B120" s="283"/>
+      <c r="C120" s="274"/>
       <c r="D120" s="148" t="s">
         <v>286</v>
       </c>
@@ -7701,10 +7701,10 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="19">
-      <c r="B121" s="274">
+      <c r="B121" s="280">
         <v>7</v>
       </c>
-      <c r="C121" s="281" t="s">
+      <c r="C121" s="284" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="151"/>
@@ -7721,8 +7721,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="19">
-      <c r="B122" s="275"/>
-      <c r="C122" s="272"/>
+      <c r="B122" s="281"/>
+      <c r="C122" s="278"/>
       <c r="D122" s="161" t="str">
         <f>ETND!D3</f>
         <v>Main Frame, SPCC</v>
@@ -7759,8 +7759,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="19">
-      <c r="B123" s="275"/>
-      <c r="C123" s="272"/>
+      <c r="B123" s="281"/>
+      <c r="C123" s="278"/>
       <c r="D123" s="161" t="str">
         <f>ETND!D4</f>
         <v>Rear Cover</v>
@@ -7791,8 +7791,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="19">
-      <c r="B124" s="275"/>
-      <c r="C124" s="272"/>
+      <c r="B124" s="281"/>
+      <c r="C124" s="278"/>
       <c r="D124" s="161" t="str">
         <f>ETND!D5</f>
         <v>LED Bracket</v>
@@ -7823,8 +7823,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="19">
-      <c r="B125" s="275"/>
-      <c r="C125" s="272"/>
+      <c r="B125" s="281"/>
+      <c r="C125" s="278"/>
       <c r="D125" s="198" t="str">
         <f>ETND!D6</f>
         <v>LED Module</v>
@@ -7859,8 +7859,8 @@
       </c>
     </row>
     <row r="126" spans="2:13" ht="19">
-      <c r="B126" s="275"/>
-      <c r="C126" s="272"/>
+      <c r="B126" s="281"/>
+      <c r="C126" s="278"/>
       <c r="D126" s="161" t="str">
         <f>ETND!D7</f>
         <v>Power Board Bracket</v>
@@ -7891,8 +7891,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="19">
-      <c r="B127" s="275"/>
-      <c r="C127" s="272"/>
+      <c r="B127" s="281"/>
+      <c r="C127" s="278"/>
       <c r="D127" s="198" t="str">
         <f>ETND!D8</f>
         <v>Power Board</v>
@@ -7927,8 +7927,8 @@
       </c>
     </row>
     <row r="128" spans="2:13" ht="19">
-      <c r="B128" s="275"/>
-      <c r="C128" s="272"/>
+      <c r="B128" s="281"/>
+      <c r="C128" s="278"/>
       <c r="D128" s="161" t="str">
         <f>ETND!D9</f>
         <v>Control Board Bracket</v>
@@ -7959,8 +7959,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="19">
-      <c r="B129" s="275"/>
-      <c r="C129" s="272"/>
+      <c r="B129" s="281"/>
+      <c r="C129" s="278"/>
       <c r="D129" s="161" t="str">
         <f>ETND!D10</f>
         <v>Control Board</v>
@@ -7997,8 +7997,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="19">
-      <c r="B130" s="275"/>
-      <c r="C130" s="272"/>
+      <c r="B130" s="281"/>
+      <c r="C130" s="278"/>
       <c r="D130" s="161" t="str">
         <f>ETND!D11</f>
         <v>3P Connector Female</v>
@@ -8035,8 +8035,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="19">
-      <c r="B131" s="275"/>
-      <c r="C131" s="272"/>
+      <c r="B131" s="281"/>
+      <c r="C131" s="278"/>
       <c r="D131" s="161" t="str">
         <f>ETND!D12</f>
         <v>Locking</v>
@@ -8073,8 +8073,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="19">
-      <c r="B132" s="275"/>
-      <c r="C132" s="272"/>
+      <c r="B132" s="281"/>
+      <c r="C132" s="278"/>
       <c r="D132" s="161" t="str">
         <f>ETND!D13</f>
         <v>4P Connector Female</v>
@@ -8111,8 +8111,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="19">
-      <c r="B133" s="275"/>
-      <c r="C133" s="272"/>
+      <c r="B133" s="281"/>
+      <c r="C133" s="278"/>
       <c r="D133" s="161" t="str">
         <f>ETND!D14</f>
         <v>Pin</v>
@@ -8149,8 +8149,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="19">
-      <c r="B134" s="275"/>
-      <c r="C134" s="272"/>
+      <c r="B134" s="281"/>
+      <c r="C134" s="278"/>
       <c r="D134" s="161" t="str">
         <f>ETND!D15</f>
         <v>Mount Bracket</v>
@@ -8181,8 +8181,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="19">
-      <c r="B135" s="275"/>
-      <c r="C135" s="272"/>
+      <c r="B135" s="281"/>
+      <c r="C135" s="278"/>
       <c r="D135" s="198" t="str">
         <f>ETND!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8213,8 +8213,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="275"/>
-      <c r="C136" s="272"/>
+      <c r="B136" s="281"/>
+      <c r="C136" s="278"/>
       <c r="D136" s="145"/>
       <c r="E136" s="145"/>
       <c r="F136" s="145"/>
@@ -8227,8 +8227,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="19">
-      <c r="B137" s="277"/>
-      <c r="C137" s="273"/>
+      <c r="B137" s="283"/>
+      <c r="C137" s="279"/>
       <c r="D137" s="148" t="s">
         <v>286</v>
       </c>
@@ -8254,10 +8254,10 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="19">
-      <c r="B138" s="274">
+      <c r="B138" s="280">
         <v>8</v>
       </c>
-      <c r="C138" s="278" t="s">
+      <c r="C138" s="272" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="174"/>
@@ -8274,8 +8274,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="19">
-      <c r="B139" s="275"/>
-      <c r="C139" s="279"/>
+      <c r="B139" s="281"/>
+      <c r="C139" s="273"/>
       <c r="D139" s="161" t="str">
         <f>EDD!D3</f>
         <v>Main Frame, SPCC</v>
@@ -8312,8 +8312,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="19">
-      <c r="B140" s="275"/>
-      <c r="C140" s="279"/>
+      <c r="B140" s="281"/>
+      <c r="C140" s="273"/>
       <c r="D140" s="161" t="str">
         <f>EDD!D4</f>
         <v>Rear Cover</v>
@@ -8344,8 +8344,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="19">
-      <c r="B141" s="275"/>
-      <c r="C141" s="279"/>
+      <c r="B141" s="281"/>
+      <c r="C141" s="273"/>
       <c r="D141" s="161" t="str">
         <f>EDD!D5</f>
         <v>LED Bracket</v>
@@ -8376,8 +8376,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="19">
-      <c r="B142" s="275"/>
-      <c r="C142" s="279"/>
+      <c r="B142" s="281"/>
+      <c r="C142" s="273"/>
       <c r="D142" s="198" t="str">
         <f>EDD!D6</f>
         <v>LED Module</v>
@@ -8412,8 +8412,8 @@
       </c>
     </row>
     <row r="143" spans="2:13" ht="19">
-      <c r="B143" s="275"/>
-      <c r="C143" s="279"/>
+      <c r="B143" s="281"/>
+      <c r="C143" s="273"/>
       <c r="D143" s="161" t="str">
         <f>EDD!D7</f>
         <v>Power Board Bracket</v>
@@ -8444,8 +8444,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="19">
-      <c r="B144" s="275"/>
-      <c r="C144" s="279"/>
+      <c r="B144" s="281"/>
+      <c r="C144" s="273"/>
       <c r="D144" s="198" t="str">
         <f>EDD!D8</f>
         <v>Power Board</v>
@@ -8480,8 +8480,8 @@
       </c>
     </row>
     <row r="145" spans="2:13" ht="19">
-      <c r="B145" s="275"/>
-      <c r="C145" s="279"/>
+      <c r="B145" s="281"/>
+      <c r="C145" s="273"/>
       <c r="D145" s="161" t="str">
         <f>EDD!D9</f>
         <v>Control Board Bracket</v>
@@ -8512,8 +8512,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="19">
-      <c r="B146" s="275"/>
-      <c r="C146" s="279"/>
+      <c r="B146" s="281"/>
+      <c r="C146" s="273"/>
       <c r="D146" s="161" t="str">
         <f>EDD!D10</f>
         <v>Control Board</v>
@@ -8550,8 +8550,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="19">
-      <c r="B147" s="275"/>
-      <c r="C147" s="279"/>
+      <c r="B147" s="281"/>
+      <c r="C147" s="273"/>
       <c r="D147" s="161" t="str">
         <f>EDD!D11</f>
         <v>3P Connector Female</v>
@@ -8588,8 +8588,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="19">
-      <c r="B148" s="275"/>
-      <c r="C148" s="279"/>
+      <c r="B148" s="281"/>
+      <c r="C148" s="273"/>
       <c r="D148" s="161" t="str">
         <f>EDD!D12</f>
         <v>Locking</v>
@@ -8626,8 +8626,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="19">
-      <c r="B149" s="275"/>
-      <c r="C149" s="279"/>
+      <c r="B149" s="281"/>
+      <c r="C149" s="273"/>
       <c r="D149" s="161" t="str">
         <f>EDD!D13</f>
         <v>4P Connector Female</v>
@@ -8664,8 +8664,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="19">
-      <c r="B150" s="275"/>
-      <c r="C150" s="279"/>
+      <c r="B150" s="281"/>
+      <c r="C150" s="273"/>
       <c r="D150" s="161" t="str">
         <f>EDD!D14</f>
         <v>Pin</v>
@@ -8702,8 +8702,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="19">
-      <c r="B151" s="275"/>
-      <c r="C151" s="279"/>
+      <c r="B151" s="281"/>
+      <c r="C151" s="273"/>
       <c r="D151" s="161" t="str">
         <f>EDD!D15</f>
         <v>Mount Bracket</v>
@@ -8734,8 +8734,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="19">
-      <c r="B152" s="275"/>
-      <c r="C152" s="279"/>
+      <c r="B152" s="281"/>
+      <c r="C152" s="273"/>
       <c r="D152" s="198" t="str">
         <f>EDD!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8766,8 +8766,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="275"/>
-      <c r="C153" s="279"/>
+      <c r="B153" s="281"/>
+      <c r="C153" s="273"/>
       <c r="D153" s="145"/>
       <c r="E153" s="145"/>
       <c r="F153" s="145"/>
@@ -8780,8 +8780,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="19">
-      <c r="B154" s="275"/>
-      <c r="C154" s="280"/>
+      <c r="B154" s="281"/>
+      <c r="C154" s="274"/>
       <c r="D154" s="148" t="s">
         <v>286</v>
       </c>
@@ -8807,7 +8807,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="269" t="s">
+      <c r="B155" s="275" t="s">
         <v>285</v>
       </c>
       <c r="C155" s="177">
@@ -8844,7 +8844,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="269"/>
+      <c r="B156" s="275"/>
       <c r="C156" s="177">
         <v>2</v>
       </c>
@@ -8879,7 +8879,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="269"/>
+      <c r="B157" s="275"/>
       <c r="C157" s="177">
         <v>3</v>
       </c>
@@ -8914,7 +8914,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="269"/>
+      <c r="B158" s="275"/>
       <c r="C158" s="177">
         <v>4</v>
       </c>
@@ -8944,7 +8944,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="269"/>
+      <c r="B159" s="275"/>
       <c r="C159" s="177">
         <v>5</v>
       </c>
@@ -8975,7 +8975,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="269"/>
+      <c r="B160" s="275"/>
       <c r="C160" s="177">
         <v>6</v>
       </c>
@@ -9003,7 +9003,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="269"/>
+      <c r="B161" s="275"/>
       <c r="C161" s="177">
         <v>7</v>
       </c>
@@ -9040,7 +9040,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="270"/>
+      <c r="B162" s="276"/>
       <c r="C162" s="215">
         <v>8</v>
       </c>
@@ -9115,6 +9115,7 @@
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="C121:C137"/>
     <mergeCell ref="C138:C154"/>
     <mergeCell ref="B155:B162"/>
     <mergeCell ref="C3:C30"/>
@@ -9131,7 +9132,6 @@
     <mergeCell ref="B108:B120"/>
     <mergeCell ref="C108:C120"/>
     <mergeCell ref="B121:B137"/>
-    <mergeCell ref="C121:C137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10362,7 +10362,7 @@
       </c>
     </row>
     <row r="33" spans="2:17">
-      <c r="B33" s="282" t="s">
+      <c r="B33" s="285" t="s">
         <v>367</v>
       </c>
       <c r="C33" s="28">
@@ -10401,7 +10401,7 @@
       </c>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="283"/>
+      <c r="B34" s="286"/>
       <c r="C34" s="28">
         <v>2</v>
       </c>
@@ -10437,7 +10437,7 @@
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="283"/>
+      <c r="B35" s="286"/>
       <c r="C35" s="28">
         <v>3</v>
       </c>
@@ -10473,7 +10473,7 @@
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="2:17">
-      <c r="B36" s="283"/>
+      <c r="B36" s="286"/>
       <c r="C36" s="28">
         <v>4</v>
       </c>
@@ -10509,7 +10509,7 @@
       <c r="Q36" s="40"/>
     </row>
     <row r="37" spans="2:17" ht="19">
-      <c r="B37" s="283"/>
+      <c r="B37" s="286"/>
       <c r="C37" s="28">
         <v>5</v>
       </c>
@@ -10545,7 +10545,7 @@
       <c r="Q37" s="40"/>
     </row>
     <row r="38" spans="2:17" ht="19">
-      <c r="B38" s="283"/>
+      <c r="B38" s="286"/>
       <c r="C38" s="28">
         <v>9</v>
       </c>
@@ -10583,7 +10583,7 @@
       <c r="Q38" s="40"/>
     </row>
     <row r="39" spans="2:17" ht="19">
-      <c r="B39" s="283"/>
+      <c r="B39" s="286"/>
       <c r="C39" s="28">
         <v>10</v>
       </c>
@@ -10621,7 +10621,7 @@
       <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="2:17" ht="19">
-      <c r="B40" s="283"/>
+      <c r="B40" s="286"/>
       <c r="C40" s="28">
         <v>11</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="Q40" s="40"/>
     </row>
     <row r="41" spans="2:17" ht="19">
-      <c r="B41" s="283"/>
+      <c r="B41" s="286"/>
       <c r="C41" s="28">
         <v>12</v>
       </c>
@@ -10697,7 +10697,7 @@
       <c r="Q41" s="40"/>
     </row>
     <row r="42" spans="2:17" ht="19">
-      <c r="B42" s="283"/>
+      <c r="B42" s="286"/>
       <c r="C42" s="28">
         <v>13</v>
       </c>
@@ -10735,7 +10735,7 @@
       <c r="Q42" s="40"/>
     </row>
     <row r="43" spans="2:17" ht="19">
-      <c r="B43" s="283"/>
+      <c r="B43" s="286"/>
       <c r="C43" s="28">
         <v>14</v>
       </c>
@@ -10773,7 +10773,7 @@
       <c r="Q43" s="40"/>
     </row>
     <row r="44" spans="2:17" ht="19">
-      <c r="B44" s="283"/>
+      <c r="B44" s="286"/>
       <c r="C44" s="28">
         <v>15</v>
       </c>
@@ -10811,7 +10811,7 @@
       <c r="Q44" s="40"/>
     </row>
     <row r="45" spans="2:17" ht="19">
-      <c r="B45" s="283"/>
+      <c r="B45" s="286"/>
       <c r="C45" s="28">
         <v>16</v>
       </c>
@@ -10849,7 +10849,7 @@
       <c r="Q45" s="40"/>
     </row>
     <row r="46" spans="2:17" ht="19">
-      <c r="B46" s="283"/>
+      <c r="B46" s="286"/>
       <c r="C46" s="28">
         <v>17</v>
       </c>
@@ -10887,7 +10887,7 @@
       <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="2:17" ht="19">
-      <c r="B47" s="283"/>
+      <c r="B47" s="286"/>
       <c r="C47" s="28">
         <v>18</v>
       </c>
@@ -10925,7 +10925,7 @@
       <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="2:17" ht="19">
-      <c r="B48" s="283"/>
+      <c r="B48" s="286"/>
       <c r="C48" s="28">
         <v>19</v>
       </c>
@@ -10963,7 +10963,7 @@
       <c r="Q48" s="40"/>
     </row>
     <row r="49" spans="2:17" ht="19">
-      <c r="B49" s="283"/>
+      <c r="B49" s="286"/>
       <c r="C49" s="28">
         <v>20</v>
       </c>
@@ -11001,7 +11001,7 @@
       <c r="Q49" s="40"/>
     </row>
     <row r="50" spans="2:17" ht="19">
-      <c r="B50" s="283"/>
+      <c r="B50" s="286"/>
       <c r="C50" s="28">
         <v>21</v>
       </c>
@@ -11061,11 +11061,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE9CC8-7466-4AE8-8E3E-40061B3AE359}">
-  <dimension ref="B1:Q47"/>
+  <dimension ref="B1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="18"/>
@@ -11075,7 +11075,9 @@
     <col min="3" max="3" width="7.3984375" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.3984375" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.796875" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.59765625" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="32" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="32" customWidth="1"/>
@@ -11140,7 +11142,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" ht="19">
-      <c r="B2" s="286">
+      <c r="B2" s="289">
         <v>2</v>
       </c>
       <c r="C2" s="45" t="s">
@@ -11164,7 +11166,7 @@
       <c r="Q2" s="54"/>
     </row>
     <row r="3" spans="2:17" ht="19">
-      <c r="B3" s="287"/>
+      <c r="B3" s="290"/>
       <c r="C3" s="45">
         <v>1</v>
       </c>
@@ -11204,7 +11206,7 @@
       <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="2:17" ht="19">
-      <c r="B4" s="287"/>
+      <c r="B4" s="290"/>
       <c r="C4" s="45">
         <v>2</v>
       </c>
@@ -11244,7 +11246,7 @@
       <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="2:17" ht="19">
-      <c r="B5" s="287"/>
+      <c r="B5" s="290"/>
       <c r="C5" s="45">
         <v>3</v>
       </c>
@@ -11284,7 +11286,7 @@
       <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="2:17" ht="19">
-      <c r="B6" s="287"/>
+      <c r="B6" s="290"/>
       <c r="C6" s="45">
         <v>4</v>
       </c>
@@ -11324,7 +11326,7 @@
       <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="2:17" ht="19">
-      <c r="B7" s="287"/>
+      <c r="B7" s="290"/>
       <c r="C7" s="45">
         <v>5</v>
       </c>
@@ -11364,7 +11366,7 @@
       <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="2:17" ht="19">
-      <c r="B8" s="287"/>
+      <c r="B8" s="290"/>
       <c r="C8" s="45">
         <v>6</v>
       </c>
@@ -11404,7 +11406,7 @@
       <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="2:17" ht="19">
-      <c r="B9" s="287"/>
+      <c r="B9" s="290"/>
       <c r="C9" s="45">
         <v>7</v>
       </c>
@@ -11444,7 +11446,7 @@
       <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="2:17" ht="19">
-      <c r="B10" s="287"/>
+      <c r="B10" s="290"/>
       <c r="C10" s="45"/>
       <c r="D10" s="79" t="s">
         <v>324</v>
@@ -11482,7 +11484,7 @@
       <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="2:17" ht="19">
-      <c r="B11" s="287"/>
+      <c r="B11" s="290"/>
       <c r="C11" s="45"/>
       <c r="D11" s="79" t="s">
         <v>325</v>
@@ -11520,7 +11522,7 @@
       <c r="Q11" s="54"/>
     </row>
     <row r="12" spans="2:17" ht="19">
-      <c r="B12" s="287"/>
+      <c r="B12" s="290"/>
       <c r="C12" s="45"/>
       <c r="D12" s="80" t="s">
         <v>326</v>
@@ -11558,7 +11560,7 @@
       <c r="Q12" s="61"/>
     </row>
     <row r="13" spans="2:17" ht="19">
-      <c r="B13" s="287"/>
+      <c r="B13" s="290"/>
       <c r="C13" s="45">
         <v>8</v>
       </c>
@@ -11598,7 +11600,7 @@
       <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="2:17" ht="19">
-      <c r="B14" s="287"/>
+      <c r="B14" s="290"/>
       <c r="C14" s="45">
         <v>9</v>
       </c>
@@ -11638,7 +11640,7 @@
       <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="2:17" ht="19">
-      <c r="B15" s="287"/>
+      <c r="B15" s="290"/>
       <c r="C15" s="45">
         <v>10</v>
       </c>
@@ -11678,7 +11680,7 @@
       <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="2:17" ht="19">
-      <c r="B16" s="287"/>
+      <c r="B16" s="290"/>
       <c r="C16" s="45">
         <v>11</v>
       </c>
@@ -11717,7 +11719,7 @@
       <c r="Q16" s="57"/>
     </row>
     <row r="17" spans="2:17" ht="19">
-      <c r="B17" s="288"/>
+      <c r="B17" s="291"/>
       <c r="C17" s="45">
         <v>12</v>
       </c>
@@ -11757,7 +11759,7 @@
       <c r="Q17" s="61"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="284" t="s">
+      <c r="B21" s="287" t="s">
         <v>312</v>
       </c>
       <c r="C21" s="40">
@@ -11783,7 +11785,7 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="19">
-      <c r="B22" s="285"/>
+      <c r="B22" s="288"/>
       <c r="C22" s="41" t="s">
         <v>201</v>
       </c>
@@ -11821,7 +11823,7 @@
       <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="2:17" ht="19">
-      <c r="B23" s="285"/>
+      <c r="B23" s="288"/>
       <c r="C23" s="42" t="s">
         <v>297</v>
       </c>
@@ -11859,33 +11861,33 @@
       <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="2:17" ht="19">
-      <c r="B24" s="285"/>
+      <c r="B24" s="288"/>
       <c r="C24" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="D24" s="299" t="s">
+      <c r="D24" s="269" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="299" t="s">
+      <c r="E24" s="269" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="299"/>
-      <c r="G24" s="299"/>
-      <c r="H24" s="299"/>
-      <c r="I24" s="299">
+      <c r="F24" s="269"/>
+      <c r="G24" s="269"/>
+      <c r="H24" s="269"/>
+      <c r="I24" s="269">
         <v>0</v>
       </c>
-      <c r="J24" s="299">
+      <c r="J24" s="269">
         <v>55</v>
       </c>
-      <c r="K24" s="300">
+      <c r="K24" s="270">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L24" s="301">
+      <c r="L24" s="271">
         <v>120</v>
       </c>
-      <c r="M24" s="301">
+      <c r="M24" s="271">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11897,7 +11899,7 @@
       <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="2:17" ht="19">
-      <c r="B25" s="285"/>
+      <c r="B25" s="288"/>
       <c r="C25" s="42" t="s">
         <v>300</v>
       </c>
@@ -11935,7 +11937,7 @@
       <c r="Q25" s="40"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="285"/>
+      <c r="B26" s="288"/>
       <c r="C26" s="40">
         <v>2</v>
       </c>
@@ -11957,7 +11959,7 @@
       <c r="Q26" s="40"/>
     </row>
     <row r="27" spans="2:17" ht="19">
-      <c r="B27" s="285"/>
+      <c r="B27" s="288"/>
       <c r="C27" s="42" t="s">
         <v>291</v>
       </c>
@@ -11995,7 +11997,7 @@
       <c r="Q27" s="40"/>
     </row>
     <row r="28" spans="2:17" ht="19">
-      <c r="B28" s="285"/>
+      <c r="B28" s="288"/>
       <c r="C28" s="42" t="s">
         <v>301</v>
       </c>
@@ -12033,33 +12035,33 @@
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="2:17" ht="19">
-      <c r="B29" s="285"/>
+      <c r="B29" s="288"/>
       <c r="C29" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="D29" s="299" t="s">
+      <c r="D29" s="269" t="s">
         <v>334</v>
       </c>
-      <c r="E29" s="299" t="s">
+      <c r="E29" s="269" t="s">
         <v>387</v>
       </c>
-      <c r="F29" s="299"/>
-      <c r="G29" s="299"/>
-      <c r="H29" s="299"/>
-      <c r="I29" s="299">
+      <c r="F29" s="269"/>
+      <c r="G29" s="269"/>
+      <c r="H29" s="269"/>
+      <c r="I29" s="269">
         <v>0</v>
       </c>
-      <c r="J29" s="299">
+      <c r="J29" s="269">
         <v>55</v>
       </c>
-      <c r="K29" s="299">
+      <c r="K29" s="269">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L29" s="299">
+      <c r="L29" s="269">
         <v>120</v>
       </c>
-      <c r="M29" s="299">
+      <c r="M29" s="269">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12071,7 +12073,7 @@
       <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="2:17" ht="19">
-      <c r="B30" s="285"/>
+      <c r="B30" s="288"/>
       <c r="C30" s="42" t="s">
         <v>303</v>
       </c>
@@ -12110,7 +12112,7 @@
       <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="285"/>
+      <c r="B31" s="288"/>
       <c r="C31" s="40">
         <v>3</v>
       </c>
@@ -12132,7 +12134,7 @@
       <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="2:17" ht="19">
-      <c r="B32" s="285"/>
+      <c r="B32" s="288"/>
       <c r="C32" s="42" t="s">
         <v>304</v>
       </c>
@@ -12170,7 +12172,7 @@
       <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="2:17" ht="19">
-      <c r="B33" s="285"/>
+      <c r="B33" s="288"/>
       <c r="C33" s="42" t="s">
         <v>305</v>
       </c>
@@ -12208,7 +12210,7 @@
       <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="2:17" ht="19">
-      <c r="B34" s="285"/>
+      <c r="B34" s="288"/>
       <c r="C34" s="42" t="s">
         <v>306</v>
       </c>
@@ -12246,7 +12248,7 @@
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="285"/>
+      <c r="B35" s="288"/>
       <c r="C35" s="40">
         <v>4</v>
       </c>
@@ -12268,7 +12270,7 @@
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="2:17" ht="19">
-      <c r="B36" s="285"/>
+      <c r="B36" s="288"/>
       <c r="C36" s="42" t="s">
         <v>202</v>
       </c>
@@ -12308,7 +12310,7 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="19">
-      <c r="B37" s="285"/>
+      <c r="B37" s="288"/>
       <c r="C37" s="42" t="s">
         <v>307</v>
       </c>
@@ -12348,7 +12350,7 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="19">
-      <c r="B38" s="285"/>
+      <c r="B38" s="288"/>
       <c r="C38" s="42" t="s">
         <v>308</v>
       </c>
@@ -12388,7 +12390,7 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="19">
-      <c r="B39" s="285"/>
+      <c r="B39" s="288"/>
       <c r="C39" s="42" t="s">
         <v>309</v>
       </c>
@@ -12426,7 +12428,7 @@
       <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="2:17" ht="19">
-      <c r="B40" s="285"/>
+      <c r="B40" s="288"/>
       <c r="C40" s="42" t="s">
         <v>310</v>
       </c>
@@ -12464,7 +12466,7 @@
       <c r="Q40" s="40"/>
     </row>
     <row r="41" spans="2:17" ht="19">
-      <c r="B41" s="285"/>
+      <c r="B41" s="288"/>
       <c r="C41" s="42" t="s">
         <v>311</v>
       </c>
@@ -12517,6 +12519,11 @@
       <c r="Q47" s="228">
         <f>N47+O47</f>
         <v>1129222</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="32">
+        <v>88888877777</v>
       </c>
     </row>
   </sheetData>
@@ -13314,7 +13321,7 @@
       <c r="Q19" s="54"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="289" t="s">
+      <c r="B23" s="292" t="s">
         <v>304</v>
       </c>
       <c r="C23" s="40">
@@ -13338,7 +13345,7 @@
       <c r="Q23" s="193"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="290"/>
+      <c r="B24" s="293"/>
       <c r="C24" s="40">
         <v>3</v>
       </c>
@@ -13376,7 +13383,7 @@
       <c r="Q24" s="193"/>
     </row>
     <row r="25" spans="2:17" ht="19">
-      <c r="B25" s="290"/>
+      <c r="B25" s="293"/>
       <c r="C25" s="40">
         <v>4</v>
       </c>
@@ -13414,7 +13421,7 @@
       </c>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="290"/>
+      <c r="B26" s="293"/>
       <c r="C26" s="40">
         <v>5</v>
       </c>
@@ -13452,7 +13459,7 @@
       <c r="Q26" s="193"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="290"/>
+      <c r="B27" s="293"/>
       <c r="C27" s="40">
         <v>6</v>
       </c>
@@ -13490,7 +13497,7 @@
       <c r="Q27" s="193"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="290"/>
+      <c r="B28" s="293"/>
       <c r="C28" s="40">
         <v>7</v>
       </c>
@@ -13528,7 +13535,7 @@
       <c r="Q28" s="193"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="290"/>
+      <c r="B29" s="293"/>
       <c r="C29" s="40">
         <v>8</v>
       </c>
@@ -13566,7 +13573,7 @@
       <c r="Q29" s="193"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="290"/>
+      <c r="B30" s="293"/>
       <c r="C30" s="40">
         <v>9</v>
       </c>
@@ -13604,7 +13611,7 @@
       <c r="Q30" s="193"/>
     </row>
     <row r="31" spans="2:17" ht="19">
-      <c r="B31" s="290"/>
+      <c r="B31" s="293"/>
       <c r="C31" s="40">
         <v>10</v>
       </c>
@@ -13644,7 +13651,7 @@
       </c>
     </row>
     <row r="32" spans="2:17" ht="19">
-      <c r="B32" s="290"/>
+      <c r="B32" s="293"/>
       <c r="C32" s="40">
         <v>11</v>
       </c>
@@ -13682,7 +13689,7 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="19">
-      <c r="B33" s="290"/>
+      <c r="B33" s="293"/>
       <c r="C33" s="40">
         <v>12</v>
       </c>
@@ -14418,7 +14425,7 @@
       <c r="I19" s="109"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="291" t="s">
+      <c r="B21" s="294" t="s">
         <v>202</v>
       </c>
       <c r="C21" s="28">
@@ -14456,7 +14463,7 @@
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="292"/>
+      <c r="B22" s="295"/>
       <c r="C22" s="28">
         <v>3</v>
       </c>
@@ -14492,7 +14499,7 @@
       </c>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="292"/>
+      <c r="B23" s="295"/>
       <c r="C23" s="28">
         <v>4</v>
       </c>
@@ -14528,7 +14535,7 @@
       </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="292"/>
+      <c r="B24" s="295"/>
       <c r="C24" s="28">
         <v>5</v>
       </c>
@@ -14564,7 +14571,7 @@
       </c>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="292"/>
+      <c r="B25" s="295"/>
       <c r="C25" s="28">
         <v>6</v>
       </c>
@@ -14600,7 +14607,7 @@
       </c>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="292"/>
+      <c r="B26" s="295"/>
       <c r="C26" s="28">
         <v>7</v>
       </c>
@@ -14636,7 +14643,7 @@
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="292"/>
+      <c r="B27" s="295"/>
       <c r="C27" s="28">
         <v>8</v>
       </c>
@@ -14672,7 +14679,7 @@
       </c>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="292"/>
+      <c r="B28" s="295"/>
       <c r="C28" s="28">
         <v>9</v>
       </c>
@@ -14708,7 +14715,7 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="292"/>
+      <c r="B29" s="295"/>
       <c r="C29" s="28">
         <v>10</v>
       </c>
@@ -14744,7 +14751,7 @@
       </c>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="292"/>
+      <c r="B30" s="295"/>
       <c r="C30" s="28">
         <v>11</v>
       </c>
@@ -14780,7 +14787,7 @@
       </c>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="292"/>
+      <c r="B31" s="295"/>
       <c r="C31" s="28">
         <v>12</v>
       </c>
@@ -15560,7 +15567,7 @@
       </c>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="293" t="s">
+      <c r="B26" s="296" t="s">
         <v>214</v>
       </c>
       <c r="C26" s="40">
@@ -15593,7 +15600,7 @@
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="294"/>
+      <c r="B27" s="297"/>
       <c r="C27" s="40">
         <v>2</v>
       </c>
@@ -15629,7 +15636,7 @@
       </c>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="294"/>
+      <c r="B28" s="297"/>
       <c r="C28" s="40">
         <v>3</v>
       </c>
@@ -15663,7 +15670,7 @@
       <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="294"/>
+      <c r="B29" s="297"/>
       <c r="C29" s="40">
         <v>4</v>
       </c>
@@ -15697,7 +15704,7 @@
       <c r="P29" s="40"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="294"/>
+      <c r="B30" s="297"/>
       <c r="C30" s="40">
         <v>5</v>
       </c>
@@ -15731,7 +15738,7 @@
       <c r="P30" s="40"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="294"/>
+      <c r="B31" s="297"/>
       <c r="C31" s="40">
         <v>6</v>
       </c>
@@ -15765,7 +15772,7 @@
       <c r="P31" s="40"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="294"/>
+      <c r="B32" s="297"/>
       <c r="C32" s="40">
         <v>7</v>
       </c>
@@ -15799,7 +15806,7 @@
       <c r="P32" s="40"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="294"/>
+      <c r="B33" s="297"/>
       <c r="C33" s="40">
         <v>8</v>
       </c>
@@ -15833,7 +15840,7 @@
       <c r="P33" s="40"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="294"/>
+      <c r="B34" s="297"/>
       <c r="C34" s="40">
         <v>9</v>
       </c>
@@ -15867,7 +15874,7 @@
       <c r="P34" s="40"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="294"/>
+      <c r="B35" s="297"/>
       <c r="C35" s="40">
         <v>10</v>
       </c>
@@ -15901,7 +15908,7 @@
       <c r="P35" s="40"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="294"/>
+      <c r="B36" s="297"/>
       <c r="C36" s="40">
         <v>11</v>
       </c>
@@ -15935,7 +15942,7 @@
       <c r="P36" s="40"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="295"/>
+      <c r="B37" s="298"/>
       <c r="C37" s="40">
         <v>12</v>
       </c>
@@ -16461,7 +16468,7 @@
       </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="296" t="s">
+      <c r="B18" s="299" t="s">
         <v>339</v>
       </c>
       <c r="C18" s="28">
@@ -16486,7 +16493,7 @@
       </c>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="297"/>
+      <c r="B19" s="300"/>
       <c r="C19" s="110" t="s">
         <v>201</v>
       </c>
@@ -16520,7 +16527,7 @@
       <c r="P19" s="40"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="297"/>
+      <c r="B20" s="300"/>
       <c r="C20" s="110" t="s">
         <v>296</v>
       </c>
@@ -16554,7 +16561,7 @@
       <c r="P20" s="40"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="297"/>
+      <c r="B21" s="300"/>
       <c r="C21" s="110" t="s">
         <v>298</v>
       </c>
@@ -16588,7 +16595,7 @@
       <c r="P21" s="40"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="297"/>
+      <c r="B22" s="300"/>
       <c r="C22" s="28">
         <v>2</v>
       </c>
@@ -16609,7 +16616,7 @@
       <c r="P22" s="40"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="297"/>
+      <c r="B23" s="300"/>
       <c r="C23" s="110" t="s">
         <v>291</v>
       </c>
@@ -16643,7 +16650,7 @@
       <c r="P23" s="40"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="297"/>
+      <c r="B24" s="300"/>
       <c r="C24" s="110" t="s">
         <v>301</v>
       </c>
@@ -16677,7 +16684,7 @@
       <c r="P24" s="40"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="297"/>
+      <c r="B25" s="300"/>
       <c r="C25" s="110" t="s">
         <v>302</v>
       </c>
@@ -16711,7 +16718,7 @@
       <c r="P25" s="40"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="297"/>
+      <c r="B26" s="300"/>
       <c r="C26" s="28">
         <v>4</v>
       </c>
@@ -16732,7 +16739,7 @@
       <c r="P26" s="40"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="297"/>
+      <c r="B27" s="300"/>
       <c r="C27" s="110" t="s">
         <v>202</v>
       </c>
@@ -16766,7 +16773,7 @@
       <c r="P27" s="40"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="297"/>
+      <c r="B28" s="300"/>
       <c r="C28" s="110" t="s">
         <v>307</v>
       </c>
@@ -16800,7 +16807,7 @@
       <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="297"/>
+      <c r="B29" s="300"/>
       <c r="C29" s="110" t="s">
         <v>308</v>
       </c>
@@ -16834,7 +16841,7 @@
       <c r="P29" s="40"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="297"/>
+      <c r="B30" s="300"/>
       <c r="C30" s="110" t="s">
         <v>309</v>
       </c>
@@ -16868,7 +16875,7 @@
       <c r="P30" s="40"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="297"/>
+      <c r="B31" s="300"/>
       <c r="C31" s="110" t="s">
         <v>310</v>
       </c>
@@ -16902,7 +16909,7 @@
       <c r="P31" s="40"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="297"/>
+      <c r="B32" s="300"/>
       <c r="C32" s="28">
         <v>5</v>
       </c>
@@ -16923,7 +16930,7 @@
       <c r="P32" s="40"/>
     </row>
     <row r="33" spans="2:16" ht="15" customHeight="1">
-      <c r="B33" s="297"/>
+      <c r="B33" s="300"/>
       <c r="C33" s="110" t="s">
         <v>214</v>
       </c>
@@ -16957,7 +16964,7 @@
       <c r="P33" s="40"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="297"/>
+      <c r="B34" s="300"/>
       <c r="C34" s="110" t="s">
         <v>340</v>
       </c>
@@ -16991,7 +16998,7 @@
       <c r="P34" s="40"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="298"/>
+      <c r="B35" s="301"/>
       <c r="C35" s="110" t="s">
         <v>341</v>
       </c>
@@ -17623,7 +17630,7 @@
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="296" t="s">
+      <c r="B21" s="299" t="s">
         <v>215</v>
       </c>
       <c r="C21" s="28">
@@ -17659,7 +17666,7 @@
       <c r="P21" s="40"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="297"/>
+      <c r="B22" s="300"/>
       <c r="C22" s="28">
         <v>2</v>
       </c>
@@ -17693,7 +17700,7 @@
       <c r="P22" s="40"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="297"/>
+      <c r="B23" s="300"/>
       <c r="C23" s="28">
         <v>3</v>
       </c>
@@ -17727,7 +17734,7 @@
       <c r="P23" s="40"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="297"/>
+      <c r="B24" s="300"/>
       <c r="C24" s="28">
         <v>4</v>
       </c>
@@ -17761,7 +17768,7 @@
       <c r="P24" s="40"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="297"/>
+      <c r="B25" s="300"/>
       <c r="C25" s="28">
         <v>5</v>
       </c>
@@ -17795,7 +17802,7 @@
       <c r="P25" s="40"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="297"/>
+      <c r="B26" s="300"/>
       <c r="C26" s="28">
         <v>6</v>
       </c>
@@ -17829,7 +17836,7 @@
       <c r="P26" s="40"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="297"/>
+      <c r="B27" s="300"/>
       <c r="C27" s="28">
         <v>7</v>
       </c>
@@ -17863,7 +17870,7 @@
       <c r="P27" s="40"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="297"/>
+      <c r="B28" s="300"/>
       <c r="C28" s="28">
         <v>8</v>
       </c>
@@ -17897,7 +17904,7 @@
       <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="297"/>
+      <c r="B29" s="300"/>
       <c r="C29" s="28">
         <v>9</v>
       </c>
@@ -17931,7 +17938,7 @@
       <c r="P29" s="40"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="298"/>
+      <c r="B30" s="301"/>
       <c r="C30" s="28">
         <v>10</v>
       </c>
@@ -18566,7 +18573,7 @@
       <c r="L18" s="129"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="296" t="s">
+      <c r="B22" s="299" t="s">
         <v>350</v>
       </c>
       <c r="C22" s="28">
@@ -18602,7 +18609,7 @@
       <c r="P22" s="40"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="297"/>
+      <c r="B23" s="300"/>
       <c r="C23" s="28">
         <v>2</v>
       </c>
@@ -18636,7 +18643,7 @@
       <c r="P23" s="40"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="297"/>
+      <c r="B24" s="300"/>
       <c r="C24" s="28">
         <v>3</v>
       </c>
@@ -18670,7 +18677,7 @@
       <c r="P24" s="40"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="297"/>
+      <c r="B25" s="300"/>
       <c r="C25" s="28">
         <v>4</v>
       </c>
@@ -18704,7 +18711,7 @@
       <c r="P25" s="40"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="297"/>
+      <c r="B26" s="300"/>
       <c r="C26" s="28">
         <v>5</v>
       </c>
@@ -18738,7 +18745,7 @@
       <c r="P26" s="40"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="297"/>
+      <c r="B27" s="300"/>
       <c r="C27" s="28">
         <v>6</v>
       </c>
@@ -18772,7 +18779,7 @@
       <c r="P27" s="40"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="297"/>
+      <c r="B28" s="300"/>
       <c r="C28" s="28">
         <v>7</v>
       </c>
@@ -18806,7 +18813,7 @@
       <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="297"/>
+      <c r="B29" s="300"/>
       <c r="C29" s="28">
         <v>8</v>
       </c>
@@ -18840,7 +18847,7 @@
       <c r="P29" s="40"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="297"/>
+      <c r="B30" s="300"/>
       <c r="C30" s="28">
         <v>9</v>
       </c>
@@ -18874,7 +18881,7 @@
       <c r="P30" s="40"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="298"/>
+      <c r="B31" s="301"/>
       <c r="C31" s="28">
         <v>10</v>
       </c>

--- a/241007_BOM_구매현황(전체).xlsx
+++ b/241007_BOM_구매현황(전체).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ABE4E5-D56D-674B-828F-E86C57933A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DD732F-4292-8947-9DD6-D138DEF024DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="940" windowWidth="33900" windowHeight="24360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3385,6 +3385,15 @@
     <xf numFmtId="179" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3403,12 +3412,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3419,9 +3422,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="23" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3848,10 +3848,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="282">
+      <c r="B3" s="283">
         <v>1</v>
       </c>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="280" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="132"/>
@@ -3868,8 +3868,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="281"/>
-      <c r="C4" s="278"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3900,8 +3900,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="281"/>
-      <c r="C5" s="278"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="273"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3932,8 +3932,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="281"/>
-      <c r="C6" s="278"/>
+      <c r="B6" s="282"/>
+      <c r="C6" s="273"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3964,8 +3964,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="281"/>
-      <c r="C7" s="278"/>
+      <c r="B7" s="282"/>
+      <c r="C7" s="273"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3996,8 +3996,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="281"/>
-      <c r="C8" s="278"/>
+      <c r="B8" s="282"/>
+      <c r="C8" s="273"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -4028,8 +4028,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="281"/>
-      <c r="C9" s="278"/>
+      <c r="B9" s="282"/>
+      <c r="C9" s="273"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -4060,8 +4060,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="281"/>
-      <c r="C10" s="278"/>
+      <c r="B10" s="282"/>
+      <c r="C10" s="273"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -4092,8 +4092,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="281"/>
-      <c r="C11" s="278"/>
+      <c r="B11" s="282"/>
+      <c r="C11" s="273"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -4124,8 +4124,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="281"/>
-      <c r="C12" s="278"/>
+      <c r="B12" s="282"/>
+      <c r="C12" s="273"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -4156,8 +4156,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="281"/>
-      <c r="C13" s="278"/>
+      <c r="B13" s="282"/>
+      <c r="C13" s="273"/>
       <c r="D13" s="150" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -4194,8 +4194,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="281"/>
-      <c r="C14" s="278"/>
+      <c r="B14" s="282"/>
+      <c r="C14" s="273"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -4229,8 +4229,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="281"/>
-      <c r="C15" s="278"/>
+      <c r="B15" s="282"/>
+      <c r="C15" s="273"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -4261,8 +4261,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="281"/>
-      <c r="C16" s="278"/>
+      <c r="B16" s="282"/>
+      <c r="C16" s="273"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -4293,8 +4293,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="281"/>
-      <c r="C17" s="278"/>
+      <c r="B17" s="282"/>
+      <c r="C17" s="273"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -4325,8 +4325,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="281"/>
-      <c r="C18" s="278"/>
+      <c r="B18" s="282"/>
+      <c r="C18" s="273"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -4357,8 +4357,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="281"/>
-      <c r="C19" s="278"/>
+      <c r="B19" s="282"/>
+      <c r="C19" s="273"/>
       <c r="D19" s="150" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -4395,8 +4395,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="281"/>
-      <c r="C20" s="278"/>
+      <c r="B20" s="282"/>
+      <c r="C20" s="273"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -4429,8 +4429,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="281"/>
-      <c r="C21" s="278"/>
+      <c r="B21" s="282"/>
+      <c r="C21" s="273"/>
       <c r="D21" s="150" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -4467,8 +4467,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="281"/>
-      <c r="C22" s="278"/>
+      <c r="B22" s="282"/>
+      <c r="C22" s="273"/>
       <c r="D22" s="150" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -4505,8 +4505,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="281"/>
-      <c r="C23" s="278"/>
+      <c r="B23" s="282"/>
+      <c r="C23" s="273"/>
       <c r="D23" s="150" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -4543,8 +4543,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="281"/>
-      <c r="C24" s="278"/>
+      <c r="B24" s="282"/>
+      <c r="C24" s="273"/>
       <c r="D24" s="150" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -4581,8 +4581,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="281"/>
-      <c r="C25" s="278"/>
+      <c r="B25" s="282"/>
+      <c r="C25" s="273"/>
       <c r="D25" s="150" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -4619,8 +4619,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="281"/>
-      <c r="C26" s="278"/>
+      <c r="B26" s="282"/>
+      <c r="C26" s="273"/>
       <c r="D26" s="150" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -4657,8 +4657,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="281"/>
-      <c r="C27" s="278"/>
+      <c r="B27" s="282"/>
+      <c r="C27" s="273"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -4689,8 +4689,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="281"/>
-      <c r="C28" s="278"/>
+      <c r="B28" s="282"/>
+      <c r="C28" s="273"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -4723,8 +4723,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="281"/>
-      <c r="C29" s="278"/>
+      <c r="B29" s="282"/>
+      <c r="C29" s="273"/>
       <c r="D29" s="199"/>
       <c r="E29" s="199"/>
       <c r="F29" s="199"/>
@@ -4737,8 +4737,8 @@
       <c r="M29" s="202"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="283"/>
-      <c r="C30" s="279"/>
+      <c r="B30" s="284"/>
+      <c r="C30" s="274"/>
       <c r="D30" s="148" t="s">
         <v>286</v>
       </c>
@@ -4764,10 +4764,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="280">
+      <c r="B31" s="281">
         <v>2</v>
       </c>
-      <c r="C31" s="272" t="s">
+      <c r="C31" s="275" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="151"/>
@@ -4784,8 +4784,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="281"/>
-      <c r="C32" s="273"/>
+      <c r="B32" s="282"/>
+      <c r="C32" s="276"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -4816,8 +4816,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="281"/>
-      <c r="C33" s="273"/>
+      <c r="B33" s="282"/>
+      <c r="C33" s="276"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -4848,8 +4848,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="281"/>
-      <c r="C34" s="273"/>
+      <c r="B34" s="282"/>
+      <c r="C34" s="276"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4880,8 +4880,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="281"/>
-      <c r="C35" s="273"/>
+      <c r="B35" s="282"/>
+      <c r="C35" s="276"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4912,8 +4912,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="281"/>
-      <c r="C36" s="273"/>
+      <c r="B36" s="282"/>
+      <c r="C36" s="276"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4944,8 +4944,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="281"/>
-      <c r="C37" s="273"/>
+      <c r="B37" s="282"/>
+      <c r="C37" s="276"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4976,8 +4976,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="281"/>
-      <c r="C38" s="273"/>
+      <c r="B38" s="282"/>
+      <c r="C38" s="276"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -5009,8 +5009,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="281"/>
-      <c r="C39" s="273"/>
+      <c r="B39" s="282"/>
+      <c r="C39" s="276"/>
       <c r="D39" s="191" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -5042,8 +5042,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="281"/>
-      <c r="C40" s="273"/>
+      <c r="B40" s="282"/>
+      <c r="C40" s="276"/>
       <c r="D40" s="191" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -5075,8 +5075,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="281"/>
-      <c r="C41" s="273"/>
+      <c r="B41" s="282"/>
+      <c r="C41" s="276"/>
       <c r="D41" s="192" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -5110,8 +5110,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="281"/>
-      <c r="C42" s="273"/>
+      <c r="B42" s="282"/>
+      <c r="C42" s="276"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -5142,8 +5142,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="281"/>
-      <c r="C43" s="273"/>
+      <c r="B43" s="282"/>
+      <c r="C43" s="276"/>
       <c r="D43" s="156" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -5180,8 +5180,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="281"/>
-      <c r="C44" s="273"/>
+      <c r="B44" s="282"/>
+      <c r="C44" s="276"/>
       <c r="D44" s="156" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -5218,8 +5218,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="281"/>
-      <c r="C45" s="273"/>
+      <c r="B45" s="282"/>
+      <c r="C45" s="276"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -5250,8 +5250,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="281"/>
-      <c r="C46" s="273"/>
+      <c r="B46" s="282"/>
+      <c r="C46" s="276"/>
       <c r="D46" s="190" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -5284,8 +5284,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="281"/>
-      <c r="C47" s="273"/>
+      <c r="B47" s="282"/>
+      <c r="C47" s="276"/>
       <c r="D47" s="199"/>
       <c r="E47" s="199"/>
       <c r="F47" s="199"/>
@@ -5298,8 +5298,8 @@
       <c r="M47" s="202"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="283"/>
-      <c r="C48" s="274"/>
+      <c r="B48" s="284"/>
+      <c r="C48" s="277"/>
       <c r="D48" s="148" t="s">
         <v>286</v>
       </c>
@@ -5325,10 +5325,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="280">
+      <c r="B49" s="281">
         <v>3</v>
       </c>
-      <c r="C49" s="272" t="s">
+      <c r="C49" s="275" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="151"/>
@@ -5345,8 +5345,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="281"/>
-      <c r="C50" s="273"/>
+      <c r="B50" s="282"/>
+      <c r="C50" s="276"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -5377,8 +5377,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="281"/>
-      <c r="C51" s="273"/>
+      <c r="B51" s="282"/>
+      <c r="C51" s="276"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -5409,8 +5409,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="281"/>
-      <c r="C52" s="273"/>
+      <c r="B52" s="282"/>
+      <c r="C52" s="276"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -5441,8 +5441,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="281"/>
-      <c r="C53" s="273"/>
+      <c r="B53" s="282"/>
+      <c r="C53" s="276"/>
       <c r="D53" s="156" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -5481,8 +5481,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="281"/>
-      <c r="C54" s="273"/>
+      <c r="B54" s="282"/>
+      <c r="C54" s="276"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -5512,8 +5512,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="281"/>
-      <c r="C55" s="273"/>
+      <c r="B55" s="282"/>
+      <c r="C55" s="276"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -5543,8 +5543,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="281"/>
-      <c r="C56" s="273"/>
+      <c r="B56" s="282"/>
+      <c r="C56" s="276"/>
       <c r="D56" s="191" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -5583,8 +5583,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="281"/>
-      <c r="C57" s="273"/>
+      <c r="B57" s="282"/>
+      <c r="C57" s="276"/>
       <c r="D57" s="191" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -5623,8 +5623,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="281"/>
-      <c r="C58" s="273"/>
+      <c r="B58" s="282"/>
+      <c r="C58" s="276"/>
       <c r="D58" s="192" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -5658,8 +5658,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="281"/>
-      <c r="C59" s="273"/>
+      <c r="B59" s="282"/>
+      <c r="C59" s="276"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -5690,8 +5690,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="281"/>
-      <c r="C60" s="273"/>
+      <c r="B60" s="282"/>
+      <c r="C60" s="276"/>
       <c r="D60" s="156" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -5728,8 +5728,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="281"/>
-      <c r="C61" s="273"/>
+      <c r="B61" s="282"/>
+      <c r="C61" s="276"/>
       <c r="D61" s="156" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -5766,8 +5766,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="281"/>
-      <c r="C62" s="273"/>
+      <c r="B62" s="282"/>
+      <c r="C62" s="276"/>
       <c r="D62" s="156" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -5804,8 +5804,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="281"/>
-      <c r="C63" s="273"/>
+      <c r="B63" s="282"/>
+      <c r="C63" s="276"/>
       <c r="D63" s="156" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -5842,8 +5842,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="281"/>
-      <c r="C64" s="273"/>
+      <c r="B64" s="282"/>
+      <c r="C64" s="276"/>
       <c r="D64" s="156" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5880,8 +5880,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="281"/>
-      <c r="C65" s="273"/>
+      <c r="B65" s="282"/>
+      <c r="C65" s="276"/>
       <c r="D65" s="190" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5914,8 +5914,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="281"/>
-      <c r="C66" s="273"/>
+      <c r="B66" s="282"/>
+      <c r="C66" s="276"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5946,8 +5946,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="281"/>
-      <c r="C67" s="273"/>
+      <c r="B67" s="282"/>
+      <c r="C67" s="276"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5960,8 +5960,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="283"/>
-      <c r="C68" s="274"/>
+      <c r="B68" s="284"/>
+      <c r="C68" s="277"/>
       <c r="D68" s="148" t="s">
         <v>286</v>
       </c>
@@ -5987,10 +5987,10 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="19">
-      <c r="B69" s="280">
+      <c r="B69" s="281">
         <v>4</v>
       </c>
-      <c r="C69" s="272" t="s">
+      <c r="C69" s="275" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="151"/>
@@ -6007,8 +6007,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="19">
-      <c r="B70" s="281"/>
-      <c r="C70" s="273"/>
+      <c r="B70" s="282"/>
+      <c r="C70" s="276"/>
       <c r="D70" s="161" t="str">
         <f>PAB!D3</f>
         <v>Main Frame, STS304, T1.5</v>
@@ -6045,8 +6045,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="19">
-      <c r="B71" s="281"/>
-      <c r="C71" s="273"/>
+      <c r="B71" s="282"/>
+      <c r="C71" s="276"/>
       <c r="D71" s="161" t="str">
         <f>PAB!D4</f>
         <v>Left Cover, STS304, T1.5</v>
@@ -6077,8 +6077,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="19">
-      <c r="B72" s="281"/>
-      <c r="C72" s="273"/>
+      <c r="B72" s="282"/>
+      <c r="C72" s="276"/>
       <c r="D72" s="161" t="str">
         <f>PAB!D5</f>
         <v>Right Cover, STS304, T1.5</v>
@@ -6109,8 +6109,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="19">
-      <c r="B73" s="281"/>
-      <c r="C73" s="273"/>
+      <c r="B73" s="282"/>
+      <c r="C73" s="276"/>
       <c r="D73" s="161" t="str">
         <f>PAB!D6</f>
         <v>Rear Cover, STS304, T1.5</v>
@@ -6141,8 +6141,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="19">
-      <c r="B74" s="281"/>
-      <c r="C74" s="273"/>
+      <c r="B74" s="282"/>
+      <c r="C74" s="276"/>
       <c r="D74" s="198" t="str">
         <f>PAB!D7</f>
         <v>Power Board</v>
@@ -6177,8 +6177,8 @@
       </c>
     </row>
     <row r="75" spans="2:13" ht="19">
-      <c r="B75" s="281"/>
-      <c r="C75" s="273"/>
+      <c r="B75" s="282"/>
+      <c r="C75" s="276"/>
       <c r="D75" s="198" t="str">
         <f>PAB!D8</f>
         <v>Control Board</v>
@@ -6209,8 +6209,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="19">
-      <c r="B76" s="281"/>
-      <c r="C76" s="273"/>
+      <c r="B76" s="282"/>
+      <c r="C76" s="276"/>
       <c r="D76" s="161" t="str">
         <f>PAB!D9</f>
         <v>3P Connector, N&amp;G coding</v>
@@ -6247,8 +6247,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="19">
-      <c r="B77" s="281"/>
-      <c r="C77" s="273"/>
+      <c r="B77" s="282"/>
+      <c r="C77" s="276"/>
       <c r="D77" s="161" t="str">
         <f>PAB!D10</f>
         <v>4P Connector</v>
@@ -6285,8 +6285,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="19">
-      <c r="B78" s="281"/>
-      <c r="C78" s="273"/>
+      <c r="B78" s="282"/>
+      <c r="C78" s="276"/>
       <c r="D78" s="161" t="str">
         <f>PAB!D11</f>
         <v>Locking</v>
@@ -6323,8 +6323,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="19">
-      <c r="B79" s="281"/>
-      <c r="C79" s="273"/>
+      <c r="B79" s="282"/>
+      <c r="C79" s="276"/>
       <c r="D79" s="161" t="str">
         <f>PAB!D12</f>
         <v>4P Connector</v>
@@ -6361,8 +6361,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="19">
-      <c r="B80" s="281"/>
-      <c r="C80" s="273"/>
+      <c r="B80" s="282"/>
+      <c r="C80" s="276"/>
       <c r="D80" s="161" t="str">
         <f>PAB!D13</f>
         <v>Pin</v>
@@ -6399,8 +6399,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="19">
-      <c r="B81" s="281"/>
-      <c r="C81" s="273"/>
+      <c r="B81" s="282"/>
+      <c r="C81" s="276"/>
       <c r="D81" s="161" t="str">
         <f>PAB!D14</f>
         <v>8P Connector</v>
@@ -6437,8 +6437,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="19">
-      <c r="B82" s="281"/>
-      <c r="C82" s="273"/>
+      <c r="B82" s="282"/>
+      <c r="C82" s="276"/>
       <c r="D82" s="161" t="str">
         <f>PAB!D15</f>
         <v>Pin</v>
@@ -6475,8 +6475,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="19">
-      <c r="B83" s="281"/>
-      <c r="C83" s="273"/>
+      <c r="B83" s="282"/>
+      <c r="C83" s="276"/>
       <c r="D83" s="161" t="str">
         <f>PAB!D16</f>
         <v>Cable Gland</v>
@@ -6513,8 +6513,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="38">
-      <c r="B84" s="281"/>
-      <c r="C84" s="273"/>
+      <c r="B84" s="282"/>
+      <c r="C84" s="276"/>
       <c r="D84" s="198" t="str">
         <f>PAB!D17</f>
         <v>Relay</v>
@@ -6550,8 +6550,8 @@
       </c>
     </row>
     <row r="85" spans="2:13" ht="19">
-      <c r="B85" s="281"/>
-      <c r="C85" s="273"/>
+      <c r="B85" s="282"/>
+      <c r="C85" s="276"/>
       <c r="D85" s="198" t="str">
         <f>PAB!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -6582,8 +6582,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="281"/>
-      <c r="C86" s="273"/>
+      <c r="B86" s="282"/>
+      <c r="C86" s="276"/>
       <c r="D86" s="145"/>
       <c r="E86" s="145"/>
       <c r="F86" s="145"/>
@@ -6596,8 +6596,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="19">
-      <c r="B87" s="283"/>
-      <c r="C87" s="274"/>
+      <c r="B87" s="284"/>
+      <c r="C87" s="277"/>
       <c r="D87" s="148" t="s">
         <v>286</v>
       </c>
@@ -6623,10 +6623,10 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="19">
-      <c r="B88" s="280">
+      <c r="B88" s="281">
         <v>5</v>
       </c>
-      <c r="C88" s="272" t="s">
+      <c r="C88" s="275" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="151"/>
@@ -6645,8 +6645,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="19">
-      <c r="B89" s="281"/>
-      <c r="C89" s="273"/>
+      <c r="B89" s="282"/>
+      <c r="C89" s="276"/>
       <c r="D89" s="161" t="str">
         <f>EID!D3</f>
         <v>Main Frame, STS304, T1.2</v>
@@ -6683,8 +6683,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="19">
-      <c r="B90" s="281"/>
-      <c r="C90" s="273"/>
+      <c r="B90" s="282"/>
+      <c r="C90" s="276"/>
       <c r="D90" s="161" t="str">
         <f>EID!D4</f>
         <v>Mount Bracket</v>
@@ -6715,8 +6715,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="19">
-      <c r="B91" s="281"/>
-      <c r="C91" s="273"/>
+      <c r="B91" s="282"/>
+      <c r="C91" s="276"/>
       <c r="D91" s="161" t="str">
         <f>EID!D5</f>
         <v>LCD Bracket</v>
@@ -6747,8 +6747,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="19">
-      <c r="B92" s="281"/>
-      <c r="C92" s="273"/>
+      <c r="B92" s="282"/>
+      <c r="C92" s="276"/>
       <c r="D92" s="161" t="str">
         <f>EID!D6</f>
         <v>LCD Panel, 27”</v>
@@ -6787,8 +6787,8 @@
       </c>
     </row>
     <row r="93" spans="2:13" ht="19">
-      <c r="B93" s="281"/>
-      <c r="C93" s="273"/>
+      <c r="B93" s="282"/>
+      <c r="C93" s="276"/>
       <c r="D93" s="161" t="str">
         <f>EID!D7</f>
         <v>Connector Cover</v>
@@ -6819,8 +6819,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="19">
-      <c r="B94" s="281"/>
-      <c r="C94" s="273"/>
+      <c r="B94" s="282"/>
+      <c r="C94" s="276"/>
       <c r="D94" s="161" t="str">
         <f>EID!D8</f>
         <v>Rear Cover</v>
@@ -6851,8 +6851,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="19">
-      <c r="B95" s="281"/>
-      <c r="C95" s="273"/>
+      <c r="B95" s="282"/>
+      <c r="C95" s="276"/>
       <c r="D95" s="198" t="str">
         <f>EID!D9</f>
         <v>Control Board</v>
@@ -6883,8 +6883,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="19">
-      <c r="B96" s="281"/>
-      <c r="C96" s="273"/>
+      <c r="B96" s="282"/>
+      <c r="C96" s="276"/>
       <c r="D96" s="198" t="str">
         <f>EID!D10</f>
         <v>Power Board</v>
@@ -6919,8 +6919,8 @@
       </c>
     </row>
     <row r="97" spans="2:13" ht="19">
-      <c r="B97" s="281"/>
-      <c r="C97" s="273"/>
+      <c r="B97" s="282"/>
+      <c r="C97" s="276"/>
       <c r="D97" s="161" t="str">
         <f>EID!D11</f>
         <v>3P Connector Female</v>
@@ -6957,8 +6957,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="19">
-      <c r="B98" s="281"/>
-      <c r="C98" s="273"/>
+      <c r="B98" s="282"/>
+      <c r="C98" s="276"/>
       <c r="D98" s="161" t="str">
         <f>EID!D12</f>
         <v>Locking</v>
@@ -6995,8 +6995,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="19">
-      <c r="B99" s="281"/>
-      <c r="C99" s="273"/>
+      <c r="B99" s="282"/>
+      <c r="C99" s="276"/>
       <c r="D99" s="161" t="str">
         <f>EID!D13</f>
         <v>4P Connector Female</v>
@@ -7033,8 +7033,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="19">
-      <c r="B100" s="281"/>
-      <c r="C100" s="273"/>
+      <c r="B100" s="282"/>
+      <c r="C100" s="276"/>
       <c r="D100" s="161" t="str">
         <f>EID!D14</f>
         <v>Pin</v>
@@ -7071,8 +7071,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="19">
-      <c r="B101" s="281"/>
-      <c r="C101" s="273"/>
+      <c r="B101" s="282"/>
+      <c r="C101" s="276"/>
       <c r="D101" s="161" t="str">
         <f>EID!D15</f>
         <v>Cable Gland</v>
@@ -7109,8 +7109,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="19">
-      <c r="B102" s="281"/>
-      <c r="C102" s="273"/>
+      <c r="B102" s="282"/>
+      <c r="C102" s="276"/>
       <c r="D102" s="161" t="str">
         <f>EID!D16</f>
         <v>Illumination Sensor</v>
@@ -7147,8 +7147,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="19">
-      <c r="B103" s="281"/>
-      <c r="C103" s="273"/>
+      <c r="B103" s="282"/>
+      <c r="C103" s="276"/>
       <c r="D103" s="161" t="str">
         <f>EID!D17</f>
         <v>Inverter Board</v>
@@ -7185,8 +7185,8 @@
       </c>
     </row>
     <row r="104" spans="2:13" ht="19">
-      <c r="B104" s="281"/>
-      <c r="C104" s="273"/>
+      <c r="B104" s="282"/>
+      <c r="C104" s="276"/>
       <c r="D104" s="198" t="str">
         <f>EID!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -7217,8 +7217,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="19">
-      <c r="B105" s="281"/>
-      <c r="C105" s="273"/>
+      <c r="B105" s="282"/>
+      <c r="C105" s="276"/>
       <c r="D105" s="161" t="str">
         <f>EID!D19</f>
         <v>강화유리</v>
@@ -7253,8 +7253,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="281"/>
-      <c r="C106" s="273"/>
+      <c r="B106" s="282"/>
+      <c r="C106" s="276"/>
       <c r="D106" s="145"/>
       <c r="E106" s="145"/>
       <c r="F106" s="145"/>
@@ -7267,8 +7267,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="19">
-      <c r="B107" s="283"/>
-      <c r="C107" s="274"/>
+      <c r="B107" s="284"/>
+      <c r="C107" s="277"/>
       <c r="D107" s="148" t="s">
         <v>286</v>
       </c>
@@ -7294,10 +7294,10 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="19">
-      <c r="B108" s="280">
+      <c r="B108" s="281">
         <v>6</v>
       </c>
-      <c r="C108" s="272" t="s">
+      <c r="C108" s="275" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="151"/>
@@ -7314,8 +7314,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="19">
-      <c r="B109" s="281"/>
-      <c r="C109" s="273"/>
+      <c r="B109" s="282"/>
+      <c r="C109" s="276"/>
       <c r="D109" s="13" t="str">
         <f>PSR!D3</f>
         <v>Hub Board</v>
@@ -7346,8 +7346,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="19">
-      <c r="B110" s="281"/>
-      <c r="C110" s="273"/>
+      <c r="B110" s="282"/>
+      <c r="C110" s="276"/>
       <c r="D110" s="13" t="str">
         <f>PSR!D4</f>
         <v>PA_VOIP Board</v>
@@ -7378,8 +7378,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="19">
-      <c r="B111" s="281"/>
-      <c r="C111" s="273"/>
+      <c r="B111" s="282"/>
+      <c r="C111" s="276"/>
       <c r="D111" s="13" t="str">
         <f>PSR!D5</f>
         <v>PA_AMP1 Board</v>
@@ -7410,8 +7410,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="19">
-      <c r="B112" s="281"/>
-      <c r="C112" s="273"/>
+      <c r="B112" s="282"/>
+      <c r="C112" s="276"/>
       <c r="D112" s="13" t="str">
         <f>PSR!D6</f>
         <v>35V PWR Board</v>
@@ -7446,8 +7446,8 @@
       </c>
     </row>
     <row r="113" spans="2:13" ht="19">
-      <c r="B113" s="281"/>
-      <c r="C113" s="273"/>
+      <c r="B113" s="282"/>
+      <c r="C113" s="276"/>
       <c r="D113" s="13" t="str">
         <f>PSR!D7</f>
         <v>PA_AMP2 Board</v>
@@ -7478,8 +7478,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="19">
-      <c r="B114" s="281"/>
-      <c r="C114" s="273"/>
+      <c r="B114" s="282"/>
+      <c r="C114" s="276"/>
       <c r="D114" s="156" t="str">
         <f>PSR!D8</f>
         <v>Blank Panel</v>
@@ -7516,8 +7516,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="19">
-      <c r="B115" s="281"/>
-      <c r="C115" s="273"/>
+      <c r="B115" s="282"/>
+      <c r="C115" s="276"/>
       <c r="D115" s="13" t="str">
         <f>PSR!D9</f>
         <v>12V PWR Board</v>
@@ -7550,8 +7550,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="19">
-      <c r="B116" s="281"/>
-      <c r="C116" s="273"/>
+      <c r="B116" s="282"/>
+      <c r="C116" s="276"/>
       <c r="D116" s="156" t="str">
         <f>PSR!D10</f>
         <v>PSR Back Plane</v>
@@ -7590,8 +7590,8 @@
       </c>
     </row>
     <row r="117" spans="2:13" ht="19">
-      <c r="B117" s="281"/>
-      <c r="C117" s="273"/>
+      <c r="B117" s="282"/>
+      <c r="C117" s="276"/>
       <c r="D117" s="156" t="str">
         <f>PSR!D11</f>
         <v>Frame</v>
@@ -7628,8 +7628,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="19">
-      <c r="B118" s="281"/>
-      <c r="C118" s="273"/>
+      <c r="B118" s="282"/>
+      <c r="C118" s="276"/>
       <c r="D118" s="13" t="str">
         <f>PSR!D12</f>
         <v>Name Plate, AL, T1</v>
@@ -7660,8 +7660,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="281"/>
-      <c r="C119" s="273"/>
+      <c r="B119" s="282"/>
+      <c r="C119" s="276"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -7674,8 +7674,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="19">
-      <c r="B120" s="283"/>
-      <c r="C120" s="274"/>
+      <c r="B120" s="284"/>
+      <c r="C120" s="277"/>
       <c r="D120" s="148" t="s">
         <v>286</v>
       </c>
@@ -7701,10 +7701,10 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="19">
-      <c r="B121" s="280">
+      <c r="B121" s="281">
         <v>7</v>
       </c>
-      <c r="C121" s="284" t="s">
+      <c r="C121" s="272" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="151"/>
@@ -7721,8 +7721,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="19">
-      <c r="B122" s="281"/>
-      <c r="C122" s="278"/>
+      <c r="B122" s="282"/>
+      <c r="C122" s="273"/>
       <c r="D122" s="161" t="str">
         <f>ETND!D3</f>
         <v>Main Frame, SPCC</v>
@@ -7759,8 +7759,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="19">
-      <c r="B123" s="281"/>
-      <c r="C123" s="278"/>
+      <c r="B123" s="282"/>
+      <c r="C123" s="273"/>
       <c r="D123" s="161" t="str">
         <f>ETND!D4</f>
         <v>Rear Cover</v>
@@ -7791,8 +7791,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="19">
-      <c r="B124" s="281"/>
-      <c r="C124" s="278"/>
+      <c r="B124" s="282"/>
+      <c r="C124" s="273"/>
       <c r="D124" s="161" t="str">
         <f>ETND!D5</f>
         <v>LED Bracket</v>
@@ -7823,8 +7823,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="19">
-      <c r="B125" s="281"/>
-      <c r="C125" s="278"/>
+      <c r="B125" s="282"/>
+      <c r="C125" s="273"/>
       <c r="D125" s="198" t="str">
         <f>ETND!D6</f>
         <v>LED Module</v>
@@ -7859,8 +7859,8 @@
       </c>
     </row>
     <row r="126" spans="2:13" ht="19">
-      <c r="B126" s="281"/>
-      <c r="C126" s="278"/>
+      <c r="B126" s="282"/>
+      <c r="C126" s="273"/>
       <c r="D126" s="161" t="str">
         <f>ETND!D7</f>
         <v>Power Board Bracket</v>
@@ -7891,8 +7891,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="19">
-      <c r="B127" s="281"/>
-      <c r="C127" s="278"/>
+      <c r="B127" s="282"/>
+      <c r="C127" s="273"/>
       <c r="D127" s="198" t="str">
         <f>ETND!D8</f>
         <v>Power Board</v>
@@ -7927,8 +7927,8 @@
       </c>
     </row>
     <row r="128" spans="2:13" ht="19">
-      <c r="B128" s="281"/>
-      <c r="C128" s="278"/>
+      <c r="B128" s="282"/>
+      <c r="C128" s="273"/>
       <c r="D128" s="161" t="str">
         <f>ETND!D9</f>
         <v>Control Board Bracket</v>
@@ -7959,8 +7959,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="19">
-      <c r="B129" s="281"/>
-      <c r="C129" s="278"/>
+      <c r="B129" s="282"/>
+      <c r="C129" s="273"/>
       <c r="D129" s="161" t="str">
         <f>ETND!D10</f>
         <v>Control Board</v>
@@ -7997,8 +7997,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="19">
-      <c r="B130" s="281"/>
-      <c r="C130" s="278"/>
+      <c r="B130" s="282"/>
+      <c r="C130" s="273"/>
       <c r="D130" s="161" t="str">
         <f>ETND!D11</f>
         <v>3P Connector Female</v>
@@ -8035,8 +8035,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="19">
-      <c r="B131" s="281"/>
-      <c r="C131" s="278"/>
+      <c r="B131" s="282"/>
+      <c r="C131" s="273"/>
       <c r="D131" s="161" t="str">
         <f>ETND!D12</f>
         <v>Locking</v>
@@ -8073,8 +8073,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="19">
-      <c r="B132" s="281"/>
-      <c r="C132" s="278"/>
+      <c r="B132" s="282"/>
+      <c r="C132" s="273"/>
       <c r="D132" s="161" t="str">
         <f>ETND!D13</f>
         <v>4P Connector Female</v>
@@ -8111,8 +8111,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="19">
-      <c r="B133" s="281"/>
-      <c r="C133" s="278"/>
+      <c r="B133" s="282"/>
+      <c r="C133" s="273"/>
       <c r="D133" s="161" t="str">
         <f>ETND!D14</f>
         <v>Pin</v>
@@ -8149,8 +8149,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="19">
-      <c r="B134" s="281"/>
-      <c r="C134" s="278"/>
+      <c r="B134" s="282"/>
+      <c r="C134" s="273"/>
       <c r="D134" s="161" t="str">
         <f>ETND!D15</f>
         <v>Mount Bracket</v>
@@ -8181,8 +8181,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="19">
-      <c r="B135" s="281"/>
-      <c r="C135" s="278"/>
+      <c r="B135" s="282"/>
+      <c r="C135" s="273"/>
       <c r="D135" s="198" t="str">
         <f>ETND!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8213,8 +8213,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="281"/>
-      <c r="C136" s="278"/>
+      <c r="B136" s="282"/>
+      <c r="C136" s="273"/>
       <c r="D136" s="145"/>
       <c r="E136" s="145"/>
       <c r="F136" s="145"/>
@@ -8227,8 +8227,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="19">
-      <c r="B137" s="283"/>
-      <c r="C137" s="279"/>
+      <c r="B137" s="284"/>
+      <c r="C137" s="274"/>
       <c r="D137" s="148" t="s">
         <v>286</v>
       </c>
@@ -8254,10 +8254,10 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="19">
-      <c r="B138" s="280">
+      <c r="B138" s="281">
         <v>8</v>
       </c>
-      <c r="C138" s="272" t="s">
+      <c r="C138" s="275" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="174"/>
@@ -8274,8 +8274,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="19">
-      <c r="B139" s="281"/>
-      <c r="C139" s="273"/>
+      <c r="B139" s="282"/>
+      <c r="C139" s="276"/>
       <c r="D139" s="161" t="str">
         <f>EDD!D3</f>
         <v>Main Frame, SPCC</v>
@@ -8312,8 +8312,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="19">
-      <c r="B140" s="281"/>
-      <c r="C140" s="273"/>
+      <c r="B140" s="282"/>
+      <c r="C140" s="276"/>
       <c r="D140" s="161" t="str">
         <f>EDD!D4</f>
         <v>Rear Cover</v>
@@ -8344,8 +8344,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="19">
-      <c r="B141" s="281"/>
-      <c r="C141" s="273"/>
+      <c r="B141" s="282"/>
+      <c r="C141" s="276"/>
       <c r="D141" s="161" t="str">
         <f>EDD!D5</f>
         <v>LED Bracket</v>
@@ -8376,8 +8376,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="19">
-      <c r="B142" s="281"/>
-      <c r="C142" s="273"/>
+      <c r="B142" s="282"/>
+      <c r="C142" s="276"/>
       <c r="D142" s="198" t="str">
         <f>EDD!D6</f>
         <v>LED Module</v>
@@ -8412,8 +8412,8 @@
       </c>
     </row>
     <row r="143" spans="2:13" ht="19">
-      <c r="B143" s="281"/>
-      <c r="C143" s="273"/>
+      <c r="B143" s="282"/>
+      <c r="C143" s="276"/>
       <c r="D143" s="161" t="str">
         <f>EDD!D7</f>
         <v>Power Board Bracket</v>
@@ -8444,8 +8444,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="19">
-      <c r="B144" s="281"/>
-      <c r="C144" s="273"/>
+      <c r="B144" s="282"/>
+      <c r="C144" s="276"/>
       <c r="D144" s="198" t="str">
         <f>EDD!D8</f>
         <v>Power Board</v>
@@ -8480,8 +8480,8 @@
       </c>
     </row>
     <row r="145" spans="2:13" ht="19">
-      <c r="B145" s="281"/>
-      <c r="C145" s="273"/>
+      <c r="B145" s="282"/>
+      <c r="C145" s="276"/>
       <c r="D145" s="161" t="str">
         <f>EDD!D9</f>
         <v>Control Board Bracket</v>
@@ -8512,8 +8512,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="19">
-      <c r="B146" s="281"/>
-      <c r="C146" s="273"/>
+      <c r="B146" s="282"/>
+      <c r="C146" s="276"/>
       <c r="D146" s="161" t="str">
         <f>EDD!D10</f>
         <v>Control Board</v>
@@ -8550,8 +8550,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="19">
-      <c r="B147" s="281"/>
-      <c r="C147" s="273"/>
+      <c r="B147" s="282"/>
+      <c r="C147" s="276"/>
       <c r="D147" s="161" t="str">
         <f>EDD!D11</f>
         <v>3P Connector Female</v>
@@ -8588,8 +8588,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="19">
-      <c r="B148" s="281"/>
-      <c r="C148" s="273"/>
+      <c r="B148" s="282"/>
+      <c r="C148" s="276"/>
       <c r="D148" s="161" t="str">
         <f>EDD!D12</f>
         <v>Locking</v>
@@ -8626,8 +8626,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="19">
-      <c r="B149" s="281"/>
-      <c r="C149" s="273"/>
+      <c r="B149" s="282"/>
+      <c r="C149" s="276"/>
       <c r="D149" s="161" t="str">
         <f>EDD!D13</f>
         <v>4P Connector Female</v>
@@ -8664,8 +8664,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="19">
-      <c r="B150" s="281"/>
-      <c r="C150" s="273"/>
+      <c r="B150" s="282"/>
+      <c r="C150" s="276"/>
       <c r="D150" s="161" t="str">
         <f>EDD!D14</f>
         <v>Pin</v>
@@ -8702,8 +8702,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="19">
-      <c r="B151" s="281"/>
-      <c r="C151" s="273"/>
+      <c r="B151" s="282"/>
+      <c r="C151" s="276"/>
       <c r="D151" s="161" t="str">
         <f>EDD!D15</f>
         <v>Mount Bracket</v>
@@ -8734,8 +8734,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="19">
-      <c r="B152" s="281"/>
-      <c r="C152" s="273"/>
+      <c r="B152" s="282"/>
+      <c r="C152" s="276"/>
       <c r="D152" s="198" t="str">
         <f>EDD!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8766,8 +8766,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="281"/>
-      <c r="C153" s="273"/>
+      <c r="B153" s="282"/>
+      <c r="C153" s="276"/>
       <c r="D153" s="145"/>
       <c r="E153" s="145"/>
       <c r="F153" s="145"/>
@@ -8780,8 +8780,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="19">
-      <c r="B154" s="281"/>
-      <c r="C154" s="274"/>
+      <c r="B154" s="282"/>
+      <c r="C154" s="277"/>
       <c r="D154" s="148" t="s">
         <v>286</v>
       </c>
@@ -8807,7 +8807,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="275" t="s">
+      <c r="B155" s="278" t="s">
         <v>285</v>
       </c>
       <c r="C155" s="177">
@@ -8844,7 +8844,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="275"/>
+      <c r="B156" s="278"/>
       <c r="C156" s="177">
         <v>2</v>
       </c>
@@ -8879,7 +8879,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="275"/>
+      <c r="B157" s="278"/>
       <c r="C157" s="177">
         <v>3</v>
       </c>
@@ -8914,7 +8914,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="275"/>
+      <c r="B158" s="278"/>
       <c r="C158" s="177">
         <v>4</v>
       </c>
@@ -8944,7 +8944,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="275"/>
+      <c r="B159" s="278"/>
       <c r="C159" s="177">
         <v>5</v>
       </c>
@@ -8975,7 +8975,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="275"/>
+      <c r="B160" s="278"/>
       <c r="C160" s="177">
         <v>6</v>
       </c>
@@ -9003,7 +9003,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="275"/>
+      <c r="B161" s="278"/>
       <c r="C161" s="177">
         <v>7</v>
       </c>
@@ -9040,7 +9040,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="276"/>
+      <c r="B162" s="279"/>
       <c r="C162" s="215">
         <v>8</v>
       </c>
@@ -9115,6 +9115,7 @@
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="B121:B137"/>
     <mergeCell ref="C121:C137"/>
     <mergeCell ref="C138:C154"/>
     <mergeCell ref="B155:B162"/>
@@ -9131,7 +9132,6 @@
     <mergeCell ref="B88:B107"/>
     <mergeCell ref="B108:B120"/>
     <mergeCell ref="C108:C120"/>
-    <mergeCell ref="B121:B137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11065,7 +11065,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="18"/>
@@ -12510,6 +12510,9 @@
       </c>
     </row>
     <row r="47" spans="2:17">
+      <c r="D47" s="32">
+        <v>77777777</v>
+      </c>
       <c r="N47" s="227">
         <v>513363</v>
       </c>

--- a/241007_BOM_구매현황(전체).xlsx
+++ b/241007_BOM_구매현황(전체).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DD732F-4292-8947-9DD6-D138DEF024DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AA511A-70D3-0647-9EDB-98B072F5C46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="940" windowWidth="33900" windowHeight="24360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3385,6 +3385,15 @@
     <xf numFmtId="179" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3412,16 +3421,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="23" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3848,10 +3848,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="283">
+      <c r="B3" s="284">
         <v>1</v>
       </c>
-      <c r="C3" s="280" t="s">
+      <c r="C3" s="283" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="132"/>
@@ -3868,8 +3868,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="282"/>
-      <c r="C4" s="273"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="276"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3900,8 +3900,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="282"/>
-      <c r="C5" s="273"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="276"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3932,8 +3932,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="282"/>
-      <c r="C6" s="273"/>
+      <c r="B6" s="273"/>
+      <c r="C6" s="276"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3964,8 +3964,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="282"/>
-      <c r="C7" s="273"/>
+      <c r="B7" s="273"/>
+      <c r="C7" s="276"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3996,8 +3996,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="282"/>
-      <c r="C8" s="273"/>
+      <c r="B8" s="273"/>
+      <c r="C8" s="276"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -4028,8 +4028,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="282"/>
-      <c r="C9" s="273"/>
+      <c r="B9" s="273"/>
+      <c r="C9" s="276"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -4060,8 +4060,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="282"/>
-      <c r="C10" s="273"/>
+      <c r="B10" s="273"/>
+      <c r="C10" s="276"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -4092,8 +4092,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="282"/>
-      <c r="C11" s="273"/>
+      <c r="B11" s="273"/>
+      <c r="C11" s="276"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -4124,8 +4124,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="282"/>
-      <c r="C12" s="273"/>
+      <c r="B12" s="273"/>
+      <c r="C12" s="276"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -4156,8 +4156,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="282"/>
-      <c r="C13" s="273"/>
+      <c r="B13" s="273"/>
+      <c r="C13" s="276"/>
       <c r="D13" s="150" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -4194,8 +4194,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="282"/>
-      <c r="C14" s="273"/>
+      <c r="B14" s="273"/>
+      <c r="C14" s="276"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -4229,8 +4229,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="282"/>
-      <c r="C15" s="273"/>
+      <c r="B15" s="273"/>
+      <c r="C15" s="276"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -4261,8 +4261,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="282"/>
-      <c r="C16" s="273"/>
+      <c r="B16" s="273"/>
+      <c r="C16" s="276"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -4293,8 +4293,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="282"/>
-      <c r="C17" s="273"/>
+      <c r="B17" s="273"/>
+      <c r="C17" s="276"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -4325,8 +4325,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="282"/>
-      <c r="C18" s="273"/>
+      <c r="B18" s="273"/>
+      <c r="C18" s="276"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -4357,8 +4357,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="282"/>
-      <c r="C19" s="273"/>
+      <c r="B19" s="273"/>
+      <c r="C19" s="276"/>
       <c r="D19" s="150" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -4395,8 +4395,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="282"/>
-      <c r="C20" s="273"/>
+      <c r="B20" s="273"/>
+      <c r="C20" s="276"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -4429,8 +4429,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="282"/>
-      <c r="C21" s="273"/>
+      <c r="B21" s="273"/>
+      <c r="C21" s="276"/>
       <c r="D21" s="150" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -4467,8 +4467,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="282"/>
-      <c r="C22" s="273"/>
+      <c r="B22" s="273"/>
+      <c r="C22" s="276"/>
       <c r="D22" s="150" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -4505,8 +4505,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="282"/>
-      <c r="C23" s="273"/>
+      <c r="B23" s="273"/>
+      <c r="C23" s="276"/>
       <c r="D23" s="150" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -4543,8 +4543,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="282"/>
-      <c r="C24" s="273"/>
+      <c r="B24" s="273"/>
+      <c r="C24" s="276"/>
       <c r="D24" s="150" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -4581,8 +4581,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="282"/>
-      <c r="C25" s="273"/>
+      <c r="B25" s="273"/>
+      <c r="C25" s="276"/>
       <c r="D25" s="150" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -4619,8 +4619,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="282"/>
-      <c r="C26" s="273"/>
+      <c r="B26" s="273"/>
+      <c r="C26" s="276"/>
       <c r="D26" s="150" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -4657,8 +4657,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="282"/>
-      <c r="C27" s="273"/>
+      <c r="B27" s="273"/>
+      <c r="C27" s="276"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -4689,8 +4689,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="282"/>
-      <c r="C28" s="273"/>
+      <c r="B28" s="273"/>
+      <c r="C28" s="276"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -4723,8 +4723,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="282"/>
-      <c r="C29" s="273"/>
+      <c r="B29" s="273"/>
+      <c r="C29" s="276"/>
       <c r="D29" s="199"/>
       <c r="E29" s="199"/>
       <c r="F29" s="199"/>
@@ -4737,8 +4737,8 @@
       <c r="M29" s="202"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="284"/>
-      <c r="C30" s="274"/>
+      <c r="B30" s="274"/>
+      <c r="C30" s="277"/>
       <c r="D30" s="148" t="s">
         <v>286</v>
       </c>
@@ -4764,10 +4764,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="281">
+      <c r="B31" s="272">
         <v>2</v>
       </c>
-      <c r="C31" s="275" t="s">
+      <c r="C31" s="278" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="151"/>
@@ -4784,8 +4784,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="282"/>
-      <c r="C32" s="276"/>
+      <c r="B32" s="273"/>
+      <c r="C32" s="279"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -4816,8 +4816,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="282"/>
-      <c r="C33" s="276"/>
+      <c r="B33" s="273"/>
+      <c r="C33" s="279"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -4848,8 +4848,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="282"/>
-      <c r="C34" s="276"/>
+      <c r="B34" s="273"/>
+      <c r="C34" s="279"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4880,8 +4880,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="282"/>
-      <c r="C35" s="276"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="279"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4912,8 +4912,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="282"/>
-      <c r="C36" s="276"/>
+      <c r="B36" s="273"/>
+      <c r="C36" s="279"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4944,8 +4944,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="282"/>
-      <c r="C37" s="276"/>
+      <c r="B37" s="273"/>
+      <c r="C37" s="279"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4976,8 +4976,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="282"/>
-      <c r="C38" s="276"/>
+      <c r="B38" s="273"/>
+      <c r="C38" s="279"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -5009,8 +5009,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="282"/>
-      <c r="C39" s="276"/>
+      <c r="B39" s="273"/>
+      <c r="C39" s="279"/>
       <c r="D39" s="191" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -5042,8 +5042,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="282"/>
-      <c r="C40" s="276"/>
+      <c r="B40" s="273"/>
+      <c r="C40" s="279"/>
       <c r="D40" s="191" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -5075,8 +5075,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="282"/>
-      <c r="C41" s="276"/>
+      <c r="B41" s="273"/>
+      <c r="C41" s="279"/>
       <c r="D41" s="192" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -5110,8 +5110,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="282"/>
-      <c r="C42" s="276"/>
+      <c r="B42" s="273"/>
+      <c r="C42" s="279"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -5142,8 +5142,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="282"/>
-      <c r="C43" s="276"/>
+      <c r="B43" s="273"/>
+      <c r="C43" s="279"/>
       <c r="D43" s="156" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -5180,8 +5180,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="282"/>
-      <c r="C44" s="276"/>
+      <c r="B44" s="273"/>
+      <c r="C44" s="279"/>
       <c r="D44" s="156" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -5218,8 +5218,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="282"/>
-      <c r="C45" s="276"/>
+      <c r="B45" s="273"/>
+      <c r="C45" s="279"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -5250,8 +5250,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="282"/>
-      <c r="C46" s="276"/>
+      <c r="B46" s="273"/>
+      <c r="C46" s="279"/>
       <c r="D46" s="190" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -5284,8 +5284,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="282"/>
-      <c r="C47" s="276"/>
+      <c r="B47" s="273"/>
+      <c r="C47" s="279"/>
       <c r="D47" s="199"/>
       <c r="E47" s="199"/>
       <c r="F47" s="199"/>
@@ -5298,8 +5298,8 @@
       <c r="M47" s="202"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="284"/>
-      <c r="C48" s="277"/>
+      <c r="B48" s="274"/>
+      <c r="C48" s="280"/>
       <c r="D48" s="148" t="s">
         <v>286</v>
       </c>
@@ -5325,10 +5325,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="281">
+      <c r="B49" s="272">
         <v>3</v>
       </c>
-      <c r="C49" s="275" t="s">
+      <c r="C49" s="278" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="151"/>
@@ -5345,8 +5345,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="282"/>
-      <c r="C50" s="276"/>
+      <c r="B50" s="273"/>
+      <c r="C50" s="279"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -5377,8 +5377,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="282"/>
-      <c r="C51" s="276"/>
+      <c r="B51" s="273"/>
+      <c r="C51" s="279"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -5409,8 +5409,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="282"/>
-      <c r="C52" s="276"/>
+      <c r="B52" s="273"/>
+      <c r="C52" s="279"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -5441,8 +5441,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="282"/>
-      <c r="C53" s="276"/>
+      <c r="B53" s="273"/>
+      <c r="C53" s="279"/>
       <c r="D53" s="156" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -5481,8 +5481,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="282"/>
-      <c r="C54" s="276"/>
+      <c r="B54" s="273"/>
+      <c r="C54" s="279"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -5512,8 +5512,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="282"/>
-      <c r="C55" s="276"/>
+      <c r="B55" s="273"/>
+      <c r="C55" s="279"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -5543,8 +5543,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="282"/>
-      <c r="C56" s="276"/>
+      <c r="B56" s="273"/>
+      <c r="C56" s="279"/>
       <c r="D56" s="191" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -5583,8 +5583,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="282"/>
-      <c r="C57" s="276"/>
+      <c r="B57" s="273"/>
+      <c r="C57" s="279"/>
       <c r="D57" s="191" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -5623,8 +5623,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="282"/>
-      <c r="C58" s="276"/>
+      <c r="B58" s="273"/>
+      <c r="C58" s="279"/>
       <c r="D58" s="192" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -5658,8 +5658,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="282"/>
-      <c r="C59" s="276"/>
+      <c r="B59" s="273"/>
+      <c r="C59" s="279"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -5690,8 +5690,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="282"/>
-      <c r="C60" s="276"/>
+      <c r="B60" s="273"/>
+      <c r="C60" s="279"/>
       <c r="D60" s="156" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -5728,8 +5728,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="282"/>
-      <c r="C61" s="276"/>
+      <c r="B61" s="273"/>
+      <c r="C61" s="279"/>
       <c r="D61" s="156" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -5766,8 +5766,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="282"/>
-      <c r="C62" s="276"/>
+      <c r="B62" s="273"/>
+      <c r="C62" s="279"/>
       <c r="D62" s="156" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -5804,8 +5804,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="282"/>
-      <c r="C63" s="276"/>
+      <c r="B63" s="273"/>
+      <c r="C63" s="279"/>
       <c r="D63" s="156" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -5842,8 +5842,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="282"/>
-      <c r="C64" s="276"/>
+      <c r="B64" s="273"/>
+      <c r="C64" s="279"/>
       <c r="D64" s="156" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5880,8 +5880,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="282"/>
-      <c r="C65" s="276"/>
+      <c r="B65" s="273"/>
+      <c r="C65" s="279"/>
       <c r="D65" s="190" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5914,8 +5914,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="282"/>
-      <c r="C66" s="276"/>
+      <c r="B66" s="273"/>
+      <c r="C66" s="279"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5946,8 +5946,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="282"/>
-      <c r="C67" s="276"/>
+      <c r="B67" s="273"/>
+      <c r="C67" s="279"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5960,8 +5960,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="284"/>
-      <c r="C68" s="277"/>
+      <c r="B68" s="274"/>
+      <c r="C68" s="280"/>
       <c r="D68" s="148" t="s">
         <v>286</v>
       </c>
@@ -5987,10 +5987,10 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="19">
-      <c r="B69" s="281">
+      <c r="B69" s="272">
         <v>4</v>
       </c>
-      <c r="C69" s="275" t="s">
+      <c r="C69" s="278" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="151"/>
@@ -6007,8 +6007,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="19">
-      <c r="B70" s="282"/>
-      <c r="C70" s="276"/>
+      <c r="B70" s="273"/>
+      <c r="C70" s="279"/>
       <c r="D70" s="161" t="str">
         <f>PAB!D3</f>
         <v>Main Frame, STS304, T1.5</v>
@@ -6045,8 +6045,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="19">
-      <c r="B71" s="282"/>
-      <c r="C71" s="276"/>
+      <c r="B71" s="273"/>
+      <c r="C71" s="279"/>
       <c r="D71" s="161" t="str">
         <f>PAB!D4</f>
         <v>Left Cover, STS304, T1.5</v>
@@ -6077,8 +6077,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="19">
-      <c r="B72" s="282"/>
-      <c r="C72" s="276"/>
+      <c r="B72" s="273"/>
+      <c r="C72" s="279"/>
       <c r="D72" s="161" t="str">
         <f>PAB!D5</f>
         <v>Right Cover, STS304, T1.5</v>
@@ -6109,8 +6109,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="19">
-      <c r="B73" s="282"/>
-      <c r="C73" s="276"/>
+      <c r="B73" s="273"/>
+      <c r="C73" s="279"/>
       <c r="D73" s="161" t="str">
         <f>PAB!D6</f>
         <v>Rear Cover, STS304, T1.5</v>
@@ -6141,8 +6141,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="19">
-      <c r="B74" s="282"/>
-      <c r="C74" s="276"/>
+      <c r="B74" s="273"/>
+      <c r="C74" s="279"/>
       <c r="D74" s="198" t="str">
         <f>PAB!D7</f>
         <v>Power Board</v>
@@ -6177,8 +6177,8 @@
       </c>
     </row>
     <row r="75" spans="2:13" ht="19">
-      <c r="B75" s="282"/>
-      <c r="C75" s="276"/>
+      <c r="B75" s="273"/>
+      <c r="C75" s="279"/>
       <c r="D75" s="198" t="str">
         <f>PAB!D8</f>
         <v>Control Board</v>
@@ -6209,8 +6209,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="19">
-      <c r="B76" s="282"/>
-      <c r="C76" s="276"/>
+      <c r="B76" s="273"/>
+      <c r="C76" s="279"/>
       <c r="D76" s="161" t="str">
         <f>PAB!D9</f>
         <v>3P Connector, N&amp;G coding</v>
@@ -6247,8 +6247,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="19">
-      <c r="B77" s="282"/>
-      <c r="C77" s="276"/>
+      <c r="B77" s="273"/>
+      <c r="C77" s="279"/>
       <c r="D77" s="161" t="str">
         <f>PAB!D10</f>
         <v>4P Connector</v>
@@ -6285,8 +6285,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="19">
-      <c r="B78" s="282"/>
-      <c r="C78" s="276"/>
+      <c r="B78" s="273"/>
+      <c r="C78" s="279"/>
       <c r="D78" s="161" t="str">
         <f>PAB!D11</f>
         <v>Locking</v>
@@ -6323,8 +6323,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="19">
-      <c r="B79" s="282"/>
-      <c r="C79" s="276"/>
+      <c r="B79" s="273"/>
+      <c r="C79" s="279"/>
       <c r="D79" s="161" t="str">
         <f>PAB!D12</f>
         <v>4P Connector</v>
@@ -6361,8 +6361,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="19">
-      <c r="B80" s="282"/>
-      <c r="C80" s="276"/>
+      <c r="B80" s="273"/>
+      <c r="C80" s="279"/>
       <c r="D80" s="161" t="str">
         <f>PAB!D13</f>
         <v>Pin</v>
@@ -6399,8 +6399,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="19">
-      <c r="B81" s="282"/>
-      <c r="C81" s="276"/>
+      <c r="B81" s="273"/>
+      <c r="C81" s="279"/>
       <c r="D81" s="161" t="str">
         <f>PAB!D14</f>
         <v>8P Connector</v>
@@ -6437,8 +6437,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="19">
-      <c r="B82" s="282"/>
-      <c r="C82" s="276"/>
+      <c r="B82" s="273"/>
+      <c r="C82" s="279"/>
       <c r="D82" s="161" t="str">
         <f>PAB!D15</f>
         <v>Pin</v>
@@ -6475,8 +6475,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="19">
-      <c r="B83" s="282"/>
-      <c r="C83" s="276"/>
+      <c r="B83" s="273"/>
+      <c r="C83" s="279"/>
       <c r="D83" s="161" t="str">
         <f>PAB!D16</f>
         <v>Cable Gland</v>
@@ -6513,8 +6513,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="38">
-      <c r="B84" s="282"/>
-      <c r="C84" s="276"/>
+      <c r="B84" s="273"/>
+      <c r="C84" s="279"/>
       <c r="D84" s="198" t="str">
         <f>PAB!D17</f>
         <v>Relay</v>
@@ -6550,8 +6550,8 @@
       </c>
     </row>
     <row r="85" spans="2:13" ht="19">
-      <c r="B85" s="282"/>
-      <c r="C85" s="276"/>
+      <c r="B85" s="273"/>
+      <c r="C85" s="279"/>
       <c r="D85" s="198" t="str">
         <f>PAB!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -6582,8 +6582,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="282"/>
-      <c r="C86" s="276"/>
+      <c r="B86" s="273"/>
+      <c r="C86" s="279"/>
       <c r="D86" s="145"/>
       <c r="E86" s="145"/>
       <c r="F86" s="145"/>
@@ -6596,8 +6596,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="19">
-      <c r="B87" s="284"/>
-      <c r="C87" s="277"/>
+      <c r="B87" s="274"/>
+      <c r="C87" s="280"/>
       <c r="D87" s="148" t="s">
         <v>286</v>
       </c>
@@ -6623,10 +6623,10 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="19">
-      <c r="B88" s="281">
+      <c r="B88" s="272">
         <v>5</v>
       </c>
-      <c r="C88" s="275" t="s">
+      <c r="C88" s="278" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="151"/>
@@ -6645,8 +6645,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="19">
-      <c r="B89" s="282"/>
-      <c r="C89" s="276"/>
+      <c r="B89" s="273"/>
+      <c r="C89" s="279"/>
       <c r="D89" s="161" t="str">
         <f>EID!D3</f>
         <v>Main Frame, STS304, T1.2</v>
@@ -6683,8 +6683,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="19">
-      <c r="B90" s="282"/>
-      <c r="C90" s="276"/>
+      <c r="B90" s="273"/>
+      <c r="C90" s="279"/>
       <c r="D90" s="161" t="str">
         <f>EID!D4</f>
         <v>Mount Bracket</v>
@@ -6715,8 +6715,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="19">
-      <c r="B91" s="282"/>
-      <c r="C91" s="276"/>
+      <c r="B91" s="273"/>
+      <c r="C91" s="279"/>
       <c r="D91" s="161" t="str">
         <f>EID!D5</f>
         <v>LCD Bracket</v>
@@ -6747,8 +6747,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="19">
-      <c r="B92" s="282"/>
-      <c r="C92" s="276"/>
+      <c r="B92" s="273"/>
+      <c r="C92" s="279"/>
       <c r="D92" s="161" t="str">
         <f>EID!D6</f>
         <v>LCD Panel, 27”</v>
@@ -6787,8 +6787,8 @@
       </c>
     </row>
     <row r="93" spans="2:13" ht="19">
-      <c r="B93" s="282"/>
-      <c r="C93" s="276"/>
+      <c r="B93" s="273"/>
+      <c r="C93" s="279"/>
       <c r="D93" s="161" t="str">
         <f>EID!D7</f>
         <v>Connector Cover</v>
@@ -6819,8 +6819,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="19">
-      <c r="B94" s="282"/>
-      <c r="C94" s="276"/>
+      <c r="B94" s="273"/>
+      <c r="C94" s="279"/>
       <c r="D94" s="161" t="str">
         <f>EID!D8</f>
         <v>Rear Cover</v>
@@ -6851,8 +6851,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="19">
-      <c r="B95" s="282"/>
-      <c r="C95" s="276"/>
+      <c r="B95" s="273"/>
+      <c r="C95" s="279"/>
       <c r="D95" s="198" t="str">
         <f>EID!D9</f>
         <v>Control Board</v>
@@ -6883,8 +6883,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="19">
-      <c r="B96" s="282"/>
-      <c r="C96" s="276"/>
+      <c r="B96" s="273"/>
+      <c r="C96" s="279"/>
       <c r="D96" s="198" t="str">
         <f>EID!D10</f>
         <v>Power Board</v>
@@ -6919,8 +6919,8 @@
       </c>
     </row>
     <row r="97" spans="2:13" ht="19">
-      <c r="B97" s="282"/>
-      <c r="C97" s="276"/>
+      <c r="B97" s="273"/>
+      <c r="C97" s="279"/>
       <c r="D97" s="161" t="str">
         <f>EID!D11</f>
         <v>3P Connector Female</v>
@@ -6957,8 +6957,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="19">
-      <c r="B98" s="282"/>
-      <c r="C98" s="276"/>
+      <c r="B98" s="273"/>
+      <c r="C98" s="279"/>
       <c r="D98" s="161" t="str">
         <f>EID!D12</f>
         <v>Locking</v>
@@ -6995,8 +6995,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="19">
-      <c r="B99" s="282"/>
-      <c r="C99" s="276"/>
+      <c r="B99" s="273"/>
+      <c r="C99" s="279"/>
       <c r="D99" s="161" t="str">
         <f>EID!D13</f>
         <v>4P Connector Female</v>
@@ -7033,8 +7033,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="19">
-      <c r="B100" s="282"/>
-      <c r="C100" s="276"/>
+      <c r="B100" s="273"/>
+      <c r="C100" s="279"/>
       <c r="D100" s="161" t="str">
         <f>EID!D14</f>
         <v>Pin</v>
@@ -7071,8 +7071,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="19">
-      <c r="B101" s="282"/>
-      <c r="C101" s="276"/>
+      <c r="B101" s="273"/>
+      <c r="C101" s="279"/>
       <c r="D101" s="161" t="str">
         <f>EID!D15</f>
         <v>Cable Gland</v>
@@ -7109,8 +7109,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="19">
-      <c r="B102" s="282"/>
-      <c r="C102" s="276"/>
+      <c r="B102" s="273"/>
+      <c r="C102" s="279"/>
       <c r="D102" s="161" t="str">
         <f>EID!D16</f>
         <v>Illumination Sensor</v>
@@ -7147,8 +7147,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="19">
-      <c r="B103" s="282"/>
-      <c r="C103" s="276"/>
+      <c r="B103" s="273"/>
+      <c r="C103" s="279"/>
       <c r="D103" s="161" t="str">
         <f>EID!D17</f>
         <v>Inverter Board</v>
@@ -7185,8 +7185,8 @@
       </c>
     </row>
     <row r="104" spans="2:13" ht="19">
-      <c r="B104" s="282"/>
-      <c r="C104" s="276"/>
+      <c r="B104" s="273"/>
+      <c r="C104" s="279"/>
       <c r="D104" s="198" t="str">
         <f>EID!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -7217,8 +7217,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="19">
-      <c r="B105" s="282"/>
-      <c r="C105" s="276"/>
+      <c r="B105" s="273"/>
+      <c r="C105" s="279"/>
       <c r="D105" s="161" t="str">
         <f>EID!D19</f>
         <v>강화유리</v>
@@ -7253,8 +7253,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="282"/>
-      <c r="C106" s="276"/>
+      <c r="B106" s="273"/>
+      <c r="C106" s="279"/>
       <c r="D106" s="145"/>
       <c r="E106" s="145"/>
       <c r="F106" s="145"/>
@@ -7267,8 +7267,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="19">
-      <c r="B107" s="284"/>
-      <c r="C107" s="277"/>
+      <c r="B107" s="274"/>
+      <c r="C107" s="280"/>
       <c r="D107" s="148" t="s">
         <v>286</v>
       </c>
@@ -7294,10 +7294,10 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="19">
-      <c r="B108" s="281">
+      <c r="B108" s="272">
         <v>6</v>
       </c>
-      <c r="C108" s="275" t="s">
+      <c r="C108" s="278" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="151"/>
@@ -7314,8 +7314,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="19">
-      <c r="B109" s="282"/>
-      <c r="C109" s="276"/>
+      <c r="B109" s="273"/>
+      <c r="C109" s="279"/>
       <c r="D109" s="13" t="str">
         <f>PSR!D3</f>
         <v>Hub Board</v>
@@ -7346,8 +7346,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="19">
-      <c r="B110" s="282"/>
-      <c r="C110" s="276"/>
+      <c r="B110" s="273"/>
+      <c r="C110" s="279"/>
       <c r="D110" s="13" t="str">
         <f>PSR!D4</f>
         <v>PA_VOIP Board</v>
@@ -7378,8 +7378,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="19">
-      <c r="B111" s="282"/>
-      <c r="C111" s="276"/>
+      <c r="B111" s="273"/>
+      <c r="C111" s="279"/>
       <c r="D111" s="13" t="str">
         <f>PSR!D5</f>
         <v>PA_AMP1 Board</v>
@@ -7410,8 +7410,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="19">
-      <c r="B112" s="282"/>
-      <c r="C112" s="276"/>
+      <c r="B112" s="273"/>
+      <c r="C112" s="279"/>
       <c r="D112" s="13" t="str">
         <f>PSR!D6</f>
         <v>35V PWR Board</v>
@@ -7446,8 +7446,8 @@
       </c>
     </row>
     <row r="113" spans="2:13" ht="19">
-      <c r="B113" s="282"/>
-      <c r="C113" s="276"/>
+      <c r="B113" s="273"/>
+      <c r="C113" s="279"/>
       <c r="D113" s="13" t="str">
         <f>PSR!D7</f>
         <v>PA_AMP2 Board</v>
@@ -7478,8 +7478,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="19">
-      <c r="B114" s="282"/>
-      <c r="C114" s="276"/>
+      <c r="B114" s="273"/>
+      <c r="C114" s="279"/>
       <c r="D114" s="156" t="str">
         <f>PSR!D8</f>
         <v>Blank Panel</v>
@@ -7516,8 +7516,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="19">
-      <c r="B115" s="282"/>
-      <c r="C115" s="276"/>
+      <c r="B115" s="273"/>
+      <c r="C115" s="279"/>
       <c r="D115" s="13" t="str">
         <f>PSR!D9</f>
         <v>12V PWR Board</v>
@@ -7550,8 +7550,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="19">
-      <c r="B116" s="282"/>
-      <c r="C116" s="276"/>
+      <c r="B116" s="273"/>
+      <c r="C116" s="279"/>
       <c r="D116" s="156" t="str">
         <f>PSR!D10</f>
         <v>PSR Back Plane</v>
@@ -7590,8 +7590,8 @@
       </c>
     </row>
     <row r="117" spans="2:13" ht="19">
-      <c r="B117" s="282"/>
-      <c r="C117" s="276"/>
+      <c r="B117" s="273"/>
+      <c r="C117" s="279"/>
       <c r="D117" s="156" t="str">
         <f>PSR!D11</f>
         <v>Frame</v>
@@ -7628,8 +7628,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="19">
-      <c r="B118" s="282"/>
-      <c r="C118" s="276"/>
+      <c r="B118" s="273"/>
+      <c r="C118" s="279"/>
       <c r="D118" s="13" t="str">
         <f>PSR!D12</f>
         <v>Name Plate, AL, T1</v>
@@ -7660,8 +7660,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="282"/>
-      <c r="C119" s="276"/>
+      <c r="B119" s="273"/>
+      <c r="C119" s="279"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -7674,8 +7674,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="19">
-      <c r="B120" s="284"/>
-      <c r="C120" s="277"/>
+      <c r="B120" s="274"/>
+      <c r="C120" s="280"/>
       <c r="D120" s="148" t="s">
         <v>286</v>
       </c>
@@ -7701,10 +7701,10 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="19">
-      <c r="B121" s="281">
+      <c r="B121" s="272">
         <v>7</v>
       </c>
-      <c r="C121" s="272" t="s">
+      <c r="C121" s="275" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="151"/>
@@ -7721,8 +7721,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="19">
-      <c r="B122" s="282"/>
-      <c r="C122" s="273"/>
+      <c r="B122" s="273"/>
+      <c r="C122" s="276"/>
       <c r="D122" s="161" t="str">
         <f>ETND!D3</f>
         <v>Main Frame, SPCC</v>
@@ -7759,8 +7759,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="19">
-      <c r="B123" s="282"/>
-      <c r="C123" s="273"/>
+      <c r="B123" s="273"/>
+      <c r="C123" s="276"/>
       <c r="D123" s="161" t="str">
         <f>ETND!D4</f>
         <v>Rear Cover</v>
@@ -7791,8 +7791,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="19">
-      <c r="B124" s="282"/>
-      <c r="C124" s="273"/>
+      <c r="B124" s="273"/>
+      <c r="C124" s="276"/>
       <c r="D124" s="161" t="str">
         <f>ETND!D5</f>
         <v>LED Bracket</v>
@@ -7823,8 +7823,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="19">
-      <c r="B125" s="282"/>
-      <c r="C125" s="273"/>
+      <c r="B125" s="273"/>
+      <c r="C125" s="276"/>
       <c r="D125" s="198" t="str">
         <f>ETND!D6</f>
         <v>LED Module</v>
@@ -7859,8 +7859,8 @@
       </c>
     </row>
     <row r="126" spans="2:13" ht="19">
-      <c r="B126" s="282"/>
-      <c r="C126" s="273"/>
+      <c r="B126" s="273"/>
+      <c r="C126" s="276"/>
       <c r="D126" s="161" t="str">
         <f>ETND!D7</f>
         <v>Power Board Bracket</v>
@@ -7891,8 +7891,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="19">
-      <c r="B127" s="282"/>
-      <c r="C127" s="273"/>
+      <c r="B127" s="273"/>
+      <c r="C127" s="276"/>
       <c r="D127" s="198" t="str">
         <f>ETND!D8</f>
         <v>Power Board</v>
@@ -7927,8 +7927,8 @@
       </c>
     </row>
     <row r="128" spans="2:13" ht="19">
-      <c r="B128" s="282"/>
-      <c r="C128" s="273"/>
+      <c r="B128" s="273"/>
+      <c r="C128" s="276"/>
       <c r="D128" s="161" t="str">
         <f>ETND!D9</f>
         <v>Control Board Bracket</v>
@@ -7959,8 +7959,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="19">
-      <c r="B129" s="282"/>
-      <c r="C129" s="273"/>
+      <c r="B129" s="273"/>
+      <c r="C129" s="276"/>
       <c r="D129" s="161" t="str">
         <f>ETND!D10</f>
         <v>Control Board</v>
@@ -7997,8 +7997,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="19">
-      <c r="B130" s="282"/>
-      <c r="C130" s="273"/>
+      <c r="B130" s="273"/>
+      <c r="C130" s="276"/>
       <c r="D130" s="161" t="str">
         <f>ETND!D11</f>
         <v>3P Connector Female</v>
@@ -8035,8 +8035,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="19">
-      <c r="B131" s="282"/>
-      <c r="C131" s="273"/>
+      <c r="B131" s="273"/>
+      <c r="C131" s="276"/>
       <c r="D131" s="161" t="str">
         <f>ETND!D12</f>
         <v>Locking</v>
@@ -8073,8 +8073,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="19">
-      <c r="B132" s="282"/>
-      <c r="C132" s="273"/>
+      <c r="B132" s="273"/>
+      <c r="C132" s="276"/>
       <c r="D132" s="161" t="str">
         <f>ETND!D13</f>
         <v>4P Connector Female</v>
@@ -8111,8 +8111,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="19">
-      <c r="B133" s="282"/>
-      <c r="C133" s="273"/>
+      <c r="B133" s="273"/>
+      <c r="C133" s="276"/>
       <c r="D133" s="161" t="str">
         <f>ETND!D14</f>
         <v>Pin</v>
@@ -8149,8 +8149,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="19">
-      <c r="B134" s="282"/>
-      <c r="C134" s="273"/>
+      <c r="B134" s="273"/>
+      <c r="C134" s="276"/>
       <c r="D134" s="161" t="str">
         <f>ETND!D15</f>
         <v>Mount Bracket</v>
@@ -8181,8 +8181,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="19">
-      <c r="B135" s="282"/>
-      <c r="C135" s="273"/>
+      <c r="B135" s="273"/>
+      <c r="C135" s="276"/>
       <c r="D135" s="198" t="str">
         <f>ETND!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8213,8 +8213,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="282"/>
-      <c r="C136" s="273"/>
+      <c r="B136" s="273"/>
+      <c r="C136" s="276"/>
       <c r="D136" s="145"/>
       <c r="E136" s="145"/>
       <c r="F136" s="145"/>
@@ -8227,8 +8227,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="19">
-      <c r="B137" s="284"/>
-      <c r="C137" s="274"/>
+      <c r="B137" s="274"/>
+      <c r="C137" s="277"/>
       <c r="D137" s="148" t="s">
         <v>286</v>
       </c>
@@ -8254,10 +8254,10 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="19">
-      <c r="B138" s="281">
+      <c r="B138" s="272">
         <v>8</v>
       </c>
-      <c r="C138" s="275" t="s">
+      <c r="C138" s="278" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="174"/>
@@ -8274,8 +8274,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="19">
-      <c r="B139" s="282"/>
-      <c r="C139" s="276"/>
+      <c r="B139" s="273"/>
+      <c r="C139" s="279"/>
       <c r="D139" s="161" t="str">
         <f>EDD!D3</f>
         <v>Main Frame, SPCC</v>
@@ -8312,8 +8312,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="19">
-      <c r="B140" s="282"/>
-      <c r="C140" s="276"/>
+      <c r="B140" s="273"/>
+      <c r="C140" s="279"/>
       <c r="D140" s="161" t="str">
         <f>EDD!D4</f>
         <v>Rear Cover</v>
@@ -8344,8 +8344,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="19">
-      <c r="B141" s="282"/>
-      <c r="C141" s="276"/>
+      <c r="B141" s="273"/>
+      <c r="C141" s="279"/>
       <c r="D141" s="161" t="str">
         <f>EDD!D5</f>
         <v>LED Bracket</v>
@@ -8376,8 +8376,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="19">
-      <c r="B142" s="282"/>
-      <c r="C142" s="276"/>
+      <c r="B142" s="273"/>
+      <c r="C142" s="279"/>
       <c r="D142" s="198" t="str">
         <f>EDD!D6</f>
         <v>LED Module</v>
@@ -8412,8 +8412,8 @@
       </c>
     </row>
     <row r="143" spans="2:13" ht="19">
-      <c r="B143" s="282"/>
-      <c r="C143" s="276"/>
+      <c r="B143" s="273"/>
+      <c r="C143" s="279"/>
       <c r="D143" s="161" t="str">
         <f>EDD!D7</f>
         <v>Power Board Bracket</v>
@@ -8444,8 +8444,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="19">
-      <c r="B144" s="282"/>
-      <c r="C144" s="276"/>
+      <c r="B144" s="273"/>
+      <c r="C144" s="279"/>
       <c r="D144" s="198" t="str">
         <f>EDD!D8</f>
         <v>Power Board</v>
@@ -8480,8 +8480,8 @@
       </c>
     </row>
     <row r="145" spans="2:13" ht="19">
-      <c r="B145" s="282"/>
-      <c r="C145" s="276"/>
+      <c r="B145" s="273"/>
+      <c r="C145" s="279"/>
       <c r="D145" s="161" t="str">
         <f>EDD!D9</f>
         <v>Control Board Bracket</v>
@@ -8512,8 +8512,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="19">
-      <c r="B146" s="282"/>
-      <c r="C146" s="276"/>
+      <c r="B146" s="273"/>
+      <c r="C146" s="279"/>
       <c r="D146" s="161" t="str">
         <f>EDD!D10</f>
         <v>Control Board</v>
@@ -8550,8 +8550,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="19">
-      <c r="B147" s="282"/>
-      <c r="C147" s="276"/>
+      <c r="B147" s="273"/>
+      <c r="C147" s="279"/>
       <c r="D147" s="161" t="str">
         <f>EDD!D11</f>
         <v>3P Connector Female</v>
@@ -8588,8 +8588,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="19">
-      <c r="B148" s="282"/>
-      <c r="C148" s="276"/>
+      <c r="B148" s="273"/>
+      <c r="C148" s="279"/>
       <c r="D148" s="161" t="str">
         <f>EDD!D12</f>
         <v>Locking</v>
@@ -8626,8 +8626,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="19">
-      <c r="B149" s="282"/>
-      <c r="C149" s="276"/>
+      <c r="B149" s="273"/>
+      <c r="C149" s="279"/>
       <c r="D149" s="161" t="str">
         <f>EDD!D13</f>
         <v>4P Connector Female</v>
@@ -8664,8 +8664,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="19">
-      <c r="B150" s="282"/>
-      <c r="C150" s="276"/>
+      <c r="B150" s="273"/>
+      <c r="C150" s="279"/>
       <c r="D150" s="161" t="str">
         <f>EDD!D14</f>
         <v>Pin</v>
@@ -8702,8 +8702,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="19">
-      <c r="B151" s="282"/>
-      <c r="C151" s="276"/>
+      <c r="B151" s="273"/>
+      <c r="C151" s="279"/>
       <c r="D151" s="161" t="str">
         <f>EDD!D15</f>
         <v>Mount Bracket</v>
@@ -8734,8 +8734,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="19">
-      <c r="B152" s="282"/>
-      <c r="C152" s="276"/>
+      <c r="B152" s="273"/>
+      <c r="C152" s="279"/>
       <c r="D152" s="198" t="str">
         <f>EDD!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8766,8 +8766,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="282"/>
-      <c r="C153" s="276"/>
+      <c r="B153" s="273"/>
+      <c r="C153" s="279"/>
       <c r="D153" s="145"/>
       <c r="E153" s="145"/>
       <c r="F153" s="145"/>
@@ -8780,8 +8780,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="19">
-      <c r="B154" s="282"/>
-      <c r="C154" s="277"/>
+      <c r="B154" s="273"/>
+      <c r="C154" s="280"/>
       <c r="D154" s="148" t="s">
         <v>286</v>
       </c>
@@ -8807,7 +8807,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="278" t="s">
+      <c r="B155" s="281" t="s">
         <v>285</v>
       </c>
       <c r="C155" s="177">
@@ -8844,7 +8844,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="278"/>
+      <c r="B156" s="281"/>
       <c r="C156" s="177">
         <v>2</v>
       </c>
@@ -8879,7 +8879,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="278"/>
+      <c r="B157" s="281"/>
       <c r="C157" s="177">
         <v>3</v>
       </c>
@@ -8914,7 +8914,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="278"/>
+      <c r="B158" s="281"/>
       <c r="C158" s="177">
         <v>4</v>
       </c>
@@ -8944,7 +8944,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="278"/>
+      <c r="B159" s="281"/>
       <c r="C159" s="177">
         <v>5</v>
       </c>
@@ -8975,7 +8975,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="278"/>
+      <c r="B160" s="281"/>
       <c r="C160" s="177">
         <v>6</v>
       </c>
@@ -9003,7 +9003,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="278"/>
+      <c r="B161" s="281"/>
       <c r="C161" s="177">
         <v>7</v>
       </c>
@@ -9040,7 +9040,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="279"/>
+      <c r="B162" s="282"/>
       <c r="C162" s="215">
         <v>8</v>
       </c>
@@ -9115,6 +9115,7 @@
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="C108:C120"/>
     <mergeCell ref="B121:B137"/>
     <mergeCell ref="C121:C137"/>
     <mergeCell ref="C138:C154"/>
@@ -9131,7 +9132,6 @@
     <mergeCell ref="C88:C107"/>
     <mergeCell ref="B88:B107"/>
     <mergeCell ref="B108:B120"/>
-    <mergeCell ref="C108:C120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11064,8 +11064,8 @@
   <dimension ref="B1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="18"/>
@@ -12507,6 +12507,11 @@
       <c r="M42" s="31">
         <f>SUM(M22:M41)</f>
         <v>19884440</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="D45" s="32">
+        <v>2222</v>
       </c>
     </row>
     <row r="47" spans="2:17">

--- a/241007_BOM_구매현황(전체).xlsx
+++ b/241007_BOM_구매현황(전체).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AA511A-70D3-0647-9EDB-98B072F5C46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD897D-F7EC-A44F-8A0C-1AD710B55693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="940" windowWidth="33900" windowHeight="24360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="389">
   <si>
     <t>Remarks</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1694,6 +1694,10 @@
   </si>
   <si>
     <t>35155-0800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewqrewqwq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3385,6 +3389,15 @@
     <xf numFmtId="179" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3401,15 +3414,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3868,8 +3872,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="273"/>
-      <c r="C4" s="276"/>
+      <c r="B4" s="276"/>
+      <c r="C4" s="279"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3900,8 +3904,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="273"/>
-      <c r="C5" s="276"/>
+      <c r="B5" s="276"/>
+      <c r="C5" s="279"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3932,8 +3936,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="273"/>
-      <c r="C6" s="276"/>
+      <c r="B6" s="276"/>
+      <c r="C6" s="279"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3964,8 +3968,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="273"/>
-      <c r="C7" s="276"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="279"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3996,8 +4000,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="273"/>
-      <c r="C8" s="276"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="279"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -4028,8 +4032,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="273"/>
-      <c r="C9" s="276"/>
+      <c r="B9" s="276"/>
+      <c r="C9" s="279"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -4060,8 +4064,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="273"/>
-      <c r="C10" s="276"/>
+      <c r="B10" s="276"/>
+      <c r="C10" s="279"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -4092,8 +4096,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="273"/>
-      <c r="C11" s="276"/>
+      <c r="B11" s="276"/>
+      <c r="C11" s="279"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -4124,8 +4128,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="273"/>
-      <c r="C12" s="276"/>
+      <c r="B12" s="276"/>
+      <c r="C12" s="279"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -4156,8 +4160,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="273"/>
-      <c r="C13" s="276"/>
+      <c r="B13" s="276"/>
+      <c r="C13" s="279"/>
       <c r="D13" s="150" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -4194,8 +4198,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="273"/>
-      <c r="C14" s="276"/>
+      <c r="B14" s="276"/>
+      <c r="C14" s="279"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -4229,8 +4233,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="273"/>
-      <c r="C15" s="276"/>
+      <c r="B15" s="276"/>
+      <c r="C15" s="279"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -4261,8 +4265,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="273"/>
-      <c r="C16" s="276"/>
+      <c r="B16" s="276"/>
+      <c r="C16" s="279"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -4293,8 +4297,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="273"/>
-      <c r="C17" s="276"/>
+      <c r="B17" s="276"/>
+      <c r="C17" s="279"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -4325,8 +4329,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="273"/>
-      <c r="C18" s="276"/>
+      <c r="B18" s="276"/>
+      <c r="C18" s="279"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -4357,8 +4361,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="273"/>
-      <c r="C19" s="276"/>
+      <c r="B19" s="276"/>
+      <c r="C19" s="279"/>
       <c r="D19" s="150" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -4395,8 +4399,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="273"/>
-      <c r="C20" s="276"/>
+      <c r="B20" s="276"/>
+      <c r="C20" s="279"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -4429,8 +4433,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="273"/>
-      <c r="C21" s="276"/>
+      <c r="B21" s="276"/>
+      <c r="C21" s="279"/>
       <c r="D21" s="150" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -4467,8 +4471,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="273"/>
-      <c r="C22" s="276"/>
+      <c r="B22" s="276"/>
+      <c r="C22" s="279"/>
       <c r="D22" s="150" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -4505,8 +4509,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="273"/>
-      <c r="C23" s="276"/>
+      <c r="B23" s="276"/>
+      <c r="C23" s="279"/>
       <c r="D23" s="150" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -4543,8 +4547,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="273"/>
-      <c r="C24" s="276"/>
+      <c r="B24" s="276"/>
+      <c r="C24" s="279"/>
       <c r="D24" s="150" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -4581,8 +4585,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="273"/>
-      <c r="C25" s="276"/>
+      <c r="B25" s="276"/>
+      <c r="C25" s="279"/>
       <c r="D25" s="150" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -4619,8 +4623,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="273"/>
-      <c r="C26" s="276"/>
+      <c r="B26" s="276"/>
+      <c r="C26" s="279"/>
       <c r="D26" s="150" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -4657,8 +4661,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="273"/>
-      <c r="C27" s="276"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="279"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -4689,8 +4693,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="273"/>
-      <c r="C28" s="276"/>
+      <c r="B28" s="276"/>
+      <c r="C28" s="279"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -4723,8 +4727,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="273"/>
-      <c r="C29" s="276"/>
+      <c r="B29" s="276"/>
+      <c r="C29" s="279"/>
       <c r="D29" s="199"/>
       <c r="E29" s="199"/>
       <c r="F29" s="199"/>
@@ -4737,8 +4741,8 @@
       <c r="M29" s="202"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="274"/>
-      <c r="C30" s="277"/>
+      <c r="B30" s="277"/>
+      <c r="C30" s="280"/>
       <c r="D30" s="148" t="s">
         <v>286</v>
       </c>
@@ -4764,10 +4768,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="272">
+      <c r="B31" s="275">
         <v>2</v>
       </c>
-      <c r="C31" s="278" t="s">
+      <c r="C31" s="272" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="151"/>
@@ -4784,8 +4788,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="273"/>
-      <c r="C32" s="279"/>
+      <c r="B32" s="276"/>
+      <c r="C32" s="273"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -4816,8 +4820,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="273"/>
-      <c r="C33" s="279"/>
+      <c r="B33" s="276"/>
+      <c r="C33" s="273"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -4848,8 +4852,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="273"/>
-      <c r="C34" s="279"/>
+      <c r="B34" s="276"/>
+      <c r="C34" s="273"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4880,8 +4884,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="273"/>
-      <c r="C35" s="279"/>
+      <c r="B35" s="276"/>
+      <c r="C35" s="273"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4912,8 +4916,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="273"/>
-      <c r="C36" s="279"/>
+      <c r="B36" s="276"/>
+      <c r="C36" s="273"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4944,8 +4948,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="273"/>
-      <c r="C37" s="279"/>
+      <c r="B37" s="276"/>
+      <c r="C37" s="273"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4976,8 +4980,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="273"/>
-      <c r="C38" s="279"/>
+      <c r="B38" s="276"/>
+      <c r="C38" s="273"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -5009,8 +5013,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="273"/>
-      <c r="C39" s="279"/>
+      <c r="B39" s="276"/>
+      <c r="C39" s="273"/>
       <c r="D39" s="191" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -5042,8 +5046,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="273"/>
-      <c r="C40" s="279"/>
+      <c r="B40" s="276"/>
+      <c r="C40" s="273"/>
       <c r="D40" s="191" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -5075,8 +5079,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="273"/>
-      <c r="C41" s="279"/>
+      <c r="B41" s="276"/>
+      <c r="C41" s="273"/>
       <c r="D41" s="192" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -5110,8 +5114,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="273"/>
-      <c r="C42" s="279"/>
+      <c r="B42" s="276"/>
+      <c r="C42" s="273"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -5142,8 +5146,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="273"/>
-      <c r="C43" s="279"/>
+      <c r="B43" s="276"/>
+      <c r="C43" s="273"/>
       <c r="D43" s="156" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -5180,8 +5184,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="273"/>
-      <c r="C44" s="279"/>
+      <c r="B44" s="276"/>
+      <c r="C44" s="273"/>
       <c r="D44" s="156" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -5218,8 +5222,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="273"/>
-      <c r="C45" s="279"/>
+      <c r="B45" s="276"/>
+      <c r="C45" s="273"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -5250,8 +5254,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="273"/>
-      <c r="C46" s="279"/>
+      <c r="B46" s="276"/>
+      <c r="C46" s="273"/>
       <c r="D46" s="190" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -5284,8 +5288,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="273"/>
-      <c r="C47" s="279"/>
+      <c r="B47" s="276"/>
+      <c r="C47" s="273"/>
       <c r="D47" s="199"/>
       <c r="E47" s="199"/>
       <c r="F47" s="199"/>
@@ -5298,8 +5302,8 @@
       <c r="M47" s="202"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="274"/>
-      <c r="C48" s="280"/>
+      <c r="B48" s="277"/>
+      <c r="C48" s="274"/>
       <c r="D48" s="148" t="s">
         <v>286</v>
       </c>
@@ -5325,10 +5329,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="272">
+      <c r="B49" s="275">
         <v>3</v>
       </c>
-      <c r="C49" s="278" t="s">
+      <c r="C49" s="272" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="151"/>
@@ -5345,8 +5349,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="273"/>
-      <c r="C50" s="279"/>
+      <c r="B50" s="276"/>
+      <c r="C50" s="273"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -5377,8 +5381,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="273"/>
-      <c r="C51" s="279"/>
+      <c r="B51" s="276"/>
+      <c r="C51" s="273"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -5409,8 +5413,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="273"/>
-      <c r="C52" s="279"/>
+      <c r="B52" s="276"/>
+      <c r="C52" s="273"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -5441,8 +5445,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="273"/>
-      <c r="C53" s="279"/>
+      <c r="B53" s="276"/>
+      <c r="C53" s="273"/>
       <c r="D53" s="156" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -5481,8 +5485,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="273"/>
-      <c r="C54" s="279"/>
+      <c r="B54" s="276"/>
+      <c r="C54" s="273"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -5512,8 +5516,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="273"/>
-      <c r="C55" s="279"/>
+      <c r="B55" s="276"/>
+      <c r="C55" s="273"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -5543,8 +5547,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="273"/>
-      <c r="C56" s="279"/>
+      <c r="B56" s="276"/>
+      <c r="C56" s="273"/>
       <c r="D56" s="191" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -5583,8 +5587,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="273"/>
-      <c r="C57" s="279"/>
+      <c r="B57" s="276"/>
+      <c r="C57" s="273"/>
       <c r="D57" s="191" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -5623,8 +5627,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="273"/>
-      <c r="C58" s="279"/>
+      <c r="B58" s="276"/>
+      <c r="C58" s="273"/>
       <c r="D58" s="192" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -5658,8 +5662,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="273"/>
-      <c r="C59" s="279"/>
+      <c r="B59" s="276"/>
+      <c r="C59" s="273"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -5690,8 +5694,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="273"/>
-      <c r="C60" s="279"/>
+      <c r="B60" s="276"/>
+      <c r="C60" s="273"/>
       <c r="D60" s="156" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -5728,8 +5732,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="273"/>
-      <c r="C61" s="279"/>
+      <c r="B61" s="276"/>
+      <c r="C61" s="273"/>
       <c r="D61" s="156" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -5766,8 +5770,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="273"/>
-      <c r="C62" s="279"/>
+      <c r="B62" s="276"/>
+      <c r="C62" s="273"/>
       <c r="D62" s="156" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -5804,8 +5808,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="273"/>
-      <c r="C63" s="279"/>
+      <c r="B63" s="276"/>
+      <c r="C63" s="273"/>
       <c r="D63" s="156" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -5842,8 +5846,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="273"/>
-      <c r="C64" s="279"/>
+      <c r="B64" s="276"/>
+      <c r="C64" s="273"/>
       <c r="D64" s="156" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5880,8 +5884,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="273"/>
-      <c r="C65" s="279"/>
+      <c r="B65" s="276"/>
+      <c r="C65" s="273"/>
       <c r="D65" s="190" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5914,8 +5918,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="273"/>
-      <c r="C66" s="279"/>
+      <c r="B66" s="276"/>
+      <c r="C66" s="273"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5946,8 +5950,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="273"/>
-      <c r="C67" s="279"/>
+      <c r="B67" s="276"/>
+      <c r="C67" s="273"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5960,8 +5964,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="274"/>
-      <c r="C68" s="280"/>
+      <c r="B68" s="277"/>
+      <c r="C68" s="274"/>
       <c r="D68" s="148" t="s">
         <v>286</v>
       </c>
@@ -5987,10 +5991,10 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="19">
-      <c r="B69" s="272">
+      <c r="B69" s="275">
         <v>4</v>
       </c>
-      <c r="C69" s="278" t="s">
+      <c r="C69" s="272" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="151"/>
@@ -6007,8 +6011,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="19">
-      <c r="B70" s="273"/>
-      <c r="C70" s="279"/>
+      <c r="B70" s="276"/>
+      <c r="C70" s="273"/>
       <c r="D70" s="161" t="str">
         <f>PAB!D3</f>
         <v>Main Frame, STS304, T1.5</v>
@@ -6045,8 +6049,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="19">
-      <c r="B71" s="273"/>
-      <c r="C71" s="279"/>
+      <c r="B71" s="276"/>
+      <c r="C71" s="273"/>
       <c r="D71" s="161" t="str">
         <f>PAB!D4</f>
         <v>Left Cover, STS304, T1.5</v>
@@ -6077,8 +6081,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="19">
-      <c r="B72" s="273"/>
-      <c r="C72" s="279"/>
+      <c r="B72" s="276"/>
+      <c r="C72" s="273"/>
       <c r="D72" s="161" t="str">
         <f>PAB!D5</f>
         <v>Right Cover, STS304, T1.5</v>
@@ -6109,8 +6113,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="19">
-      <c r="B73" s="273"/>
-      <c r="C73" s="279"/>
+      <c r="B73" s="276"/>
+      <c r="C73" s="273"/>
       <c r="D73" s="161" t="str">
         <f>PAB!D6</f>
         <v>Rear Cover, STS304, T1.5</v>
@@ -6141,8 +6145,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="19">
-      <c r="B74" s="273"/>
-      <c r="C74" s="279"/>
+      <c r="B74" s="276"/>
+      <c r="C74" s="273"/>
       <c r="D74" s="198" t="str">
         <f>PAB!D7</f>
         <v>Power Board</v>
@@ -6177,8 +6181,8 @@
       </c>
     </row>
     <row r="75" spans="2:13" ht="19">
-      <c r="B75" s="273"/>
-      <c r="C75" s="279"/>
+      <c r="B75" s="276"/>
+      <c r="C75" s="273"/>
       <c r="D75" s="198" t="str">
         <f>PAB!D8</f>
         <v>Control Board</v>
@@ -6209,8 +6213,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="19">
-      <c r="B76" s="273"/>
-      <c r="C76" s="279"/>
+      <c r="B76" s="276"/>
+      <c r="C76" s="273"/>
       <c r="D76" s="161" t="str">
         <f>PAB!D9</f>
         <v>3P Connector, N&amp;G coding</v>
@@ -6247,8 +6251,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="19">
-      <c r="B77" s="273"/>
-      <c r="C77" s="279"/>
+      <c r="B77" s="276"/>
+      <c r="C77" s="273"/>
       <c r="D77" s="161" t="str">
         <f>PAB!D10</f>
         <v>4P Connector</v>
@@ -6285,8 +6289,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="19">
-      <c r="B78" s="273"/>
-      <c r="C78" s="279"/>
+      <c r="B78" s="276"/>
+      <c r="C78" s="273"/>
       <c r="D78" s="161" t="str">
         <f>PAB!D11</f>
         <v>Locking</v>
@@ -6323,8 +6327,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="19">
-      <c r="B79" s="273"/>
-      <c r="C79" s="279"/>
+      <c r="B79" s="276"/>
+      <c r="C79" s="273"/>
       <c r="D79" s="161" t="str">
         <f>PAB!D12</f>
         <v>4P Connector</v>
@@ -6361,8 +6365,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="19">
-      <c r="B80" s="273"/>
-      <c r="C80" s="279"/>
+      <c r="B80" s="276"/>
+      <c r="C80" s="273"/>
       <c r="D80" s="161" t="str">
         <f>PAB!D13</f>
         <v>Pin</v>
@@ -6399,8 +6403,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="19">
-      <c r="B81" s="273"/>
-      <c r="C81" s="279"/>
+      <c r="B81" s="276"/>
+      <c r="C81" s="273"/>
       <c r="D81" s="161" t="str">
         <f>PAB!D14</f>
         <v>8P Connector</v>
@@ -6437,8 +6441,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="19">
-      <c r="B82" s="273"/>
-      <c r="C82" s="279"/>
+      <c r="B82" s="276"/>
+      <c r="C82" s="273"/>
       <c r="D82" s="161" t="str">
         <f>PAB!D15</f>
         <v>Pin</v>
@@ -6475,8 +6479,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="19">
-      <c r="B83" s="273"/>
-      <c r="C83" s="279"/>
+      <c r="B83" s="276"/>
+      <c r="C83" s="273"/>
       <c r="D83" s="161" t="str">
         <f>PAB!D16</f>
         <v>Cable Gland</v>
@@ -6513,8 +6517,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="38">
-      <c r="B84" s="273"/>
-      <c r="C84" s="279"/>
+      <c r="B84" s="276"/>
+      <c r="C84" s="273"/>
       <c r="D84" s="198" t="str">
         <f>PAB!D17</f>
         <v>Relay</v>
@@ -6550,8 +6554,8 @@
       </c>
     </row>
     <row r="85" spans="2:13" ht="19">
-      <c r="B85" s="273"/>
-      <c r="C85" s="279"/>
+      <c r="B85" s="276"/>
+      <c r="C85" s="273"/>
       <c r="D85" s="198" t="str">
         <f>PAB!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -6582,8 +6586,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="273"/>
-      <c r="C86" s="279"/>
+      <c r="B86" s="276"/>
+      <c r="C86" s="273"/>
       <c r="D86" s="145"/>
       <c r="E86" s="145"/>
       <c r="F86" s="145"/>
@@ -6596,8 +6600,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="19">
-      <c r="B87" s="274"/>
-      <c r="C87" s="280"/>
+      <c r="B87" s="277"/>
+      <c r="C87" s="274"/>
       <c r="D87" s="148" t="s">
         <v>286</v>
       </c>
@@ -6623,10 +6627,10 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="19">
-      <c r="B88" s="272">
+      <c r="B88" s="275">
         <v>5</v>
       </c>
-      <c r="C88" s="278" t="s">
+      <c r="C88" s="272" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="151"/>
@@ -6645,8 +6649,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="19">
-      <c r="B89" s="273"/>
-      <c r="C89" s="279"/>
+      <c r="B89" s="276"/>
+      <c r="C89" s="273"/>
       <c r="D89" s="161" t="str">
         <f>EID!D3</f>
         <v>Main Frame, STS304, T1.2</v>
@@ -6683,8 +6687,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="19">
-      <c r="B90" s="273"/>
-      <c r="C90" s="279"/>
+      <c r="B90" s="276"/>
+      <c r="C90" s="273"/>
       <c r="D90" s="161" t="str">
         <f>EID!D4</f>
         <v>Mount Bracket</v>
@@ -6715,8 +6719,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="19">
-      <c r="B91" s="273"/>
-      <c r="C91" s="279"/>
+      <c r="B91" s="276"/>
+      <c r="C91" s="273"/>
       <c r="D91" s="161" t="str">
         <f>EID!D5</f>
         <v>LCD Bracket</v>
@@ -6747,8 +6751,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="19">
-      <c r="B92" s="273"/>
-      <c r="C92" s="279"/>
+      <c r="B92" s="276"/>
+      <c r="C92" s="273"/>
       <c r="D92" s="161" t="str">
         <f>EID!D6</f>
         <v>LCD Panel, 27”</v>
@@ -6787,8 +6791,8 @@
       </c>
     </row>
     <row r="93" spans="2:13" ht="19">
-      <c r="B93" s="273"/>
-      <c r="C93" s="279"/>
+      <c r="B93" s="276"/>
+      <c r="C93" s="273"/>
       <c r="D93" s="161" t="str">
         <f>EID!D7</f>
         <v>Connector Cover</v>
@@ -6819,8 +6823,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="19">
-      <c r="B94" s="273"/>
-      <c r="C94" s="279"/>
+      <c r="B94" s="276"/>
+      <c r="C94" s="273"/>
       <c r="D94" s="161" t="str">
         <f>EID!D8</f>
         <v>Rear Cover</v>
@@ -6851,8 +6855,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="19">
-      <c r="B95" s="273"/>
-      <c r="C95" s="279"/>
+      <c r="B95" s="276"/>
+      <c r="C95" s="273"/>
       <c r="D95" s="198" t="str">
         <f>EID!D9</f>
         <v>Control Board</v>
@@ -6883,8 +6887,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="19">
-      <c r="B96" s="273"/>
-      <c r="C96" s="279"/>
+      <c r="B96" s="276"/>
+      <c r="C96" s="273"/>
       <c r="D96" s="198" t="str">
         <f>EID!D10</f>
         <v>Power Board</v>
@@ -6919,8 +6923,8 @@
       </c>
     </row>
     <row r="97" spans="2:13" ht="19">
-      <c r="B97" s="273"/>
-      <c r="C97" s="279"/>
+      <c r="B97" s="276"/>
+      <c r="C97" s="273"/>
       <c r="D97" s="161" t="str">
         <f>EID!D11</f>
         <v>3P Connector Female</v>
@@ -6957,8 +6961,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="19">
-      <c r="B98" s="273"/>
-      <c r="C98" s="279"/>
+      <c r="B98" s="276"/>
+      <c r="C98" s="273"/>
       <c r="D98" s="161" t="str">
         <f>EID!D12</f>
         <v>Locking</v>
@@ -6995,8 +6999,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="19">
-      <c r="B99" s="273"/>
-      <c r="C99" s="279"/>
+      <c r="B99" s="276"/>
+      <c r="C99" s="273"/>
       <c r="D99" s="161" t="str">
         <f>EID!D13</f>
         <v>4P Connector Female</v>
@@ -7033,8 +7037,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="19">
-      <c r="B100" s="273"/>
-      <c r="C100" s="279"/>
+      <c r="B100" s="276"/>
+      <c r="C100" s="273"/>
       <c r="D100" s="161" t="str">
         <f>EID!D14</f>
         <v>Pin</v>
@@ -7071,8 +7075,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="19">
-      <c r="B101" s="273"/>
-      <c r="C101" s="279"/>
+      <c r="B101" s="276"/>
+      <c r="C101" s="273"/>
       <c r="D101" s="161" t="str">
         <f>EID!D15</f>
         <v>Cable Gland</v>
@@ -7109,8 +7113,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="19">
-      <c r="B102" s="273"/>
-      <c r="C102" s="279"/>
+      <c r="B102" s="276"/>
+      <c r="C102" s="273"/>
       <c r="D102" s="161" t="str">
         <f>EID!D16</f>
         <v>Illumination Sensor</v>
@@ -7147,8 +7151,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="19">
-      <c r="B103" s="273"/>
-      <c r="C103" s="279"/>
+      <c r="B103" s="276"/>
+      <c r="C103" s="273"/>
       <c r="D103" s="161" t="str">
         <f>EID!D17</f>
         <v>Inverter Board</v>
@@ -7185,8 +7189,8 @@
       </c>
     </row>
     <row r="104" spans="2:13" ht="19">
-      <c r="B104" s="273"/>
-      <c r="C104" s="279"/>
+      <c r="B104" s="276"/>
+      <c r="C104" s="273"/>
       <c r="D104" s="198" t="str">
         <f>EID!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -7217,8 +7221,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="19">
-      <c r="B105" s="273"/>
-      <c r="C105" s="279"/>
+      <c r="B105" s="276"/>
+      <c r="C105" s="273"/>
       <c r="D105" s="161" t="str">
         <f>EID!D19</f>
         <v>강화유리</v>
@@ -7253,8 +7257,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="273"/>
-      <c r="C106" s="279"/>
+      <c r="B106" s="276"/>
+      <c r="C106" s="273"/>
       <c r="D106" s="145"/>
       <c r="E106" s="145"/>
       <c r="F106" s="145"/>
@@ -7267,8 +7271,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="19">
-      <c r="B107" s="274"/>
-      <c r="C107" s="280"/>
+      <c r="B107" s="277"/>
+      <c r="C107" s="274"/>
       <c r="D107" s="148" t="s">
         <v>286</v>
       </c>
@@ -7294,10 +7298,10 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="19">
-      <c r="B108" s="272">
+      <c r="B108" s="275">
         <v>6</v>
       </c>
-      <c r="C108" s="278" t="s">
+      <c r="C108" s="272" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="151"/>
@@ -7314,8 +7318,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="19">
-      <c r="B109" s="273"/>
-      <c r="C109" s="279"/>
+      <c r="B109" s="276"/>
+      <c r="C109" s="273"/>
       <c r="D109" s="13" t="str">
         <f>PSR!D3</f>
         <v>Hub Board</v>
@@ -7346,8 +7350,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="19">
-      <c r="B110" s="273"/>
-      <c r="C110" s="279"/>
+      <c r="B110" s="276"/>
+      <c r="C110" s="273"/>
       <c r="D110" s="13" t="str">
         <f>PSR!D4</f>
         <v>PA_VOIP Board</v>
@@ -7378,8 +7382,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="19">
-      <c r="B111" s="273"/>
-      <c r="C111" s="279"/>
+      <c r="B111" s="276"/>
+      <c r="C111" s="273"/>
       <c r="D111" s="13" t="str">
         <f>PSR!D5</f>
         <v>PA_AMP1 Board</v>
@@ -7410,8 +7414,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="19">
-      <c r="B112" s="273"/>
-      <c r="C112" s="279"/>
+      <c r="B112" s="276"/>
+      <c r="C112" s="273"/>
       <c r="D112" s="13" t="str">
         <f>PSR!D6</f>
         <v>35V PWR Board</v>
@@ -7446,8 +7450,8 @@
       </c>
     </row>
     <row r="113" spans="2:13" ht="19">
-      <c r="B113" s="273"/>
-      <c r="C113" s="279"/>
+      <c r="B113" s="276"/>
+      <c r="C113" s="273"/>
       <c r="D113" s="13" t="str">
         <f>PSR!D7</f>
         <v>PA_AMP2 Board</v>
@@ -7478,8 +7482,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="19">
-      <c r="B114" s="273"/>
-      <c r="C114" s="279"/>
+      <c r="B114" s="276"/>
+      <c r="C114" s="273"/>
       <c r="D114" s="156" t="str">
         <f>PSR!D8</f>
         <v>Blank Panel</v>
@@ -7516,8 +7520,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="19">
-      <c r="B115" s="273"/>
-      <c r="C115" s="279"/>
+      <c r="B115" s="276"/>
+      <c r="C115" s="273"/>
       <c r="D115" s="13" t="str">
         <f>PSR!D9</f>
         <v>12V PWR Board</v>
@@ -7550,8 +7554,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="19">
-      <c r="B116" s="273"/>
-      <c r="C116" s="279"/>
+      <c r="B116" s="276"/>
+      <c r="C116" s="273"/>
       <c r="D116" s="156" t="str">
         <f>PSR!D10</f>
         <v>PSR Back Plane</v>
@@ -7590,8 +7594,8 @@
       </c>
     </row>
     <row r="117" spans="2:13" ht="19">
-      <c r="B117" s="273"/>
-      <c r="C117" s="279"/>
+      <c r="B117" s="276"/>
+      <c r="C117" s="273"/>
       <c r="D117" s="156" t="str">
         <f>PSR!D11</f>
         <v>Frame</v>
@@ -7628,8 +7632,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="19">
-      <c r="B118" s="273"/>
-      <c r="C118" s="279"/>
+      <c r="B118" s="276"/>
+      <c r="C118" s="273"/>
       <c r="D118" s="13" t="str">
         <f>PSR!D12</f>
         <v>Name Plate, AL, T1</v>
@@ -7660,8 +7664,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="273"/>
-      <c r="C119" s="279"/>
+      <c r="B119" s="276"/>
+      <c r="C119" s="273"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -7674,8 +7678,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="19">
-      <c r="B120" s="274"/>
-      <c r="C120" s="280"/>
+      <c r="B120" s="277"/>
+      <c r="C120" s="274"/>
       <c r="D120" s="148" t="s">
         <v>286</v>
       </c>
@@ -7701,10 +7705,10 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="19">
-      <c r="B121" s="272">
+      <c r="B121" s="275">
         <v>7</v>
       </c>
-      <c r="C121" s="275" t="s">
+      <c r="C121" s="278" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="151"/>
@@ -7721,8 +7725,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="19">
-      <c r="B122" s="273"/>
-      <c r="C122" s="276"/>
+      <c r="B122" s="276"/>
+      <c r="C122" s="279"/>
       <c r="D122" s="161" t="str">
         <f>ETND!D3</f>
         <v>Main Frame, SPCC</v>
@@ -7759,8 +7763,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="19">
-      <c r="B123" s="273"/>
-      <c r="C123" s="276"/>
+      <c r="B123" s="276"/>
+      <c r="C123" s="279"/>
       <c r="D123" s="161" t="str">
         <f>ETND!D4</f>
         <v>Rear Cover</v>
@@ -7791,8 +7795,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="19">
-      <c r="B124" s="273"/>
-      <c r="C124" s="276"/>
+      <c r="B124" s="276"/>
+      <c r="C124" s="279"/>
       <c r="D124" s="161" t="str">
         <f>ETND!D5</f>
         <v>LED Bracket</v>
@@ -7823,8 +7827,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="19">
-      <c r="B125" s="273"/>
-      <c r="C125" s="276"/>
+      <c r="B125" s="276"/>
+      <c r="C125" s="279"/>
       <c r="D125" s="198" t="str">
         <f>ETND!D6</f>
         <v>LED Module</v>
@@ -7859,8 +7863,8 @@
       </c>
     </row>
     <row r="126" spans="2:13" ht="19">
-      <c r="B126" s="273"/>
-      <c r="C126" s="276"/>
+      <c r="B126" s="276"/>
+      <c r="C126" s="279"/>
       <c r="D126" s="161" t="str">
         <f>ETND!D7</f>
         <v>Power Board Bracket</v>
@@ -7891,8 +7895,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="19">
-      <c r="B127" s="273"/>
-      <c r="C127" s="276"/>
+      <c r="B127" s="276"/>
+      <c r="C127" s="279"/>
       <c r="D127" s="198" t="str">
         <f>ETND!D8</f>
         <v>Power Board</v>
@@ -7927,8 +7931,8 @@
       </c>
     </row>
     <row r="128" spans="2:13" ht="19">
-      <c r="B128" s="273"/>
-      <c r="C128" s="276"/>
+      <c r="B128" s="276"/>
+      <c r="C128" s="279"/>
       <c r="D128" s="161" t="str">
         <f>ETND!D9</f>
         <v>Control Board Bracket</v>
@@ -7959,8 +7963,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="19">
-      <c r="B129" s="273"/>
-      <c r="C129" s="276"/>
+      <c r="B129" s="276"/>
+      <c r="C129" s="279"/>
       <c r="D129" s="161" t="str">
         <f>ETND!D10</f>
         <v>Control Board</v>
@@ -7997,8 +8001,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="19">
-      <c r="B130" s="273"/>
-      <c r="C130" s="276"/>
+      <c r="B130" s="276"/>
+      <c r="C130" s="279"/>
       <c r="D130" s="161" t="str">
         <f>ETND!D11</f>
         <v>3P Connector Female</v>
@@ -8035,8 +8039,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="19">
-      <c r="B131" s="273"/>
-      <c r="C131" s="276"/>
+      <c r="B131" s="276"/>
+      <c r="C131" s="279"/>
       <c r="D131" s="161" t="str">
         <f>ETND!D12</f>
         <v>Locking</v>
@@ -8073,8 +8077,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="19">
-      <c r="B132" s="273"/>
-      <c r="C132" s="276"/>
+      <c r="B132" s="276"/>
+      <c r="C132" s="279"/>
       <c r="D132" s="161" t="str">
         <f>ETND!D13</f>
         <v>4P Connector Female</v>
@@ -8111,8 +8115,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="19">
-      <c r="B133" s="273"/>
-      <c r="C133" s="276"/>
+      <c r="B133" s="276"/>
+      <c r="C133" s="279"/>
       <c r="D133" s="161" t="str">
         <f>ETND!D14</f>
         <v>Pin</v>
@@ -8149,8 +8153,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="19">
-      <c r="B134" s="273"/>
-      <c r="C134" s="276"/>
+      <c r="B134" s="276"/>
+      <c r="C134" s="279"/>
       <c r="D134" s="161" t="str">
         <f>ETND!D15</f>
         <v>Mount Bracket</v>
@@ -8181,8 +8185,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="19">
-      <c r="B135" s="273"/>
-      <c r="C135" s="276"/>
+      <c r="B135" s="276"/>
+      <c r="C135" s="279"/>
       <c r="D135" s="198" t="str">
         <f>ETND!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8213,8 +8217,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="273"/>
-      <c r="C136" s="276"/>
+      <c r="B136" s="276"/>
+      <c r="C136" s="279"/>
       <c r="D136" s="145"/>
       <c r="E136" s="145"/>
       <c r="F136" s="145"/>
@@ -8227,8 +8231,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="19">
-      <c r="B137" s="274"/>
-      <c r="C137" s="277"/>
+      <c r="B137" s="277"/>
+      <c r="C137" s="280"/>
       <c r="D137" s="148" t="s">
         <v>286</v>
       </c>
@@ -8254,10 +8258,10 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="19">
-      <c r="B138" s="272">
+      <c r="B138" s="275">
         <v>8</v>
       </c>
-      <c r="C138" s="278" t="s">
+      <c r="C138" s="272" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="174"/>
@@ -8274,8 +8278,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="19">
-      <c r="B139" s="273"/>
-      <c r="C139" s="279"/>
+      <c r="B139" s="276"/>
+      <c r="C139" s="273"/>
       <c r="D139" s="161" t="str">
         <f>EDD!D3</f>
         <v>Main Frame, SPCC</v>
@@ -8312,8 +8316,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="19">
-      <c r="B140" s="273"/>
-      <c r="C140" s="279"/>
+      <c r="B140" s="276"/>
+      <c r="C140" s="273"/>
       <c r="D140" s="161" t="str">
         <f>EDD!D4</f>
         <v>Rear Cover</v>
@@ -8344,8 +8348,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="19">
-      <c r="B141" s="273"/>
-      <c r="C141" s="279"/>
+      <c r="B141" s="276"/>
+      <c r="C141" s="273"/>
       <c r="D141" s="161" t="str">
         <f>EDD!D5</f>
         <v>LED Bracket</v>
@@ -8376,8 +8380,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="19">
-      <c r="B142" s="273"/>
-      <c r="C142" s="279"/>
+      <c r="B142" s="276"/>
+      <c r="C142" s="273"/>
       <c r="D142" s="198" t="str">
         <f>EDD!D6</f>
         <v>LED Module</v>
@@ -8412,8 +8416,8 @@
       </c>
     </row>
     <row r="143" spans="2:13" ht="19">
-      <c r="B143" s="273"/>
-      <c r="C143" s="279"/>
+      <c r="B143" s="276"/>
+      <c r="C143" s="273"/>
       <c r="D143" s="161" t="str">
         <f>EDD!D7</f>
         <v>Power Board Bracket</v>
@@ -8444,8 +8448,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="19">
-      <c r="B144" s="273"/>
-      <c r="C144" s="279"/>
+      <c r="B144" s="276"/>
+      <c r="C144" s="273"/>
       <c r="D144" s="198" t="str">
         <f>EDD!D8</f>
         <v>Power Board</v>
@@ -8480,8 +8484,8 @@
       </c>
     </row>
     <row r="145" spans="2:13" ht="19">
-      <c r="B145" s="273"/>
-      <c r="C145" s="279"/>
+      <c r="B145" s="276"/>
+      <c r="C145" s="273"/>
       <c r="D145" s="161" t="str">
         <f>EDD!D9</f>
         <v>Control Board Bracket</v>
@@ -8512,8 +8516,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="19">
-      <c r="B146" s="273"/>
-      <c r="C146" s="279"/>
+      <c r="B146" s="276"/>
+      <c r="C146" s="273"/>
       <c r="D146" s="161" t="str">
         <f>EDD!D10</f>
         <v>Control Board</v>
@@ -8550,8 +8554,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="19">
-      <c r="B147" s="273"/>
-      <c r="C147" s="279"/>
+      <c r="B147" s="276"/>
+      <c r="C147" s="273"/>
       <c r="D147" s="161" t="str">
         <f>EDD!D11</f>
         <v>3P Connector Female</v>
@@ -8588,8 +8592,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="19">
-      <c r="B148" s="273"/>
-      <c r="C148" s="279"/>
+      <c r="B148" s="276"/>
+      <c r="C148" s="273"/>
       <c r="D148" s="161" t="str">
         <f>EDD!D12</f>
         <v>Locking</v>
@@ -8626,8 +8630,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="19">
-      <c r="B149" s="273"/>
-      <c r="C149" s="279"/>
+      <c r="B149" s="276"/>
+      <c r="C149" s="273"/>
       <c r="D149" s="161" t="str">
         <f>EDD!D13</f>
         <v>4P Connector Female</v>
@@ -8664,8 +8668,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="19">
-      <c r="B150" s="273"/>
-      <c r="C150" s="279"/>
+      <c r="B150" s="276"/>
+      <c r="C150" s="273"/>
       <c r="D150" s="161" t="str">
         <f>EDD!D14</f>
         <v>Pin</v>
@@ -8702,8 +8706,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="19">
-      <c r="B151" s="273"/>
-      <c r="C151" s="279"/>
+      <c r="B151" s="276"/>
+      <c r="C151" s="273"/>
       <c r="D151" s="161" t="str">
         <f>EDD!D15</f>
         <v>Mount Bracket</v>
@@ -8734,8 +8738,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="19">
-      <c r="B152" s="273"/>
-      <c r="C152" s="279"/>
+      <c r="B152" s="276"/>
+      <c r="C152" s="273"/>
       <c r="D152" s="198" t="str">
         <f>EDD!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8766,8 +8770,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="273"/>
-      <c r="C153" s="279"/>
+      <c r="B153" s="276"/>
+      <c r="C153" s="273"/>
       <c r="D153" s="145"/>
       <c r="E153" s="145"/>
       <c r="F153" s="145"/>
@@ -8780,8 +8784,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="19">
-      <c r="B154" s="273"/>
-      <c r="C154" s="280"/>
+      <c r="B154" s="276"/>
+      <c r="C154" s="274"/>
       <c r="D154" s="148" t="s">
         <v>286</v>
       </c>
@@ -9115,11 +9119,6 @@
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
-    <mergeCell ref="C108:C120"/>
-    <mergeCell ref="B121:B137"/>
-    <mergeCell ref="C121:C137"/>
-    <mergeCell ref="C138:C154"/>
-    <mergeCell ref="B155:B162"/>
     <mergeCell ref="C3:C30"/>
     <mergeCell ref="B138:B154"/>
     <mergeCell ref="B3:B30"/>
@@ -9132,6 +9131,11 @@
     <mergeCell ref="C88:C107"/>
     <mergeCell ref="B88:B107"/>
     <mergeCell ref="B108:B120"/>
+    <mergeCell ref="C108:C120"/>
+    <mergeCell ref="B121:B137"/>
+    <mergeCell ref="C121:C137"/>
+    <mergeCell ref="C138:C154"/>
+    <mergeCell ref="B155:B162"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11065,7 +11069,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="18"/>
@@ -12507,6 +12511,11 @@
       <c r="M42" s="31">
         <f>SUM(M22:M41)</f>
         <v>19884440</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="D44" s="32" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="2:17">

--- a/241007_BOM_구매현황(전체).xlsx
+++ b/241007_BOM_구매현황(전체).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD897D-F7EC-A44F-8A0C-1AD710B55693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE268AEB-4938-BD4D-94A9-CE44DF003D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="940" windowWidth="33900" windowHeight="24360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="390">
   <si>
     <t>Remarks</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1698,6 +1698,10 @@
   </si>
   <si>
     <t>rewqrewqwq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㄹㅇㄴ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3389,6 +3393,27 @@
     <xf numFmtId="179" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3398,34 +3423,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="23" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3852,10 +3856,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="284">
+      <c r="B3" s="277">
         <v>1</v>
       </c>
-      <c r="C3" s="283" t="s">
+      <c r="C3" s="272" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="132"/>
@@ -3873,7 +3877,7 @@
     </row>
     <row r="4" spans="2:13" ht="19">
       <c r="B4" s="276"/>
-      <c r="C4" s="279"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3905,7 +3909,7 @@
     </row>
     <row r="5" spans="2:13" ht="19">
       <c r="B5" s="276"/>
-      <c r="C5" s="279"/>
+      <c r="C5" s="273"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3937,7 +3941,7 @@
     </row>
     <row r="6" spans="2:13" ht="19">
       <c r="B6" s="276"/>
-      <c r="C6" s="279"/>
+      <c r="C6" s="273"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3969,7 +3973,7 @@
     </row>
     <row r="7" spans="2:13" ht="19">
       <c r="B7" s="276"/>
-      <c r="C7" s="279"/>
+      <c r="C7" s="273"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -4001,7 +4005,7 @@
     </row>
     <row r="8" spans="2:13" ht="19">
       <c r="B8" s="276"/>
-      <c r="C8" s="279"/>
+      <c r="C8" s="273"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -4033,7 +4037,7 @@
     </row>
     <row r="9" spans="2:13" ht="19">
       <c r="B9" s="276"/>
-      <c r="C9" s="279"/>
+      <c r="C9" s="273"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -4065,7 +4069,7 @@
     </row>
     <row r="10" spans="2:13" ht="19">
       <c r="B10" s="276"/>
-      <c r="C10" s="279"/>
+      <c r="C10" s="273"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -4097,7 +4101,7 @@
     </row>
     <row r="11" spans="2:13" ht="19">
       <c r="B11" s="276"/>
-      <c r="C11" s="279"/>
+      <c r="C11" s="273"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -4129,7 +4133,7 @@
     </row>
     <row r="12" spans="2:13" ht="19">
       <c r="B12" s="276"/>
-      <c r="C12" s="279"/>
+      <c r="C12" s="273"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -4161,7 +4165,7 @@
     </row>
     <row r="13" spans="2:13" ht="19">
       <c r="B13" s="276"/>
-      <c r="C13" s="279"/>
+      <c r="C13" s="273"/>
       <c r="D13" s="150" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -4199,7 +4203,7 @@
     </row>
     <row r="14" spans="2:13" ht="38">
       <c r="B14" s="276"/>
-      <c r="C14" s="279"/>
+      <c r="C14" s="273"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -4234,7 +4238,7 @@
     </row>
     <row r="15" spans="2:13" ht="19">
       <c r="B15" s="276"/>
-      <c r="C15" s="279"/>
+      <c r="C15" s="273"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -4266,7 +4270,7 @@
     </row>
     <row r="16" spans="2:13" ht="19">
       <c r="B16" s="276"/>
-      <c r="C16" s="279"/>
+      <c r="C16" s="273"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -4298,7 +4302,7 @@
     </row>
     <row r="17" spans="2:13" ht="19">
       <c r="B17" s="276"/>
-      <c r="C17" s="279"/>
+      <c r="C17" s="273"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -4330,7 +4334,7 @@
     </row>
     <row r="18" spans="2:13" ht="19">
       <c r="B18" s="276"/>
-      <c r="C18" s="279"/>
+      <c r="C18" s="273"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -4362,7 +4366,7 @@
     </row>
     <row r="19" spans="2:13" ht="19">
       <c r="B19" s="276"/>
-      <c r="C19" s="279"/>
+      <c r="C19" s="273"/>
       <c r="D19" s="150" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -4400,7 +4404,7 @@
     </row>
     <row r="20" spans="2:13" ht="19">
       <c r="B20" s="276"/>
-      <c r="C20" s="279"/>
+      <c r="C20" s="273"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -4434,7 +4438,7 @@
     </row>
     <row r="21" spans="2:13" ht="19">
       <c r="B21" s="276"/>
-      <c r="C21" s="279"/>
+      <c r="C21" s="273"/>
       <c r="D21" s="150" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -4472,7 +4476,7 @@
     </row>
     <row r="22" spans="2:13" ht="19">
       <c r="B22" s="276"/>
-      <c r="C22" s="279"/>
+      <c r="C22" s="273"/>
       <c r="D22" s="150" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -4510,7 +4514,7 @@
     </row>
     <row r="23" spans="2:13" ht="19">
       <c r="B23" s="276"/>
-      <c r="C23" s="279"/>
+      <c r="C23" s="273"/>
       <c r="D23" s="150" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -4548,7 +4552,7 @@
     </row>
     <row r="24" spans="2:13" ht="19">
       <c r="B24" s="276"/>
-      <c r="C24" s="279"/>
+      <c r="C24" s="273"/>
       <c r="D24" s="150" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -4586,7 +4590,7 @@
     </row>
     <row r="25" spans="2:13" ht="19">
       <c r="B25" s="276"/>
-      <c r="C25" s="279"/>
+      <c r="C25" s="273"/>
       <c r="D25" s="150" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -4624,7 +4628,7 @@
     </row>
     <row r="26" spans="2:13" ht="19">
       <c r="B26" s="276"/>
-      <c r="C26" s="279"/>
+      <c r="C26" s="273"/>
       <c r="D26" s="150" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -4662,7 +4666,7 @@
     </row>
     <row r="27" spans="2:13" ht="19">
       <c r="B27" s="276"/>
-      <c r="C27" s="279"/>
+      <c r="C27" s="273"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -4694,7 +4698,7 @@
     </row>
     <row r="28" spans="2:13" ht="19">
       <c r="B28" s="276"/>
-      <c r="C28" s="279"/>
+      <c r="C28" s="273"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -4728,7 +4732,7 @@
     </row>
     <row r="29" spans="2:13" ht="18">
       <c r="B29" s="276"/>
-      <c r="C29" s="279"/>
+      <c r="C29" s="273"/>
       <c r="D29" s="199"/>
       <c r="E29" s="199"/>
       <c r="F29" s="199"/>
@@ -4741,8 +4745,8 @@
       <c r="M29" s="202"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="277"/>
-      <c r="C30" s="280"/>
+      <c r="B30" s="278"/>
+      <c r="C30" s="274"/>
       <c r="D30" s="148" t="s">
         <v>286</v>
       </c>
@@ -4771,7 +4775,7 @@
       <c r="B31" s="275">
         <v>2</v>
       </c>
-      <c r="C31" s="272" t="s">
+      <c r="C31" s="279" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="151"/>
@@ -4789,7 +4793,7 @@
     </row>
     <row r="32" spans="2:13" ht="19">
       <c r="B32" s="276"/>
-      <c r="C32" s="273"/>
+      <c r="C32" s="280"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -4821,7 +4825,7 @@
     </row>
     <row r="33" spans="2:13" ht="19">
       <c r="B33" s="276"/>
-      <c r="C33" s="273"/>
+      <c r="C33" s="280"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -4853,7 +4857,7 @@
     </row>
     <row r="34" spans="2:13" ht="19">
       <c r="B34" s="276"/>
-      <c r="C34" s="273"/>
+      <c r="C34" s="280"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4885,7 +4889,7 @@
     </row>
     <row r="35" spans="2:13" ht="19">
       <c r="B35" s="276"/>
-      <c r="C35" s="273"/>
+      <c r="C35" s="280"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4917,7 +4921,7 @@
     </row>
     <row r="36" spans="2:13" ht="19">
       <c r="B36" s="276"/>
-      <c r="C36" s="273"/>
+      <c r="C36" s="280"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4949,7 +4953,7 @@
     </row>
     <row r="37" spans="2:13" ht="19">
       <c r="B37" s="276"/>
-      <c r="C37" s="273"/>
+      <c r="C37" s="280"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4981,7 +4985,7 @@
     </row>
     <row r="38" spans="2:13" ht="19">
       <c r="B38" s="276"/>
-      <c r="C38" s="273"/>
+      <c r="C38" s="280"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -5014,7 +5018,7 @@
     </row>
     <row r="39" spans="2:13" ht="38">
       <c r="B39" s="276"/>
-      <c r="C39" s="273"/>
+      <c r="C39" s="280"/>
       <c r="D39" s="191" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -5047,7 +5051,7 @@
     </row>
     <row r="40" spans="2:13" ht="38">
       <c r="B40" s="276"/>
-      <c r="C40" s="273"/>
+      <c r="C40" s="280"/>
       <c r="D40" s="191" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -5080,7 +5084,7 @@
     </row>
     <row r="41" spans="2:13" ht="57">
       <c r="B41" s="276"/>
-      <c r="C41" s="273"/>
+      <c r="C41" s="280"/>
       <c r="D41" s="192" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -5115,7 +5119,7 @@
     </row>
     <row r="42" spans="2:13" ht="19">
       <c r="B42" s="276"/>
-      <c r="C42" s="273"/>
+      <c r="C42" s="280"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -5147,7 +5151,7 @@
     </row>
     <row r="43" spans="2:13" ht="19">
       <c r="B43" s="276"/>
-      <c r="C43" s="273"/>
+      <c r="C43" s="280"/>
       <c r="D43" s="156" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -5185,7 +5189,7 @@
     </row>
     <row r="44" spans="2:13" ht="19">
       <c r="B44" s="276"/>
-      <c r="C44" s="273"/>
+      <c r="C44" s="280"/>
       <c r="D44" s="156" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -5223,7 +5227,7 @@
     </row>
     <row r="45" spans="2:13" ht="19">
       <c r="B45" s="276"/>
-      <c r="C45" s="273"/>
+      <c r="C45" s="280"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -5255,7 +5259,7 @@
     </row>
     <row r="46" spans="2:13" ht="19">
       <c r="B46" s="276"/>
-      <c r="C46" s="273"/>
+      <c r="C46" s="280"/>
       <c r="D46" s="190" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -5289,7 +5293,7 @@
     </row>
     <row r="47" spans="2:13" ht="18">
       <c r="B47" s="276"/>
-      <c r="C47" s="273"/>
+      <c r="C47" s="280"/>
       <c r="D47" s="199"/>
       <c r="E47" s="199"/>
       <c r="F47" s="199"/>
@@ -5302,8 +5306,8 @@
       <c r="M47" s="202"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="277"/>
-      <c r="C48" s="274"/>
+      <c r="B48" s="278"/>
+      <c r="C48" s="281"/>
       <c r="D48" s="148" t="s">
         <v>286</v>
       </c>
@@ -5332,7 +5336,7 @@
       <c r="B49" s="275">
         <v>3</v>
       </c>
-      <c r="C49" s="272" t="s">
+      <c r="C49" s="279" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="151"/>
@@ -5350,7 +5354,7 @@
     </row>
     <row r="50" spans="2:13" ht="19">
       <c r="B50" s="276"/>
-      <c r="C50" s="273"/>
+      <c r="C50" s="280"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -5382,7 +5386,7 @@
     </row>
     <row r="51" spans="2:13" ht="19">
       <c r="B51" s="276"/>
-      <c r="C51" s="273"/>
+      <c r="C51" s="280"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -5414,7 +5418,7 @@
     </row>
     <row r="52" spans="2:13" ht="19">
       <c r="B52" s="276"/>
-      <c r="C52" s="273"/>
+      <c r="C52" s="280"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -5446,7 +5450,7 @@
     </row>
     <row r="53" spans="2:13" ht="19">
       <c r="B53" s="276"/>
-      <c r="C53" s="273"/>
+      <c r="C53" s="280"/>
       <c r="D53" s="156" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -5486,7 +5490,7 @@
     </row>
     <row r="54" spans="2:13" ht="19">
       <c r="B54" s="276"/>
-      <c r="C54" s="273"/>
+      <c r="C54" s="280"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -5517,7 +5521,7 @@
     </row>
     <row r="55" spans="2:13" ht="19">
       <c r="B55" s="276"/>
-      <c r="C55" s="273"/>
+      <c r="C55" s="280"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -5548,7 +5552,7 @@
     </row>
     <row r="56" spans="2:13" ht="19">
       <c r="B56" s="276"/>
-      <c r="C56" s="273"/>
+      <c r="C56" s="280"/>
       <c r="D56" s="191" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -5588,7 +5592,7 @@
     </row>
     <row r="57" spans="2:13" ht="19">
       <c r="B57" s="276"/>
-      <c r="C57" s="273"/>
+      <c r="C57" s="280"/>
       <c r="D57" s="191" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -5628,7 +5632,7 @@
     </row>
     <row r="58" spans="2:13" ht="57">
       <c r="B58" s="276"/>
-      <c r="C58" s="273"/>
+      <c r="C58" s="280"/>
       <c r="D58" s="192" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -5663,7 +5667,7 @@
     </row>
     <row r="59" spans="2:13" ht="19">
       <c r="B59" s="276"/>
-      <c r="C59" s="273"/>
+      <c r="C59" s="280"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -5695,7 +5699,7 @@
     </row>
     <row r="60" spans="2:13" ht="19">
       <c r="B60" s="276"/>
-      <c r="C60" s="273"/>
+      <c r="C60" s="280"/>
       <c r="D60" s="156" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -5733,7 +5737,7 @@
     </row>
     <row r="61" spans="2:13" ht="19">
       <c r="B61" s="276"/>
-      <c r="C61" s="273"/>
+      <c r="C61" s="280"/>
       <c r="D61" s="156" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -5771,7 +5775,7 @@
     </row>
     <row r="62" spans="2:13" ht="19">
       <c r="B62" s="276"/>
-      <c r="C62" s="273"/>
+      <c r="C62" s="280"/>
       <c r="D62" s="156" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -5809,7 +5813,7 @@
     </row>
     <row r="63" spans="2:13" ht="19">
       <c r="B63" s="276"/>
-      <c r="C63" s="273"/>
+      <c r="C63" s="280"/>
       <c r="D63" s="156" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -5847,7 +5851,7 @@
     </row>
     <row r="64" spans="2:13" ht="19">
       <c r="B64" s="276"/>
-      <c r="C64" s="273"/>
+      <c r="C64" s="280"/>
       <c r="D64" s="156" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5885,7 +5889,7 @@
     </row>
     <row r="65" spans="2:13" ht="19">
       <c r="B65" s="276"/>
-      <c r="C65" s="273"/>
+      <c r="C65" s="280"/>
       <c r="D65" s="190" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5919,7 +5923,7 @@
     </row>
     <row r="66" spans="2:13" ht="19">
       <c r="B66" s="276"/>
-      <c r="C66" s="273"/>
+      <c r="C66" s="280"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5951,7 +5955,7 @@
     </row>
     <row r="67" spans="2:13" ht="18">
       <c r="B67" s="276"/>
-      <c r="C67" s="273"/>
+      <c r="C67" s="280"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5964,8 +5968,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="277"/>
-      <c r="C68" s="274"/>
+      <c r="B68" s="278"/>
+      <c r="C68" s="281"/>
       <c r="D68" s="148" t="s">
         <v>286</v>
       </c>
@@ -5994,7 +5998,7 @@
       <c r="B69" s="275">
         <v>4</v>
       </c>
-      <c r="C69" s="272" t="s">
+      <c r="C69" s="279" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="151"/>
@@ -6012,7 +6016,7 @@
     </row>
     <row r="70" spans="2:13" ht="19">
       <c r="B70" s="276"/>
-      <c r="C70" s="273"/>
+      <c r="C70" s="280"/>
       <c r="D70" s="161" t="str">
         <f>PAB!D3</f>
         <v>Main Frame, STS304, T1.5</v>
@@ -6050,7 +6054,7 @@
     </row>
     <row r="71" spans="2:13" ht="19">
       <c r="B71" s="276"/>
-      <c r="C71" s="273"/>
+      <c r="C71" s="280"/>
       <c r="D71" s="161" t="str">
         <f>PAB!D4</f>
         <v>Left Cover, STS304, T1.5</v>
@@ -6082,7 +6086,7 @@
     </row>
     <row r="72" spans="2:13" ht="19">
       <c r="B72" s="276"/>
-      <c r="C72" s="273"/>
+      <c r="C72" s="280"/>
       <c r="D72" s="161" t="str">
         <f>PAB!D5</f>
         <v>Right Cover, STS304, T1.5</v>
@@ -6114,7 +6118,7 @@
     </row>
     <row r="73" spans="2:13" ht="19">
       <c r="B73" s="276"/>
-      <c r="C73" s="273"/>
+      <c r="C73" s="280"/>
       <c r="D73" s="161" t="str">
         <f>PAB!D6</f>
         <v>Rear Cover, STS304, T1.5</v>
@@ -6146,7 +6150,7 @@
     </row>
     <row r="74" spans="2:13" ht="19">
       <c r="B74" s="276"/>
-      <c r="C74" s="273"/>
+      <c r="C74" s="280"/>
       <c r="D74" s="198" t="str">
         <f>PAB!D7</f>
         <v>Power Board</v>
@@ -6182,7 +6186,7 @@
     </row>
     <row r="75" spans="2:13" ht="19">
       <c r="B75" s="276"/>
-      <c r="C75" s="273"/>
+      <c r="C75" s="280"/>
       <c r="D75" s="198" t="str">
         <f>PAB!D8</f>
         <v>Control Board</v>
@@ -6214,7 +6218,7 @@
     </row>
     <row r="76" spans="2:13" ht="19">
       <c r="B76" s="276"/>
-      <c r="C76" s="273"/>
+      <c r="C76" s="280"/>
       <c r="D76" s="161" t="str">
         <f>PAB!D9</f>
         <v>3P Connector, N&amp;G coding</v>
@@ -6252,7 +6256,7 @@
     </row>
     <row r="77" spans="2:13" ht="19">
       <c r="B77" s="276"/>
-      <c r="C77" s="273"/>
+      <c r="C77" s="280"/>
       <c r="D77" s="161" t="str">
         <f>PAB!D10</f>
         <v>4P Connector</v>
@@ -6290,7 +6294,7 @@
     </row>
     <row r="78" spans="2:13" ht="19">
       <c r="B78" s="276"/>
-      <c r="C78" s="273"/>
+      <c r="C78" s="280"/>
       <c r="D78" s="161" t="str">
         <f>PAB!D11</f>
         <v>Locking</v>
@@ -6328,7 +6332,7 @@
     </row>
     <row r="79" spans="2:13" ht="19">
       <c r="B79" s="276"/>
-      <c r="C79" s="273"/>
+      <c r="C79" s="280"/>
       <c r="D79" s="161" t="str">
         <f>PAB!D12</f>
         <v>4P Connector</v>
@@ -6366,7 +6370,7 @@
     </row>
     <row r="80" spans="2:13" ht="19">
       <c r="B80" s="276"/>
-      <c r="C80" s="273"/>
+      <c r="C80" s="280"/>
       <c r="D80" s="161" t="str">
         <f>PAB!D13</f>
         <v>Pin</v>
@@ -6404,7 +6408,7 @@
     </row>
     <row r="81" spans="2:13" ht="19">
       <c r="B81" s="276"/>
-      <c r="C81" s="273"/>
+      <c r="C81" s="280"/>
       <c r="D81" s="161" t="str">
         <f>PAB!D14</f>
         <v>8P Connector</v>
@@ -6442,7 +6446,7 @@
     </row>
     <row r="82" spans="2:13" ht="19">
       <c r="B82" s="276"/>
-      <c r="C82" s="273"/>
+      <c r="C82" s="280"/>
       <c r="D82" s="161" t="str">
         <f>PAB!D15</f>
         <v>Pin</v>
@@ -6480,7 +6484,7 @@
     </row>
     <row r="83" spans="2:13" ht="19">
       <c r="B83" s="276"/>
-      <c r="C83" s="273"/>
+      <c r="C83" s="280"/>
       <c r="D83" s="161" t="str">
         <f>PAB!D16</f>
         <v>Cable Gland</v>
@@ -6518,7 +6522,7 @@
     </row>
     <row r="84" spans="2:13" ht="38">
       <c r="B84" s="276"/>
-      <c r="C84" s="273"/>
+      <c r="C84" s="280"/>
       <c r="D84" s="198" t="str">
         <f>PAB!D17</f>
         <v>Relay</v>
@@ -6555,7 +6559,7 @@
     </row>
     <row r="85" spans="2:13" ht="19">
       <c r="B85" s="276"/>
-      <c r="C85" s="273"/>
+      <c r="C85" s="280"/>
       <c r="D85" s="198" t="str">
         <f>PAB!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -6587,7 +6591,7 @@
     </row>
     <row r="86" spans="2:13" ht="18">
       <c r="B86" s="276"/>
-      <c r="C86" s="273"/>
+      <c r="C86" s="280"/>
       <c r="D86" s="145"/>
       <c r="E86" s="145"/>
       <c r="F86" s="145"/>
@@ -6600,8 +6604,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="19">
-      <c r="B87" s="277"/>
-      <c r="C87" s="274"/>
+      <c r="B87" s="278"/>
+      <c r="C87" s="281"/>
       <c r="D87" s="148" t="s">
         <v>286</v>
       </c>
@@ -6630,7 +6634,7 @@
       <c r="B88" s="275">
         <v>5</v>
       </c>
-      <c r="C88" s="272" t="s">
+      <c r="C88" s="279" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="151"/>
@@ -6650,7 +6654,7 @@
     </row>
     <row r="89" spans="2:13" ht="19">
       <c r="B89" s="276"/>
-      <c r="C89" s="273"/>
+      <c r="C89" s="280"/>
       <c r="D89" s="161" t="str">
         <f>EID!D3</f>
         <v>Main Frame, STS304, T1.2</v>
@@ -6688,7 +6692,7 @@
     </row>
     <row r="90" spans="2:13" ht="19">
       <c r="B90" s="276"/>
-      <c r="C90" s="273"/>
+      <c r="C90" s="280"/>
       <c r="D90" s="161" t="str">
         <f>EID!D4</f>
         <v>Mount Bracket</v>
@@ -6720,7 +6724,7 @@
     </row>
     <row r="91" spans="2:13" ht="19">
       <c r="B91" s="276"/>
-      <c r="C91" s="273"/>
+      <c r="C91" s="280"/>
       <c r="D91" s="161" t="str">
         <f>EID!D5</f>
         <v>LCD Bracket</v>
@@ -6752,7 +6756,7 @@
     </row>
     <row r="92" spans="2:13" ht="19">
       <c r="B92" s="276"/>
-      <c r="C92" s="273"/>
+      <c r="C92" s="280"/>
       <c r="D92" s="161" t="str">
         <f>EID!D6</f>
         <v>LCD Panel, 27”</v>
@@ -6792,7 +6796,7 @@
     </row>
     <row r="93" spans="2:13" ht="19">
       <c r="B93" s="276"/>
-      <c r="C93" s="273"/>
+      <c r="C93" s="280"/>
       <c r="D93" s="161" t="str">
         <f>EID!D7</f>
         <v>Connector Cover</v>
@@ -6824,7 +6828,7 @@
     </row>
     <row r="94" spans="2:13" ht="19">
       <c r="B94" s="276"/>
-      <c r="C94" s="273"/>
+      <c r="C94" s="280"/>
       <c r="D94" s="161" t="str">
         <f>EID!D8</f>
         <v>Rear Cover</v>
@@ -6856,7 +6860,7 @@
     </row>
     <row r="95" spans="2:13" ht="19">
       <c r="B95" s="276"/>
-      <c r="C95" s="273"/>
+      <c r="C95" s="280"/>
       <c r="D95" s="198" t="str">
         <f>EID!D9</f>
         <v>Control Board</v>
@@ -6888,7 +6892,7 @@
     </row>
     <row r="96" spans="2:13" ht="19">
       <c r="B96" s="276"/>
-      <c r="C96" s="273"/>
+      <c r="C96" s="280"/>
       <c r="D96" s="198" t="str">
         <f>EID!D10</f>
         <v>Power Board</v>
@@ -6924,7 +6928,7 @@
     </row>
     <row r="97" spans="2:13" ht="19">
       <c r="B97" s="276"/>
-      <c r="C97" s="273"/>
+      <c r="C97" s="280"/>
       <c r="D97" s="161" t="str">
         <f>EID!D11</f>
         <v>3P Connector Female</v>
@@ -6962,7 +6966,7 @@
     </row>
     <row r="98" spans="2:13" ht="19">
       <c r="B98" s="276"/>
-      <c r="C98" s="273"/>
+      <c r="C98" s="280"/>
       <c r="D98" s="161" t="str">
         <f>EID!D12</f>
         <v>Locking</v>
@@ -7000,7 +7004,7 @@
     </row>
     <row r="99" spans="2:13" ht="19">
       <c r="B99" s="276"/>
-      <c r="C99" s="273"/>
+      <c r="C99" s="280"/>
       <c r="D99" s="161" t="str">
         <f>EID!D13</f>
         <v>4P Connector Female</v>
@@ -7038,7 +7042,7 @@
     </row>
     <row r="100" spans="2:13" ht="19">
       <c r="B100" s="276"/>
-      <c r="C100" s="273"/>
+      <c r="C100" s="280"/>
       <c r="D100" s="161" t="str">
         <f>EID!D14</f>
         <v>Pin</v>
@@ -7076,7 +7080,7 @@
     </row>
     <row r="101" spans="2:13" ht="19">
       <c r="B101" s="276"/>
-      <c r="C101" s="273"/>
+      <c r="C101" s="280"/>
       <c r="D101" s="161" t="str">
         <f>EID!D15</f>
         <v>Cable Gland</v>
@@ -7114,7 +7118,7 @@
     </row>
     <row r="102" spans="2:13" ht="19">
       <c r="B102" s="276"/>
-      <c r="C102" s="273"/>
+      <c r="C102" s="280"/>
       <c r="D102" s="161" t="str">
         <f>EID!D16</f>
         <v>Illumination Sensor</v>
@@ -7152,7 +7156,7 @@
     </row>
     <row r="103" spans="2:13" ht="19">
       <c r="B103" s="276"/>
-      <c r="C103" s="273"/>
+      <c r="C103" s="280"/>
       <c r="D103" s="161" t="str">
         <f>EID!D17</f>
         <v>Inverter Board</v>
@@ -7190,7 +7194,7 @@
     </row>
     <row r="104" spans="2:13" ht="19">
       <c r="B104" s="276"/>
-      <c r="C104" s="273"/>
+      <c r="C104" s="280"/>
       <c r="D104" s="198" t="str">
         <f>EID!D18</f>
         <v>Name Plate, AL, T1</v>
@@ -7222,7 +7226,7 @@
     </row>
     <row r="105" spans="2:13" ht="19">
       <c r="B105" s="276"/>
-      <c r="C105" s="273"/>
+      <c r="C105" s="280"/>
       <c r="D105" s="161" t="str">
         <f>EID!D19</f>
         <v>강화유리</v>
@@ -7258,7 +7262,7 @@
     </row>
     <row r="106" spans="2:13" ht="18">
       <c r="B106" s="276"/>
-      <c r="C106" s="273"/>
+      <c r="C106" s="280"/>
       <c r="D106" s="145"/>
       <c r="E106" s="145"/>
       <c r="F106" s="145"/>
@@ -7271,8 +7275,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="19">
-      <c r="B107" s="277"/>
-      <c r="C107" s="274"/>
+      <c r="B107" s="278"/>
+      <c r="C107" s="281"/>
       <c r="D107" s="148" t="s">
         <v>286</v>
       </c>
@@ -7301,7 +7305,7 @@
       <c r="B108" s="275">
         <v>6</v>
       </c>
-      <c r="C108" s="272" t="s">
+      <c r="C108" s="279" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="151"/>
@@ -7319,7 +7323,7 @@
     </row>
     <row r="109" spans="2:13" ht="19">
       <c r="B109" s="276"/>
-      <c r="C109" s="273"/>
+      <c r="C109" s="280"/>
       <c r="D109" s="13" t="str">
         <f>PSR!D3</f>
         <v>Hub Board</v>
@@ -7351,7 +7355,7 @@
     </row>
     <row r="110" spans="2:13" ht="19">
       <c r="B110" s="276"/>
-      <c r="C110" s="273"/>
+      <c r="C110" s="280"/>
       <c r="D110" s="13" t="str">
         <f>PSR!D4</f>
         <v>PA_VOIP Board</v>
@@ -7383,7 +7387,7 @@
     </row>
     <row r="111" spans="2:13" ht="19">
       <c r="B111" s="276"/>
-      <c r="C111" s="273"/>
+      <c r="C111" s="280"/>
       <c r="D111" s="13" t="str">
         <f>PSR!D5</f>
         <v>PA_AMP1 Board</v>
@@ -7415,7 +7419,7 @@
     </row>
     <row r="112" spans="2:13" ht="19">
       <c r="B112" s="276"/>
-      <c r="C112" s="273"/>
+      <c r="C112" s="280"/>
       <c r="D112" s="13" t="str">
         <f>PSR!D6</f>
         <v>35V PWR Board</v>
@@ -7451,7 +7455,7 @@
     </row>
     <row r="113" spans="2:13" ht="19">
       <c r="B113" s="276"/>
-      <c r="C113" s="273"/>
+      <c r="C113" s="280"/>
       <c r="D113" s="13" t="str">
         <f>PSR!D7</f>
         <v>PA_AMP2 Board</v>
@@ -7483,7 +7487,7 @@
     </row>
     <row r="114" spans="2:13" ht="19">
       <c r="B114" s="276"/>
-      <c r="C114" s="273"/>
+      <c r="C114" s="280"/>
       <c r="D114" s="156" t="str">
         <f>PSR!D8</f>
         <v>Blank Panel</v>
@@ -7521,7 +7525,7 @@
     </row>
     <row r="115" spans="2:13" ht="19">
       <c r="B115" s="276"/>
-      <c r="C115" s="273"/>
+      <c r="C115" s="280"/>
       <c r="D115" s="13" t="str">
         <f>PSR!D9</f>
         <v>12V PWR Board</v>
@@ -7555,7 +7559,7 @@
     </row>
     <row r="116" spans="2:13" ht="19">
       <c r="B116" s="276"/>
-      <c r="C116" s="273"/>
+      <c r="C116" s="280"/>
       <c r="D116" s="156" t="str">
         <f>PSR!D10</f>
         <v>PSR Back Plane</v>
@@ -7595,7 +7599,7 @@
     </row>
     <row r="117" spans="2:13" ht="19">
       <c r="B117" s="276"/>
-      <c r="C117" s="273"/>
+      <c r="C117" s="280"/>
       <c r="D117" s="156" t="str">
         <f>PSR!D11</f>
         <v>Frame</v>
@@ -7633,7 +7637,7 @@
     </row>
     <row r="118" spans="2:13" ht="19">
       <c r="B118" s="276"/>
-      <c r="C118" s="273"/>
+      <c r="C118" s="280"/>
       <c r="D118" s="13" t="str">
         <f>PSR!D12</f>
         <v>Name Plate, AL, T1</v>
@@ -7665,7 +7669,7 @@
     </row>
     <row r="119" spans="2:13" ht="18">
       <c r="B119" s="276"/>
-      <c r="C119" s="273"/>
+      <c r="C119" s="280"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -7678,8 +7682,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="19">
-      <c r="B120" s="277"/>
-      <c r="C120" s="274"/>
+      <c r="B120" s="278"/>
+      <c r="C120" s="281"/>
       <c r="D120" s="148" t="s">
         <v>286</v>
       </c>
@@ -7708,7 +7712,7 @@
       <c r="B121" s="275">
         <v>7</v>
       </c>
-      <c r="C121" s="278" t="s">
+      <c r="C121" s="282" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="151"/>
@@ -7726,7 +7730,7 @@
     </row>
     <row r="122" spans="2:13" ht="19">
       <c r="B122" s="276"/>
-      <c r="C122" s="279"/>
+      <c r="C122" s="273"/>
       <c r="D122" s="161" t="str">
         <f>ETND!D3</f>
         <v>Main Frame, SPCC</v>
@@ -7764,7 +7768,7 @@
     </row>
     <row r="123" spans="2:13" ht="19">
       <c r="B123" s="276"/>
-      <c r="C123" s="279"/>
+      <c r="C123" s="273"/>
       <c r="D123" s="161" t="str">
         <f>ETND!D4</f>
         <v>Rear Cover</v>
@@ -7796,7 +7800,7 @@
     </row>
     <row r="124" spans="2:13" ht="19">
       <c r="B124" s="276"/>
-      <c r="C124" s="279"/>
+      <c r="C124" s="273"/>
       <c r="D124" s="161" t="str">
         <f>ETND!D5</f>
         <v>LED Bracket</v>
@@ -7828,7 +7832,7 @@
     </row>
     <row r="125" spans="2:13" ht="19">
       <c r="B125" s="276"/>
-      <c r="C125" s="279"/>
+      <c r="C125" s="273"/>
       <c r="D125" s="198" t="str">
         <f>ETND!D6</f>
         <v>LED Module</v>
@@ -7864,7 +7868,7 @@
     </row>
     <row r="126" spans="2:13" ht="19">
       <c r="B126" s="276"/>
-      <c r="C126" s="279"/>
+      <c r="C126" s="273"/>
       <c r="D126" s="161" t="str">
         <f>ETND!D7</f>
         <v>Power Board Bracket</v>
@@ -7896,7 +7900,7 @@
     </row>
     <row r="127" spans="2:13" ht="19">
       <c r="B127" s="276"/>
-      <c r="C127" s="279"/>
+      <c r="C127" s="273"/>
       <c r="D127" s="198" t="str">
         <f>ETND!D8</f>
         <v>Power Board</v>
@@ -7932,7 +7936,7 @@
     </row>
     <row r="128" spans="2:13" ht="19">
       <c r="B128" s="276"/>
-      <c r="C128" s="279"/>
+      <c r="C128" s="273"/>
       <c r="D128" s="161" t="str">
         <f>ETND!D9</f>
         <v>Control Board Bracket</v>
@@ -7964,7 +7968,7 @@
     </row>
     <row r="129" spans="2:13" ht="19">
       <c r="B129" s="276"/>
-      <c r="C129" s="279"/>
+      <c r="C129" s="273"/>
       <c r="D129" s="161" t="str">
         <f>ETND!D10</f>
         <v>Control Board</v>
@@ -8002,7 +8006,7 @@
     </row>
     <row r="130" spans="2:13" ht="19">
       <c r="B130" s="276"/>
-      <c r="C130" s="279"/>
+      <c r="C130" s="273"/>
       <c r="D130" s="161" t="str">
         <f>ETND!D11</f>
         <v>3P Connector Female</v>
@@ -8040,7 +8044,7 @@
     </row>
     <row r="131" spans="2:13" ht="19">
       <c r="B131" s="276"/>
-      <c r="C131" s="279"/>
+      <c r="C131" s="273"/>
       <c r="D131" s="161" t="str">
         <f>ETND!D12</f>
         <v>Locking</v>
@@ -8078,7 +8082,7 @@
     </row>
     <row r="132" spans="2:13" ht="19">
       <c r="B132" s="276"/>
-      <c r="C132" s="279"/>
+      <c r="C132" s="273"/>
       <c r="D132" s="161" t="str">
         <f>ETND!D13</f>
         <v>4P Connector Female</v>
@@ -8116,7 +8120,7 @@
     </row>
     <row r="133" spans="2:13" ht="19">
       <c r="B133" s="276"/>
-      <c r="C133" s="279"/>
+      <c r="C133" s="273"/>
       <c r="D133" s="161" t="str">
         <f>ETND!D14</f>
         <v>Pin</v>
@@ -8154,7 +8158,7 @@
     </row>
     <row r="134" spans="2:13" ht="19">
       <c r="B134" s="276"/>
-      <c r="C134" s="279"/>
+      <c r="C134" s="273"/>
       <c r="D134" s="161" t="str">
         <f>ETND!D15</f>
         <v>Mount Bracket</v>
@@ -8186,7 +8190,7 @@
     </row>
     <row r="135" spans="2:13" ht="19">
       <c r="B135" s="276"/>
-      <c r="C135" s="279"/>
+      <c r="C135" s="273"/>
       <c r="D135" s="198" t="str">
         <f>ETND!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8218,7 +8222,7 @@
     </row>
     <row r="136" spans="2:13" ht="18">
       <c r="B136" s="276"/>
-      <c r="C136" s="279"/>
+      <c r="C136" s="273"/>
       <c r="D136" s="145"/>
       <c r="E136" s="145"/>
       <c r="F136" s="145"/>
@@ -8231,8 +8235,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="19">
-      <c r="B137" s="277"/>
-      <c r="C137" s="280"/>
+      <c r="B137" s="278"/>
+      <c r="C137" s="274"/>
       <c r="D137" s="148" t="s">
         <v>286</v>
       </c>
@@ -8261,7 +8265,7 @@
       <c r="B138" s="275">
         <v>8</v>
       </c>
-      <c r="C138" s="272" t="s">
+      <c r="C138" s="279" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="174"/>
@@ -8279,7 +8283,7 @@
     </row>
     <row r="139" spans="2:13" ht="19">
       <c r="B139" s="276"/>
-      <c r="C139" s="273"/>
+      <c r="C139" s="280"/>
       <c r="D139" s="161" t="str">
         <f>EDD!D3</f>
         <v>Main Frame, SPCC</v>
@@ -8317,7 +8321,7 @@
     </row>
     <row r="140" spans="2:13" ht="19">
       <c r="B140" s="276"/>
-      <c r="C140" s="273"/>
+      <c r="C140" s="280"/>
       <c r="D140" s="161" t="str">
         <f>EDD!D4</f>
         <v>Rear Cover</v>
@@ -8349,7 +8353,7 @@
     </row>
     <row r="141" spans="2:13" ht="19">
       <c r="B141" s="276"/>
-      <c r="C141" s="273"/>
+      <c r="C141" s="280"/>
       <c r="D141" s="161" t="str">
         <f>EDD!D5</f>
         <v>LED Bracket</v>
@@ -8381,7 +8385,7 @@
     </row>
     <row r="142" spans="2:13" ht="19">
       <c r="B142" s="276"/>
-      <c r="C142" s="273"/>
+      <c r="C142" s="280"/>
       <c r="D142" s="198" t="str">
         <f>EDD!D6</f>
         <v>LED Module</v>
@@ -8417,7 +8421,7 @@
     </row>
     <row r="143" spans="2:13" ht="19">
       <c r="B143" s="276"/>
-      <c r="C143" s="273"/>
+      <c r="C143" s="280"/>
       <c r="D143" s="161" t="str">
         <f>EDD!D7</f>
         <v>Power Board Bracket</v>
@@ -8449,7 +8453,7 @@
     </row>
     <row r="144" spans="2:13" ht="19">
       <c r="B144" s="276"/>
-      <c r="C144" s="273"/>
+      <c r="C144" s="280"/>
       <c r="D144" s="198" t="str">
         <f>EDD!D8</f>
         <v>Power Board</v>
@@ -8485,7 +8489,7 @@
     </row>
     <row r="145" spans="2:13" ht="19">
       <c r="B145" s="276"/>
-      <c r="C145" s="273"/>
+      <c r="C145" s="280"/>
       <c r="D145" s="161" t="str">
         <f>EDD!D9</f>
         <v>Control Board Bracket</v>
@@ -8517,7 +8521,7 @@
     </row>
     <row r="146" spans="2:13" ht="19">
       <c r="B146" s="276"/>
-      <c r="C146" s="273"/>
+      <c r="C146" s="280"/>
       <c r="D146" s="161" t="str">
         <f>EDD!D10</f>
         <v>Control Board</v>
@@ -8555,7 +8559,7 @@
     </row>
     <row r="147" spans="2:13" ht="19">
       <c r="B147" s="276"/>
-      <c r="C147" s="273"/>
+      <c r="C147" s="280"/>
       <c r="D147" s="161" t="str">
         <f>EDD!D11</f>
         <v>3P Connector Female</v>
@@ -8593,7 +8597,7 @@
     </row>
     <row r="148" spans="2:13" ht="19">
       <c r="B148" s="276"/>
-      <c r="C148" s="273"/>
+      <c r="C148" s="280"/>
       <c r="D148" s="161" t="str">
         <f>EDD!D12</f>
         <v>Locking</v>
@@ -8631,7 +8635,7 @@
     </row>
     <row r="149" spans="2:13" ht="19">
       <c r="B149" s="276"/>
-      <c r="C149" s="273"/>
+      <c r="C149" s="280"/>
       <c r="D149" s="161" t="str">
         <f>EDD!D13</f>
         <v>4P Connector Female</v>
@@ -8669,7 +8673,7 @@
     </row>
     <row r="150" spans="2:13" ht="19">
       <c r="B150" s="276"/>
-      <c r="C150" s="273"/>
+      <c r="C150" s="280"/>
       <c r="D150" s="161" t="str">
         <f>EDD!D14</f>
         <v>Pin</v>
@@ -8707,7 +8711,7 @@
     </row>
     <row r="151" spans="2:13" ht="19">
       <c r="B151" s="276"/>
-      <c r="C151" s="273"/>
+      <c r="C151" s="280"/>
       <c r="D151" s="161" t="str">
         <f>EDD!D15</f>
         <v>Mount Bracket</v>
@@ -8739,7 +8743,7 @@
     </row>
     <row r="152" spans="2:13" ht="19">
       <c r="B152" s="276"/>
-      <c r="C152" s="273"/>
+      <c r="C152" s="280"/>
       <c r="D152" s="198" t="str">
         <f>EDD!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -8771,7 +8775,7 @@
     </row>
     <row r="153" spans="2:13" ht="18">
       <c r="B153" s="276"/>
-      <c r="C153" s="273"/>
+      <c r="C153" s="280"/>
       <c r="D153" s="145"/>
       <c r="E153" s="145"/>
       <c r="F153" s="145"/>
@@ -8785,7 +8789,7 @@
     </row>
     <row r="154" spans="2:13" ht="19">
       <c r="B154" s="276"/>
-      <c r="C154" s="274"/>
+      <c r="C154" s="281"/>
       <c r="D154" s="148" t="s">
         <v>286</v>
       </c>
@@ -8811,7 +8815,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="281" t="s">
+      <c r="B155" s="283" t="s">
         <v>285</v>
       </c>
       <c r="C155" s="177">
@@ -8848,7 +8852,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="281"/>
+      <c r="B156" s="283"/>
       <c r="C156" s="177">
         <v>2</v>
       </c>
@@ -8883,7 +8887,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="281"/>
+      <c r="B157" s="283"/>
       <c r="C157" s="177">
         <v>3</v>
       </c>
@@ -8918,7 +8922,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="281"/>
+      <c r="B158" s="283"/>
       <c r="C158" s="177">
         <v>4</v>
       </c>
@@ -8948,7 +8952,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="281"/>
+      <c r="B159" s="283"/>
       <c r="C159" s="177">
         <v>5</v>
       </c>
@@ -8979,7 +8983,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="281"/>
+      <c r="B160" s="283"/>
       <c r="C160" s="177">
         <v>6</v>
       </c>
@@ -9007,7 +9011,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="281"/>
+      <c r="B161" s="283"/>
       <c r="C161" s="177">
         <v>7</v>
       </c>
@@ -9044,7 +9048,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="282"/>
+      <c r="B162" s="284"/>
       <c r="C162" s="215">
         <v>8</v>
       </c>
@@ -9119,6 +9123,7 @@
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="B155:B162"/>
     <mergeCell ref="C3:C30"/>
     <mergeCell ref="B138:B154"/>
     <mergeCell ref="B3:B30"/>
@@ -9135,7 +9140,6 @@
     <mergeCell ref="B121:B137"/>
     <mergeCell ref="C121:C137"/>
     <mergeCell ref="C138:C154"/>
-    <mergeCell ref="B155:B162"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11069,7 +11073,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="18"/>
@@ -12538,7 +12542,10 @@
         <v>1129222</v>
       </c>
     </row>
-    <row r="49" spans="7:7">
+    <row r="49" spans="4:7">
+      <c r="D49" s="32" t="s">
+        <v>389</v>
+      </c>
       <c r="G49" s="32">
         <v>88888877777</v>
       </c>
